--- a/II.-merfoldko-kovetelmeny.xlsx
+++ b/II.-merfoldko-kovetelmeny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bence\Desktop\4th-semester\webterv\webterv-beadando\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1BF130-8292-4568-B0F9-0AA3BDA68F87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CD6806-70DE-4668-B055-429B69633B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="II. mérföldkő - Követelmények" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
   <si>
     <t>Részfeladat(ok)</t>
   </si>
@@ -212,6 +211,9 @@
   </si>
   <si>
     <t>Katona Bence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">footer </t>
   </si>
 </sst>
 </file>
@@ -272,7 +274,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,6 +309,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
   </fills>
@@ -366,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -414,9 +422,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -429,17 +434,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -468,6 +470,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,32 +715,33 @@
   </sheetPr>
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" customWidth="1"/>
+    <col min="5" max="5" width="41.88671875" customWidth="1"/>
+    <col min="7" max="8" width="14.44140625" style="45"/>
+    <col min="12" max="12" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="38" t="s">
         <v>58</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -741,26 +768,26 @@
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
     </row>
-    <row r="2" spans="1:21" ht="12.75">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:21" ht="13.2">
+      <c r="A2" s="30" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="31"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6">
         <v>2</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="24">
         <v>44273</v>
       </c>
       <c r="J2" s="4"/>
@@ -770,11 +797,11 @@
       </c>
       <c r="M2" s="7">
         <f>SUMIFS(F2:F19,G2:G19,"&lt;&gt;")</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N2" s="7">
         <f>SUMIFS(F2:F19,H2:H19,"&lt;&gt;")</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -784,24 +811,24 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:21" ht="12.75">
-      <c r="A3" s="33"/>
+    <row r="3" spans="1:21" ht="13.2">
+      <c r="A3" s="31"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="31"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6">
         <v>5</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="24" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="24">
         <v>44273</v>
       </c>
       <c r="J3" s="4"/>
@@ -825,12 +852,12 @@
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:21" ht="25.5">
-      <c r="A4" s="33"/>
-      <c r="B4" s="35">
+    <row r="4" spans="1:21" ht="26.4">
+      <c r="A4" s="31"/>
+      <c r="B4" s="33">
         <v>3</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -840,11 +867,11 @@
       <c r="F4" s="6">
         <v>2</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="26">
+      <c r="H4" s="40"/>
+      <c r="I4" s="24">
         <v>44266</v>
       </c>
       <c r="J4" s="4"/>
@@ -868,10 +895,10 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:21" ht="12.75">
-      <c r="A5" s="33"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
+    <row r="5" spans="1:21" ht="13.2">
+      <c r="A5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
@@ -879,11 +906,11 @@
       <c r="F5" s="6">
         <v>2</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="26">
+      <c r="H5" s="39"/>
+      <c r="I5" s="24">
         <v>44266</v>
       </c>
       <c r="J5" s="4"/>
@@ -907,12 +934,12 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:21" ht="12.75">
-      <c r="A6" s="33"/>
-      <c r="B6" s="35">
+    <row r="6" spans="1:21" ht="13.2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="33">
         <v>4</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="33" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -924,11 +951,11 @@
       <c r="F6" s="6">
         <v>2</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="26">
+      <c r="H6" s="39"/>
+      <c r="I6" s="24">
         <v>44266</v>
       </c>
       <c r="J6" s="4"/>
@@ -938,11 +965,11 @@
       </c>
       <c r="M6" s="10">
         <f t="shared" ref="M6:N6" si="1">M2+M4</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N6" s="10">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -953,10 +980,10 @@
       <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="35" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="12" t="s">
@@ -965,11 +992,11 @@
       <c r="F7" s="6">
         <v>2</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="26">
+      <c r="H7" s="39"/>
+      <c r="I7" s="24">
         <v>44266</v>
       </c>
       <c r="J7" s="4"/>
@@ -993,22 +1020,22 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:21" ht="12.75">
-      <c r="A8" s="33"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+    <row r="8" spans="1:21" ht="13.2">
+      <c r="A8" s="31"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="6">
         <v>2</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="26">
+      <c r="H8" s="39"/>
+      <c r="I8" s="24">
         <v>44266</v>
       </c>
       <c r="J8" s="4"/>
@@ -1024,10 +1051,10 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:21" ht="12.75">
-      <c r="A9" s="33"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
+    <row r="9" spans="1:21" ht="13.2">
+      <c r="A9" s="31"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1035,11 +1062,11 @@
       <c r="F9" s="6">
         <v>2</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="26">
+      <c r="H9" s="39"/>
+      <c r="I9" s="24">
         <v>44266</v>
       </c>
       <c r="J9" s="4"/>
@@ -1055,10 +1082,10 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:21" ht="12.75">
-      <c r="A10" s="33"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
+    <row r="10" spans="1:21" ht="13.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1066,11 +1093,11 @@
       <c r="F10" s="6">
         <v>2</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26">
+      <c r="H10" s="43"/>
+      <c r="I10" s="24">
         <v>44266</v>
       </c>
       <c r="J10" s="4"/>
@@ -1086,12 +1113,12 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:21" ht="12.75">
-      <c r="A11" s="33"/>
-      <c r="B11" s="35">
+    <row r="11" spans="1:21" ht="13.2">
+      <c r="A11" s="31"/>
+      <c r="B11" s="33">
         <v>5</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1101,11 +1128,11 @@
       <c r="F11" s="6">
         <v>2</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="26">
+      <c r="H11" s="39"/>
+      <c r="I11" s="24">
         <v>44266</v>
       </c>
       <c r="J11" s="4"/>
@@ -1121,24 +1148,24 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:21" ht="12.75">
-      <c r="A12" s="33"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="35" t="s">
+    <row r="12" spans="1:21" ht="13.2">
+      <c r="A12" s="31"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="36">
         <v>6</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="39"/>
+      <c r="H12" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="26">
+      <c r="I12" s="24">
         <v>44266</v>
       </c>
       <c r="J12" s="4"/>
@@ -1154,20 +1181,20 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:21" ht="12.75">
-      <c r="A13" s="33"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+    <row r="13" spans="1:21" ht="13.2">
+      <c r="A13" s="31"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="25" t="s">
+      <c r="F13" s="29"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26">
+      <c r="I13" s="24">
         <v>44266</v>
       </c>
       <c r="J13" s="4"/>
@@ -1183,20 +1210,20 @@
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:21" ht="12.75">
-      <c r="A14" s="33"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+    <row r="14" spans="1:21" ht="13.2">
+      <c r="A14" s="31"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="25" t="s">
+      <c r="F14" s="29"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26">
+      <c r="I14" s="24">
         <v>44266</v>
       </c>
       <c r="J14" s="4"/>
@@ -1212,20 +1239,20 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:21" ht="38.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
+    <row r="15" spans="1:21" ht="39.6">
+      <c r="A15" s="31"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="25" t="s">
+      <c r="F15" s="29"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26">
+      <c r="I15" s="24">
         <v>44266</v>
       </c>
       <c r="J15" s="4"/>
@@ -1241,28 +1268,28 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:21" ht="12.75">
-      <c r="A16" s="33"/>
-      <c r="B16" s="32">
+    <row r="16" spans="1:21" ht="13.2">
+      <c r="A16" s="31"/>
+      <c r="B16" s="30">
         <v>6</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="26">
         <v>10</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="24" t="s">
+      <c r="G16" s="39"/>
+      <c r="H16" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="24">
         <v>44266</v>
       </c>
       <c r="J16" s="4"/>
@@ -1278,20 +1305,20 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:21" ht="12.75">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="20" t="s">
+    <row r="17" spans="1:21" ht="13.2">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="24" t="s">
+      <c r="F17" s="27"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="24">
         <v>44266</v>
       </c>
       <c r="J17" s="4"/>
@@ -1307,20 +1334,20 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:21" ht="12.75">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="20" t="s">
+    <row r="18" spans="1:21" ht="13.2">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="24" t="s">
+      <c r="F18" s="27"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="24">
         <v>44266</v>
       </c>
       <c r="J18" s="4"/>
@@ -1336,22 +1363,22 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21" ht="12.75">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="21" t="s">
+    <row r="19" spans="1:21" ht="13.2">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23">
+      <c r="E19" s="21"/>
+      <c r="F19" s="22">
         <v>5</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="24" t="s">
+      <c r="G19" s="39"/>
+      <c r="H19" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="24">
         <v>44266</v>
       </c>
       <c r="J19" s="4"/>
@@ -1367,17 +1394,17 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:21" ht="12.75">
-      <c r="A20" s="39" t="s">
+    <row r="20" spans="1:21" ht="13.2">
+      <c r="A20" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="28">
         <v>6</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="28" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1386,11 +1413,11 @@
       <c r="F20" s="15">
         <v>6</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26">
+      <c r="H20" s="43"/>
+      <c r="I20" s="24">
         <v>44273</v>
       </c>
       <c r="J20" s="4"/>
@@ -1406,22 +1433,22 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:21" ht="12.75">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
+    <row r="21" spans="1:21" ht="13.2">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="15">
         <v>4</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25" t="s">
+      <c r="G21" s="43"/>
+      <c r="H21" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="24">
         <v>44273</v>
       </c>
       <c r="J21" s="4"/>
@@ -1437,22 +1464,22 @@
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="1:21" ht="25.5">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+    <row r="22" spans="1:21" ht="13.2">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F22" s="15">
         <v>8</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26">
+      <c r="H22" s="43"/>
+      <c r="I22" s="24">
         <v>44273</v>
       </c>
       <c r="J22" s="4"/>
@@ -1468,22 +1495,22 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="1:21" ht="12.75">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
+    <row r="23" spans="1:21" ht="13.2">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="15">
         <v>4</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25" t="s">
+      <c r="G23" s="43"/>
+      <c r="H23" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="24">
         <v>44273</v>
       </c>
       <c r="J23" s="4"/>
@@ -1499,22 +1526,22 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:21" ht="12.75">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
+    <row r="24" spans="1:21" ht="13.2">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="15">
         <v>8</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26">
+      <c r="H24" s="43"/>
+      <c r="I24" s="24">
         <v>44273</v>
       </c>
       <c r="J24" s="4"/>
@@ -1530,22 +1557,22 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21" ht="12.75">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+    <row r="25" spans="1:21" ht="13.2">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="15">
         <v>3</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25" t="s">
+      <c r="G25" s="43"/>
+      <c r="H25" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="24">
         <v>44273</v>
       </c>
       <c r="J25" s="4"/>
@@ -1561,22 +1588,22 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:21" ht="12.75">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
+    <row r="26" spans="1:21" ht="13.2">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F26" s="15">
         <v>4</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26">
+      <c r="H26" s="43"/>
+      <c r="I26" s="24">
         <v>44273</v>
       </c>
       <c r="J26" s="4"/>
@@ -1592,22 +1619,22 @@
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="1:21" ht="12.75">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
+    <row r="27" spans="1:21" ht="13.2">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F27" s="15">
         <v>4</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25" t="s">
+      <c r="G27" s="43"/>
+      <c r="H27" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="24">
         <v>44273</v>
       </c>
       <c r="J27" s="4"/>
@@ -1623,20 +1650,20 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:21" ht="12.75">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
+    <row r="28" spans="1:21" ht="13.2">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F28" s="15">
         <v>4</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -1650,20 +1677,20 @@
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="1:21" ht="12.75">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
+    <row r="29" spans="1:21" ht="13.2">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F29" s="15">
         <v>10</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -1677,18 +1704,18 @@
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="1:21" ht="12.75">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
+    <row r="30" spans="1:21" ht="13.2">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="16"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="23"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -1702,12 +1729,12 @@
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21" ht="25.5">
-      <c r="A31" s="31"/>
-      <c r="B31" s="30">
+    <row r="31" spans="1:21" ht="13.2">
+      <c r="A31" s="29"/>
+      <c r="B31" s="28">
         <v>7</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="28" t="s">
         <v>50</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1717,9 +1744,9 @@
       <c r="F31" s="15">
         <v>8</v>
       </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -1733,10 +1760,10 @@
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="1:21" ht="12.75">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
+    <row r="32" spans="1:21" ht="13.2">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="1" t="s">
         <v>52</v>
       </c>
@@ -1744,11 +1771,11 @@
       <c r="F32" s="15">
         <v>4</v>
       </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25" t="s">
+      <c r="G32" s="43"/>
+      <c r="H32" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="24">
         <v>44273</v>
       </c>
       <c r="J32" s="4"/>
@@ -1764,10 +1791,10 @@
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="1:21" ht="12.75">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
+    <row r="33" spans="1:21" ht="13.2">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="1" t="s">
         <v>53</v>
       </c>
@@ -1775,14 +1802,16 @@
       <c r="F33" s="15">
         <v>4</v>
       </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25" t="s">
+      <c r="G33" s="43"/>
+      <c r="H33" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="I33" s="26">
+      <c r="I33" s="24">
         <v>44273</v>
       </c>
-      <c r="J33" s="4"/>
+      <c r="J33" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -1795,10 +1824,10 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:21" ht="25.5">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
+    <row r="34" spans="1:21" ht="13.2">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="1" t="s">
         <v>54</v>
       </c>
@@ -1806,11 +1835,11 @@
       <c r="F34" s="15">
         <v>2</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25" t="s">
+      <c r="G34" s="43"/>
+      <c r="H34" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="I34" s="26">
+      <c r="I34" s="24">
         <v>44273</v>
       </c>
       <c r="J34" s="4"/>
@@ -1826,10 +1855,10 @@
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="1:21" ht="12.75">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
+    <row r="35" spans="1:21" ht="13.2">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="1" t="s">
         <v>55</v>
       </c>
@@ -1837,11 +1866,11 @@
       <c r="F35" s="15">
         <v>2</v>
       </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25" t="s">
+      <c r="G35" s="43"/>
+      <c r="H35" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="I35" s="26">
+      <c r="I35" s="24">
         <v>44273</v>
       </c>
       <c r="J35" s="4"/>
@@ -1857,15 +1886,15 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="1:21" ht="12.75">
+    <row r="36" spans="1:21" ht="13.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -1880,15 +1909,15 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
     </row>
-    <row r="37" spans="1:21" ht="12.75">
+    <row r="37" spans="1:21" ht="13.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -1903,15 +1932,15 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="1:21" ht="12.75">
+    <row r="38" spans="1:21" ht="13.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -1926,15 +1955,15 @@
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
     </row>
-    <row r="39" spans="1:21" ht="12.75">
+    <row r="39" spans="1:21" ht="13.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -1949,15 +1978,15 @@
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="1:21" ht="12.75">
+    <row r="40" spans="1:21" ht="13.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -1972,15 +2001,15 @@
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
     </row>
-    <row r="41" spans="1:21" ht="12.75">
+    <row r="41" spans="1:21" ht="13.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -1995,15 +2024,15 @@
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
     </row>
-    <row r="42" spans="1:21" ht="12.75">
+    <row r="42" spans="1:21" ht="13.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -2018,15 +2047,15 @@
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
     </row>
-    <row r="43" spans="1:21" ht="12.75">
+    <row r="43" spans="1:21" ht="13.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -2041,15 +2070,15 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
     </row>
-    <row r="44" spans="1:21" ht="12.75">
+    <row r="44" spans="1:21" ht="13.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -2064,15 +2093,15 @@
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
     </row>
-    <row r="45" spans="1:21" ht="12.75">
+    <row r="45" spans="1:21" ht="13.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -2087,15 +2116,15 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="46" spans="1:21" ht="12.75">
+    <row r="46" spans="1:21" ht="13.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -2110,15 +2139,15 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
     </row>
-    <row r="47" spans="1:21" ht="12.75">
+    <row r="47" spans="1:21" ht="13.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -2133,15 +2162,15 @@
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
     </row>
-    <row r="48" spans="1:21" ht="12.75">
+    <row r="48" spans="1:21" ht="13.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -2156,15 +2185,15 @@
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
     </row>
-    <row r="49" spans="1:21" ht="12.75">
+    <row r="49" spans="1:21" ht="13.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -2179,15 +2208,15 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
     </row>
-    <row r="50" spans="1:21" ht="12.75">
+    <row r="50" spans="1:21" ht="13.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -2202,15 +2231,15 @@
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
     </row>
-    <row r="51" spans="1:21" ht="12.75">
+    <row r="51" spans="1:21" ht="13.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -2225,15 +2254,15 @@
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
     </row>
-    <row r="52" spans="1:21" ht="12.75">
+    <row r="52" spans="1:21" ht="13.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -2248,15 +2277,15 @@
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
     </row>
-    <row r="53" spans="1:21" ht="12.75">
+    <row r="53" spans="1:21" ht="13.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -2271,15 +2300,15 @@
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
     </row>
-    <row r="54" spans="1:21" ht="12.75">
+    <row r="54" spans="1:21" ht="13.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -2294,15 +2323,15 @@
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
     </row>
-    <row r="55" spans="1:21" ht="12.75">
+    <row r="55" spans="1:21" ht="13.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -2317,15 +2346,15 @@
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
     </row>
-    <row r="56" spans="1:21" ht="12.75">
+    <row r="56" spans="1:21" ht="13.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -2340,15 +2369,15 @@
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
     </row>
-    <row r="57" spans="1:21" ht="12.75">
+    <row r="57" spans="1:21" ht="13.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -2363,15 +2392,15 @@
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
     </row>
-    <row r="58" spans="1:21" ht="12.75">
+    <row r="58" spans="1:21" ht="13.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -2386,2830 +2415,2830 @@
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
     </row>
-    <row r="59" spans="1:21" ht="12.75">
+    <row r="59" spans="1:21" ht="13.2">
       <c r="F59" s="18"/>
     </row>
-    <row r="60" spans="1:21" ht="12.75">
+    <row r="60" spans="1:21" ht="13.2">
       <c r="F60" s="18"/>
     </row>
-    <row r="61" spans="1:21" ht="12.75">
+    <row r="61" spans="1:21" ht="13.2">
       <c r="F61" s="18"/>
     </row>
-    <row r="62" spans="1:21" ht="12.75">
+    <row r="62" spans="1:21" ht="13.2">
       <c r="F62" s="18"/>
     </row>
-    <row r="63" spans="1:21" ht="12.75">
+    <row r="63" spans="1:21" ht="13.2">
       <c r="F63" s="18"/>
     </row>
-    <row r="64" spans="1:21" ht="12.75">
+    <row r="64" spans="1:21" ht="13.2">
       <c r="F64" s="18"/>
     </row>
-    <row r="65" spans="6:6" ht="12.75">
+    <row r="65" spans="6:6" ht="13.2">
       <c r="F65" s="18"/>
     </row>
-    <row r="66" spans="6:6" ht="12.75">
+    <row r="66" spans="6:6" ht="13.2">
       <c r="F66" s="18"/>
     </row>
-    <row r="67" spans="6:6" ht="12.75">
+    <row r="67" spans="6:6" ht="13.2">
       <c r="F67" s="18"/>
     </row>
-    <row r="68" spans="6:6" ht="12.75">
+    <row r="68" spans="6:6" ht="13.2">
       <c r="F68" s="18"/>
     </row>
-    <row r="69" spans="6:6" ht="12.75">
+    <row r="69" spans="6:6" ht="13.2">
       <c r="F69" s="18"/>
     </row>
-    <row r="70" spans="6:6" ht="12.75">
+    <row r="70" spans="6:6" ht="13.2">
       <c r="F70" s="18"/>
     </row>
-    <row r="71" spans="6:6" ht="12.75">
+    <row r="71" spans="6:6" ht="13.2">
       <c r="F71" s="18"/>
     </row>
-    <row r="72" spans="6:6" ht="12.75">
+    <row r="72" spans="6:6" ht="13.2">
       <c r="F72" s="18"/>
     </row>
-    <row r="73" spans="6:6" ht="12.75">
+    <row r="73" spans="6:6" ht="13.2">
       <c r="F73" s="18"/>
     </row>
-    <row r="74" spans="6:6" ht="12.75">
+    <row r="74" spans="6:6" ht="13.2">
       <c r="F74" s="18"/>
     </row>
-    <row r="75" spans="6:6" ht="12.75">
+    <row r="75" spans="6:6" ht="13.2">
       <c r="F75" s="18"/>
     </row>
-    <row r="76" spans="6:6" ht="12.75">
+    <row r="76" spans="6:6" ht="13.2">
       <c r="F76" s="18"/>
     </row>
-    <row r="77" spans="6:6" ht="12.75">
+    <row r="77" spans="6:6" ht="13.2">
       <c r="F77" s="18"/>
     </row>
-    <row r="78" spans="6:6" ht="12.75">
+    <row r="78" spans="6:6" ht="13.2">
       <c r="F78" s="18"/>
     </row>
-    <row r="79" spans="6:6" ht="12.75">
+    <row r="79" spans="6:6" ht="13.2">
       <c r="F79" s="18"/>
     </row>
-    <row r="80" spans="6:6" ht="12.75">
+    <row r="80" spans="6:6" ht="13.2">
       <c r="F80" s="18"/>
     </row>
-    <row r="81" spans="6:6" ht="12.75">
+    <row r="81" spans="6:6" ht="13.2">
       <c r="F81" s="18"/>
     </row>
-    <row r="82" spans="6:6" ht="12.75">
+    <row r="82" spans="6:6" ht="13.2">
       <c r="F82" s="18"/>
     </row>
-    <row r="83" spans="6:6" ht="12.75">
+    <row r="83" spans="6:6" ht="13.2">
       <c r="F83" s="18"/>
     </row>
-    <row r="84" spans="6:6" ht="12.75">
+    <row r="84" spans="6:6" ht="13.2">
       <c r="F84" s="18"/>
     </row>
-    <row r="85" spans="6:6" ht="12.75">
+    <row r="85" spans="6:6" ht="13.2">
       <c r="F85" s="18"/>
     </row>
-    <row r="86" spans="6:6" ht="12.75">
+    <row r="86" spans="6:6" ht="13.2">
       <c r="F86" s="18"/>
     </row>
-    <row r="87" spans="6:6" ht="12.75">
+    <row r="87" spans="6:6" ht="13.2">
       <c r="F87" s="18"/>
     </row>
-    <row r="88" spans="6:6" ht="12.75">
+    <row r="88" spans="6:6" ht="13.2">
       <c r="F88" s="18"/>
     </row>
-    <row r="89" spans="6:6" ht="12.75">
+    <row r="89" spans="6:6" ht="13.2">
       <c r="F89" s="18"/>
     </row>
-    <row r="90" spans="6:6" ht="12.75">
+    <row r="90" spans="6:6" ht="13.2">
       <c r="F90" s="18"/>
     </row>
-    <row r="91" spans="6:6" ht="12.75">
+    <row r="91" spans="6:6" ht="13.2">
       <c r="F91" s="18"/>
     </row>
-    <row r="92" spans="6:6" ht="12.75">
+    <row r="92" spans="6:6" ht="13.2">
       <c r="F92" s="18"/>
     </row>
-    <row r="93" spans="6:6" ht="12.75">
+    <row r="93" spans="6:6" ht="13.2">
       <c r="F93" s="18"/>
     </row>
-    <row r="94" spans="6:6" ht="12.75">
+    <row r="94" spans="6:6" ht="13.2">
       <c r="F94" s="18"/>
     </row>
-    <row r="95" spans="6:6" ht="12.75">
+    <row r="95" spans="6:6" ht="13.2">
       <c r="F95" s="18"/>
     </row>
-    <row r="96" spans="6:6" ht="12.75">
+    <row r="96" spans="6:6" ht="13.2">
       <c r="F96" s="18"/>
     </row>
-    <row r="97" spans="6:6" ht="12.75">
+    <row r="97" spans="6:6" ht="13.2">
       <c r="F97" s="18"/>
     </row>
-    <row r="98" spans="6:6" ht="12.75">
+    <row r="98" spans="6:6" ht="13.2">
       <c r="F98" s="18"/>
     </row>
-    <row r="99" spans="6:6" ht="12.75">
+    <row r="99" spans="6:6" ht="13.2">
       <c r="F99" s="18"/>
     </row>
-    <row r="100" spans="6:6" ht="12.75">
+    <row r="100" spans="6:6" ht="13.2">
       <c r="F100" s="18"/>
     </row>
-    <row r="101" spans="6:6" ht="12.75">
+    <row r="101" spans="6:6" ht="13.2">
       <c r="F101" s="18"/>
     </row>
-    <row r="102" spans="6:6" ht="12.75">
+    <row r="102" spans="6:6" ht="13.2">
       <c r="F102" s="18"/>
     </row>
-    <row r="103" spans="6:6" ht="12.75">
+    <row r="103" spans="6:6" ht="13.2">
       <c r="F103" s="18"/>
     </row>
-    <row r="104" spans="6:6" ht="12.75">
+    <row r="104" spans="6:6" ht="13.2">
       <c r="F104" s="18"/>
     </row>
-    <row r="105" spans="6:6" ht="12.75">
+    <row r="105" spans="6:6" ht="13.2">
       <c r="F105" s="18"/>
     </row>
-    <row r="106" spans="6:6" ht="12.75">
+    <row r="106" spans="6:6" ht="13.2">
       <c r="F106" s="18"/>
     </row>
-    <row r="107" spans="6:6" ht="12.75">
+    <row r="107" spans="6:6" ht="13.2">
       <c r="F107" s="18"/>
     </row>
-    <row r="108" spans="6:6" ht="12.75">
+    <row r="108" spans="6:6" ht="13.2">
       <c r="F108" s="18"/>
     </row>
-    <row r="109" spans="6:6" ht="12.75">
+    <row r="109" spans="6:6" ht="13.2">
       <c r="F109" s="18"/>
     </row>
-    <row r="110" spans="6:6" ht="12.75">
+    <row r="110" spans="6:6" ht="13.2">
       <c r="F110" s="18"/>
     </row>
-    <row r="111" spans="6:6" ht="12.75">
+    <row r="111" spans="6:6" ht="13.2">
       <c r="F111" s="18"/>
     </row>
-    <row r="112" spans="6:6" ht="12.75">
+    <row r="112" spans="6:6" ht="13.2">
       <c r="F112" s="18"/>
     </row>
-    <row r="113" spans="6:6" ht="12.75">
+    <row r="113" spans="6:6" ht="13.2">
       <c r="F113" s="18"/>
     </row>
-    <row r="114" spans="6:6" ht="12.75">
+    <row r="114" spans="6:6" ht="13.2">
       <c r="F114" s="18"/>
     </row>
-    <row r="115" spans="6:6" ht="12.75">
+    <row r="115" spans="6:6" ht="13.2">
       <c r="F115" s="18"/>
     </row>
-    <row r="116" spans="6:6" ht="12.75">
+    <row r="116" spans="6:6" ht="13.2">
       <c r="F116" s="18"/>
     </row>
-    <row r="117" spans="6:6" ht="12.75">
+    <row r="117" spans="6:6" ht="13.2">
       <c r="F117" s="18"/>
     </row>
-    <row r="118" spans="6:6" ht="12.75">
+    <row r="118" spans="6:6" ht="13.2">
       <c r="F118" s="18"/>
     </row>
-    <row r="119" spans="6:6" ht="12.75">
+    <row r="119" spans="6:6" ht="13.2">
       <c r="F119" s="18"/>
     </row>
-    <row r="120" spans="6:6" ht="12.75">
+    <row r="120" spans="6:6" ht="13.2">
       <c r="F120" s="18"/>
     </row>
-    <row r="121" spans="6:6" ht="12.75">
+    <row r="121" spans="6:6" ht="13.2">
       <c r="F121" s="18"/>
     </row>
-    <row r="122" spans="6:6" ht="12.75">
+    <row r="122" spans="6:6" ht="13.2">
       <c r="F122" s="18"/>
     </row>
-    <row r="123" spans="6:6" ht="12.75">
+    <row r="123" spans="6:6" ht="13.2">
       <c r="F123" s="18"/>
     </row>
-    <row r="124" spans="6:6" ht="12.75">
+    <row r="124" spans="6:6" ht="13.2">
       <c r="F124" s="18"/>
     </row>
-    <row r="125" spans="6:6" ht="12.75">
+    <row r="125" spans="6:6" ht="13.2">
       <c r="F125" s="18"/>
     </row>
-    <row r="126" spans="6:6" ht="12.75">
+    <row r="126" spans="6:6" ht="13.2">
       <c r="F126" s="18"/>
     </row>
-    <row r="127" spans="6:6" ht="12.75">
+    <row r="127" spans="6:6" ht="13.2">
       <c r="F127" s="18"/>
     </row>
-    <row r="128" spans="6:6" ht="12.75">
+    <row r="128" spans="6:6" ht="13.2">
       <c r="F128" s="18"/>
     </row>
-    <row r="129" spans="6:6" ht="12.75">
+    <row r="129" spans="6:6" ht="13.2">
       <c r="F129" s="18"/>
     </row>
-    <row r="130" spans="6:6" ht="12.75">
+    <row r="130" spans="6:6" ht="13.2">
       <c r="F130" s="18"/>
     </row>
-    <row r="131" spans="6:6" ht="12.75">
+    <row r="131" spans="6:6" ht="13.2">
       <c r="F131" s="18"/>
     </row>
-    <row r="132" spans="6:6" ht="12.75">
+    <row r="132" spans="6:6" ht="13.2">
       <c r="F132" s="18"/>
     </row>
-    <row r="133" spans="6:6" ht="12.75">
+    <row r="133" spans="6:6" ht="13.2">
       <c r="F133" s="18"/>
     </row>
-    <row r="134" spans="6:6" ht="12.75">
+    <row r="134" spans="6:6" ht="13.2">
       <c r="F134" s="18"/>
     </row>
-    <row r="135" spans="6:6" ht="12.75">
+    <row r="135" spans="6:6" ht="13.2">
       <c r="F135" s="18"/>
     </row>
-    <row r="136" spans="6:6" ht="12.75">
+    <row r="136" spans="6:6" ht="13.2">
       <c r="F136" s="18"/>
     </row>
-    <row r="137" spans="6:6" ht="12.75">
+    <row r="137" spans="6:6" ht="13.2">
       <c r="F137" s="18"/>
     </row>
-    <row r="138" spans="6:6" ht="12.75">
+    <row r="138" spans="6:6" ht="13.2">
       <c r="F138" s="18"/>
     </row>
-    <row r="139" spans="6:6" ht="12.75">
+    <row r="139" spans="6:6" ht="13.2">
       <c r="F139" s="18"/>
     </row>
-    <row r="140" spans="6:6" ht="12.75">
+    <row r="140" spans="6:6" ht="13.2">
       <c r="F140" s="18"/>
     </row>
-    <row r="141" spans="6:6" ht="12.75">
+    <row r="141" spans="6:6" ht="13.2">
       <c r="F141" s="18"/>
     </row>
-    <row r="142" spans="6:6" ht="12.75">
+    <row r="142" spans="6:6" ht="13.2">
       <c r="F142" s="18"/>
     </row>
-    <row r="143" spans="6:6" ht="12.75">
+    <row r="143" spans="6:6" ht="13.2">
       <c r="F143" s="18"/>
     </row>
-    <row r="144" spans="6:6" ht="12.75">
+    <row r="144" spans="6:6" ht="13.2">
       <c r="F144" s="18"/>
     </row>
-    <row r="145" spans="6:6" ht="12.75">
+    <row r="145" spans="6:6" ht="13.2">
       <c r="F145" s="18"/>
     </row>
-    <row r="146" spans="6:6" ht="12.75">
+    <row r="146" spans="6:6" ht="13.2">
       <c r="F146" s="18"/>
     </row>
-    <row r="147" spans="6:6" ht="12.75">
+    <row r="147" spans="6:6" ht="13.2">
       <c r="F147" s="18"/>
     </row>
-    <row r="148" spans="6:6" ht="12.75">
+    <row r="148" spans="6:6" ht="13.2">
       <c r="F148" s="18"/>
     </row>
-    <row r="149" spans="6:6" ht="12.75">
+    <row r="149" spans="6:6" ht="13.2">
       <c r="F149" s="18"/>
     </row>
-    <row r="150" spans="6:6" ht="12.75">
+    <row r="150" spans="6:6" ht="13.2">
       <c r="F150" s="18"/>
     </row>
-    <row r="151" spans="6:6" ht="12.75">
+    <row r="151" spans="6:6" ht="13.2">
       <c r="F151" s="18"/>
     </row>
-    <row r="152" spans="6:6" ht="12.75">
+    <row r="152" spans="6:6" ht="13.2">
       <c r="F152" s="18"/>
     </row>
-    <row r="153" spans="6:6" ht="12.75">
+    <row r="153" spans="6:6" ht="13.2">
       <c r="F153" s="18"/>
     </row>
-    <row r="154" spans="6:6" ht="12.75">
+    <row r="154" spans="6:6" ht="13.2">
       <c r="F154" s="18"/>
     </row>
-    <row r="155" spans="6:6" ht="12.75">
+    <row r="155" spans="6:6" ht="13.2">
       <c r="F155" s="18"/>
     </row>
-    <row r="156" spans="6:6" ht="12.75">
+    <row r="156" spans="6:6" ht="13.2">
       <c r="F156" s="18"/>
     </row>
-    <row r="157" spans="6:6" ht="12.75">
+    <row r="157" spans="6:6" ht="13.2">
       <c r="F157" s="18"/>
     </row>
-    <row r="158" spans="6:6" ht="12.75">
+    <row r="158" spans="6:6" ht="13.2">
       <c r="F158" s="18"/>
     </row>
-    <row r="159" spans="6:6" ht="12.75">
+    <row r="159" spans="6:6" ht="13.2">
       <c r="F159" s="18"/>
     </row>
-    <row r="160" spans="6:6" ht="12.75">
+    <row r="160" spans="6:6" ht="13.2">
       <c r="F160" s="18"/>
     </row>
-    <row r="161" spans="6:6" ht="12.75">
+    <row r="161" spans="6:6" ht="13.2">
       <c r="F161" s="18"/>
     </row>
-    <row r="162" spans="6:6" ht="12.75">
+    <row r="162" spans="6:6" ht="13.2">
       <c r="F162" s="18"/>
     </row>
-    <row r="163" spans="6:6" ht="12.75">
+    <row r="163" spans="6:6" ht="13.2">
       <c r="F163" s="18"/>
     </row>
-    <row r="164" spans="6:6" ht="12.75">
+    <row r="164" spans="6:6" ht="13.2">
       <c r="F164" s="18"/>
     </row>
-    <row r="165" spans="6:6" ht="12.75">
+    <row r="165" spans="6:6" ht="13.2">
       <c r="F165" s="18"/>
     </row>
-    <row r="166" spans="6:6" ht="12.75">
+    <row r="166" spans="6:6" ht="13.2">
       <c r="F166" s="18"/>
     </row>
-    <row r="167" spans="6:6" ht="12.75">
+    <row r="167" spans="6:6" ht="13.2">
       <c r="F167" s="18"/>
     </row>
-    <row r="168" spans="6:6" ht="12.75">
+    <row r="168" spans="6:6" ht="13.2">
       <c r="F168" s="18"/>
     </row>
-    <row r="169" spans="6:6" ht="12.75">
+    <row r="169" spans="6:6" ht="13.2">
       <c r="F169" s="18"/>
     </row>
-    <row r="170" spans="6:6" ht="12.75">
+    <row r="170" spans="6:6" ht="13.2">
       <c r="F170" s="18"/>
     </row>
-    <row r="171" spans="6:6" ht="12.75">
+    <row r="171" spans="6:6" ht="13.2">
       <c r="F171" s="18"/>
     </row>
-    <row r="172" spans="6:6" ht="12.75">
+    <row r="172" spans="6:6" ht="13.2">
       <c r="F172" s="18"/>
     </row>
-    <row r="173" spans="6:6" ht="12.75">
+    <row r="173" spans="6:6" ht="13.2">
       <c r="F173" s="18"/>
     </row>
-    <row r="174" spans="6:6" ht="12.75">
+    <row r="174" spans="6:6" ht="13.2">
       <c r="F174" s="18"/>
     </row>
-    <row r="175" spans="6:6" ht="12.75">
+    <row r="175" spans="6:6" ht="13.2">
       <c r="F175" s="18"/>
     </row>
-    <row r="176" spans="6:6" ht="12.75">
+    <row r="176" spans="6:6" ht="13.2">
       <c r="F176" s="18"/>
     </row>
-    <row r="177" spans="6:6" ht="12.75">
+    <row r="177" spans="6:6" ht="13.2">
       <c r="F177" s="18"/>
     </row>
-    <row r="178" spans="6:6" ht="12.75">
+    <row r="178" spans="6:6" ht="13.2">
       <c r="F178" s="18"/>
     </row>
-    <row r="179" spans="6:6" ht="12.75">
+    <row r="179" spans="6:6" ht="13.2">
       <c r="F179" s="18"/>
     </row>
-    <row r="180" spans="6:6" ht="12.75">
+    <row r="180" spans="6:6" ht="13.2">
       <c r="F180" s="18"/>
     </row>
-    <row r="181" spans="6:6" ht="12.75">
+    <row r="181" spans="6:6" ht="13.2">
       <c r="F181" s="18"/>
     </row>
-    <row r="182" spans="6:6" ht="12.75">
+    <row r="182" spans="6:6" ht="13.2">
       <c r="F182" s="18"/>
     </row>
-    <row r="183" spans="6:6" ht="12.75">
+    <row r="183" spans="6:6" ht="13.2">
       <c r="F183" s="18"/>
     </row>
-    <row r="184" spans="6:6" ht="12.75">
+    <row r="184" spans="6:6" ht="13.2">
       <c r="F184" s="18"/>
     </row>
-    <row r="185" spans="6:6" ht="12.75">
+    <row r="185" spans="6:6" ht="13.2">
       <c r="F185" s="18"/>
     </row>
-    <row r="186" spans="6:6" ht="12.75">
+    <row r="186" spans="6:6" ht="13.2">
       <c r="F186" s="18"/>
     </row>
-    <row r="187" spans="6:6" ht="12.75">
+    <row r="187" spans="6:6" ht="13.2">
       <c r="F187" s="18"/>
     </row>
-    <row r="188" spans="6:6" ht="12.75">
+    <row r="188" spans="6:6" ht="13.2">
       <c r="F188" s="18"/>
     </row>
-    <row r="189" spans="6:6" ht="12.75">
+    <row r="189" spans="6:6" ht="13.2">
       <c r="F189" s="18"/>
     </row>
-    <row r="190" spans="6:6" ht="12.75">
+    <row r="190" spans="6:6" ht="13.2">
       <c r="F190" s="18"/>
     </row>
-    <row r="191" spans="6:6" ht="12.75">
+    <row r="191" spans="6:6" ht="13.2">
       <c r="F191" s="18"/>
     </row>
-    <row r="192" spans="6:6" ht="12.75">
+    <row r="192" spans="6:6" ht="13.2">
       <c r="F192" s="18"/>
     </row>
-    <row r="193" spans="6:6" ht="12.75">
+    <row r="193" spans="6:6" ht="13.2">
       <c r="F193" s="18"/>
     </row>
-    <row r="194" spans="6:6" ht="12.75">
+    <row r="194" spans="6:6" ht="13.2">
       <c r="F194" s="18"/>
     </row>
-    <row r="195" spans="6:6" ht="12.75">
+    <row r="195" spans="6:6" ht="13.2">
       <c r="F195" s="18"/>
     </row>
-    <row r="196" spans="6:6" ht="12.75">
+    <row r="196" spans="6:6" ht="13.2">
       <c r="F196" s="18"/>
     </row>
-    <row r="197" spans="6:6" ht="12.75">
+    <row r="197" spans="6:6" ht="13.2">
       <c r="F197" s="18"/>
     </row>
-    <row r="198" spans="6:6" ht="12.75">
+    <row r="198" spans="6:6" ht="13.2">
       <c r="F198" s="18"/>
     </row>
-    <row r="199" spans="6:6" ht="12.75">
+    <row r="199" spans="6:6" ht="13.2">
       <c r="F199" s="18"/>
     </row>
-    <row r="200" spans="6:6" ht="12.75">
+    <row r="200" spans="6:6" ht="13.2">
       <c r="F200" s="18"/>
     </row>
-    <row r="201" spans="6:6" ht="12.75">
+    <row r="201" spans="6:6" ht="13.2">
       <c r="F201" s="18"/>
     </row>
-    <row r="202" spans="6:6" ht="12.75">
+    <row r="202" spans="6:6" ht="13.2">
       <c r="F202" s="18"/>
     </row>
-    <row r="203" spans="6:6" ht="12.75">
+    <row r="203" spans="6:6" ht="13.2">
       <c r="F203" s="18"/>
     </row>
-    <row r="204" spans="6:6" ht="12.75">
+    <row r="204" spans="6:6" ht="13.2">
       <c r="F204" s="18"/>
     </row>
-    <row r="205" spans="6:6" ht="12.75">
+    <row r="205" spans="6:6" ht="13.2">
       <c r="F205" s="18"/>
     </row>
-    <row r="206" spans="6:6" ht="12.75">
+    <row r="206" spans="6:6" ht="13.2">
       <c r="F206" s="18"/>
     </row>
-    <row r="207" spans="6:6" ht="12.75">
+    <row r="207" spans="6:6" ht="13.2">
       <c r="F207" s="18"/>
     </row>
-    <row r="208" spans="6:6" ht="12.75">
+    <row r="208" spans="6:6" ht="13.2">
       <c r="F208" s="18"/>
     </row>
-    <row r="209" spans="6:6" ht="12.75">
+    <row r="209" spans="6:6" ht="13.2">
       <c r="F209" s="18"/>
     </row>
-    <row r="210" spans="6:6" ht="12.75">
+    <row r="210" spans="6:6" ht="13.2">
       <c r="F210" s="18"/>
     </row>
-    <row r="211" spans="6:6" ht="12.75">
+    <row r="211" spans="6:6" ht="13.2">
       <c r="F211" s="18"/>
     </row>
-    <row r="212" spans="6:6" ht="12.75">
+    <row r="212" spans="6:6" ht="13.2">
       <c r="F212" s="18"/>
     </row>
-    <row r="213" spans="6:6" ht="12.75">
+    <row r="213" spans="6:6" ht="13.2">
       <c r="F213" s="18"/>
     </row>
-    <row r="214" spans="6:6" ht="12.75">
+    <row r="214" spans="6:6" ht="13.2">
       <c r="F214" s="18"/>
     </row>
-    <row r="215" spans="6:6" ht="12.75">
+    <row r="215" spans="6:6" ht="13.2">
       <c r="F215" s="18"/>
     </row>
-    <row r="216" spans="6:6" ht="12.75">
+    <row r="216" spans="6:6" ht="13.2">
       <c r="F216" s="18"/>
     </row>
-    <row r="217" spans="6:6" ht="12.75">
+    <row r="217" spans="6:6" ht="13.2">
       <c r="F217" s="18"/>
     </row>
-    <row r="218" spans="6:6" ht="12.75">
+    <row r="218" spans="6:6" ht="13.2">
       <c r="F218" s="18"/>
     </row>
-    <row r="219" spans="6:6" ht="12.75">
+    <row r="219" spans="6:6" ht="13.2">
       <c r="F219" s="18"/>
     </row>
-    <row r="220" spans="6:6" ht="12.75">
+    <row r="220" spans="6:6" ht="13.2">
       <c r="F220" s="18"/>
     </row>
-    <row r="221" spans="6:6" ht="12.75">
+    <row r="221" spans="6:6" ht="13.2">
       <c r="F221" s="18"/>
     </row>
-    <row r="222" spans="6:6" ht="12.75">
+    <row r="222" spans="6:6" ht="13.2">
       <c r="F222" s="18"/>
     </row>
-    <row r="223" spans="6:6" ht="12.75">
+    <row r="223" spans="6:6" ht="13.2">
       <c r="F223" s="18"/>
     </row>
-    <row r="224" spans="6:6" ht="12.75">
+    <row r="224" spans="6:6" ht="13.2">
       <c r="F224" s="18"/>
     </row>
-    <row r="225" spans="6:6" ht="12.75">
+    <row r="225" spans="6:6" ht="13.2">
       <c r="F225" s="18"/>
     </row>
-    <row r="226" spans="6:6" ht="12.75">
+    <row r="226" spans="6:6" ht="13.2">
       <c r="F226" s="18"/>
     </row>
-    <row r="227" spans="6:6" ht="12.75">
+    <row r="227" spans="6:6" ht="13.2">
       <c r="F227" s="18"/>
     </row>
-    <row r="228" spans="6:6" ht="12.75">
+    <row r="228" spans="6:6" ht="13.2">
       <c r="F228" s="18"/>
     </row>
-    <row r="229" spans="6:6" ht="12.75">
+    <row r="229" spans="6:6" ht="13.2">
       <c r="F229" s="18"/>
     </row>
-    <row r="230" spans="6:6" ht="12.75">
+    <row r="230" spans="6:6" ht="13.2">
       <c r="F230" s="18"/>
     </row>
-    <row r="231" spans="6:6" ht="12.75">
+    <row r="231" spans="6:6" ht="13.2">
       <c r="F231" s="18"/>
     </row>
-    <row r="232" spans="6:6" ht="12.75">
+    <row r="232" spans="6:6" ht="13.2">
       <c r="F232" s="18"/>
     </row>
-    <row r="233" spans="6:6" ht="12.75">
+    <row r="233" spans="6:6" ht="13.2">
       <c r="F233" s="18"/>
     </row>
-    <row r="234" spans="6:6" ht="12.75">
+    <row r="234" spans="6:6" ht="13.2">
       <c r="F234" s="18"/>
     </row>
-    <row r="235" spans="6:6" ht="12.75">
+    <row r="235" spans="6:6" ht="13.2">
       <c r="F235" s="18"/>
     </row>
-    <row r="236" spans="6:6" ht="12.75">
+    <row r="236" spans="6:6" ht="13.2">
       <c r="F236" s="18"/>
     </row>
-    <row r="237" spans="6:6" ht="12.75">
+    <row r="237" spans="6:6" ht="13.2">
       <c r="F237" s="18"/>
     </row>
-    <row r="238" spans="6:6" ht="12.75">
+    <row r="238" spans="6:6" ht="13.2">
       <c r="F238" s="18"/>
     </row>
-    <row r="239" spans="6:6" ht="12.75">
+    <row r="239" spans="6:6" ht="13.2">
       <c r="F239" s="18"/>
     </row>
-    <row r="240" spans="6:6" ht="12.75">
+    <row r="240" spans="6:6" ht="13.2">
       <c r="F240" s="18"/>
     </row>
-    <row r="241" spans="6:6" ht="12.75">
+    <row r="241" spans="6:6" ht="13.2">
       <c r="F241" s="18"/>
     </row>
-    <row r="242" spans="6:6" ht="12.75">
+    <row r="242" spans="6:6" ht="13.2">
       <c r="F242" s="18"/>
     </row>
-    <row r="243" spans="6:6" ht="12.75">
+    <row r="243" spans="6:6" ht="13.2">
       <c r="F243" s="18"/>
     </row>
-    <row r="244" spans="6:6" ht="12.75">
+    <row r="244" spans="6:6" ht="13.2">
       <c r="F244" s="18"/>
     </row>
-    <row r="245" spans="6:6" ht="12.75">
+    <row r="245" spans="6:6" ht="13.2">
       <c r="F245" s="18"/>
     </row>
-    <row r="246" spans="6:6" ht="12.75">
+    <row r="246" spans="6:6" ht="13.2">
       <c r="F246" s="18"/>
     </row>
-    <row r="247" spans="6:6" ht="12.75">
+    <row r="247" spans="6:6" ht="13.2">
       <c r="F247" s="18"/>
     </row>
-    <row r="248" spans="6:6" ht="12.75">
+    <row r="248" spans="6:6" ht="13.2">
       <c r="F248" s="18"/>
     </row>
-    <row r="249" spans="6:6" ht="12.75">
+    <row r="249" spans="6:6" ht="13.2">
       <c r="F249" s="18"/>
     </row>
-    <row r="250" spans="6:6" ht="12.75">
+    <row r="250" spans="6:6" ht="13.2">
       <c r="F250" s="18"/>
     </row>
-    <row r="251" spans="6:6" ht="12.75">
+    <row r="251" spans="6:6" ht="13.2">
       <c r="F251" s="18"/>
     </row>
-    <row r="252" spans="6:6" ht="12.75">
+    <row r="252" spans="6:6" ht="13.2">
       <c r="F252" s="18"/>
     </row>
-    <row r="253" spans="6:6" ht="12.75">
+    <row r="253" spans="6:6" ht="13.2">
       <c r="F253" s="18"/>
     </row>
-    <row r="254" spans="6:6" ht="12.75">
+    <row r="254" spans="6:6" ht="13.2">
       <c r="F254" s="18"/>
     </row>
-    <row r="255" spans="6:6" ht="12.75">
+    <row r="255" spans="6:6" ht="13.2">
       <c r="F255" s="18"/>
     </row>
-    <row r="256" spans="6:6" ht="12.75">
+    <row r="256" spans="6:6" ht="13.2">
       <c r="F256" s="18"/>
     </row>
-    <row r="257" spans="6:6" ht="12.75">
+    <row r="257" spans="6:6" ht="13.2">
       <c r="F257" s="18"/>
     </row>
-    <row r="258" spans="6:6" ht="12.75">
+    <row r="258" spans="6:6" ht="13.2">
       <c r="F258" s="18"/>
     </row>
-    <row r="259" spans="6:6" ht="12.75">
+    <row r="259" spans="6:6" ht="13.2">
       <c r="F259" s="18"/>
     </row>
-    <row r="260" spans="6:6" ht="12.75">
+    <row r="260" spans="6:6" ht="13.2">
       <c r="F260" s="18"/>
     </row>
-    <row r="261" spans="6:6" ht="12.75">
+    <row r="261" spans="6:6" ht="13.2">
       <c r="F261" s="18"/>
     </row>
-    <row r="262" spans="6:6" ht="12.75">
+    <row r="262" spans="6:6" ht="13.2">
       <c r="F262" s="18"/>
     </row>
-    <row r="263" spans="6:6" ht="12.75">
+    <row r="263" spans="6:6" ht="13.2">
       <c r="F263" s="18"/>
     </row>
-    <row r="264" spans="6:6" ht="12.75">
+    <row r="264" spans="6:6" ht="13.2">
       <c r="F264" s="18"/>
     </row>
-    <row r="265" spans="6:6" ht="12.75">
+    <row r="265" spans="6:6" ht="13.2">
       <c r="F265" s="18"/>
     </row>
-    <row r="266" spans="6:6" ht="12.75">
+    <row r="266" spans="6:6" ht="13.2">
       <c r="F266" s="18"/>
     </row>
-    <row r="267" spans="6:6" ht="12.75">
+    <row r="267" spans="6:6" ht="13.2">
       <c r="F267" s="18"/>
     </row>
-    <row r="268" spans="6:6" ht="12.75">
+    <row r="268" spans="6:6" ht="13.2">
       <c r="F268" s="18"/>
     </row>
-    <row r="269" spans="6:6" ht="12.75">
+    <row r="269" spans="6:6" ht="13.2">
       <c r="F269" s="18"/>
     </row>
-    <row r="270" spans="6:6" ht="12.75">
+    <row r="270" spans="6:6" ht="13.2">
       <c r="F270" s="18"/>
     </row>
-    <row r="271" spans="6:6" ht="12.75">
+    <row r="271" spans="6:6" ht="13.2">
       <c r="F271" s="18"/>
     </row>
-    <row r="272" spans="6:6" ht="12.75">
+    <row r="272" spans="6:6" ht="13.2">
       <c r="F272" s="18"/>
     </row>
-    <row r="273" spans="6:6" ht="12.75">
+    <row r="273" spans="6:6" ht="13.2">
       <c r="F273" s="18"/>
     </row>
-    <row r="274" spans="6:6" ht="12.75">
+    <row r="274" spans="6:6" ht="13.2">
       <c r="F274" s="18"/>
     </row>
-    <row r="275" spans="6:6" ht="12.75">
+    <row r="275" spans="6:6" ht="13.2">
       <c r="F275" s="18"/>
     </row>
-    <row r="276" spans="6:6" ht="12.75">
+    <row r="276" spans="6:6" ht="13.2">
       <c r="F276" s="18"/>
     </row>
-    <row r="277" spans="6:6" ht="12.75">
+    <row r="277" spans="6:6" ht="13.2">
       <c r="F277" s="18"/>
     </row>
-    <row r="278" spans="6:6" ht="12.75">
+    <row r="278" spans="6:6" ht="13.2">
       <c r="F278" s="18"/>
     </row>
-    <row r="279" spans="6:6" ht="12.75">
+    <row r="279" spans="6:6" ht="13.2">
       <c r="F279" s="18"/>
     </row>
-    <row r="280" spans="6:6" ht="12.75">
+    <row r="280" spans="6:6" ht="13.2">
       <c r="F280" s="18"/>
     </row>
-    <row r="281" spans="6:6" ht="12.75">
+    <row r="281" spans="6:6" ht="13.2">
       <c r="F281" s="18"/>
     </row>
-    <row r="282" spans="6:6" ht="12.75">
+    <row r="282" spans="6:6" ht="13.2">
       <c r="F282" s="18"/>
     </row>
-    <row r="283" spans="6:6" ht="12.75">
+    <row r="283" spans="6:6" ht="13.2">
       <c r="F283" s="18"/>
     </row>
-    <row r="284" spans="6:6" ht="12.75">
+    <row r="284" spans="6:6" ht="13.2">
       <c r="F284" s="18"/>
     </row>
-    <row r="285" spans="6:6" ht="12.75">
+    <row r="285" spans="6:6" ht="13.2">
       <c r="F285" s="18"/>
     </row>
-    <row r="286" spans="6:6" ht="12.75">
+    <row r="286" spans="6:6" ht="13.2">
       <c r="F286" s="18"/>
     </row>
-    <row r="287" spans="6:6" ht="12.75">
+    <row r="287" spans="6:6" ht="13.2">
       <c r="F287" s="18"/>
     </row>
-    <row r="288" spans="6:6" ht="12.75">
+    <row r="288" spans="6:6" ht="13.2">
       <c r="F288" s="18"/>
     </row>
-    <row r="289" spans="6:6" ht="12.75">
+    <row r="289" spans="6:6" ht="13.2">
       <c r="F289" s="18"/>
     </row>
-    <row r="290" spans="6:6" ht="12.75">
+    <row r="290" spans="6:6" ht="13.2">
       <c r="F290" s="18"/>
     </row>
-    <row r="291" spans="6:6" ht="12.75">
+    <row r="291" spans="6:6" ht="13.2">
       <c r="F291" s="18"/>
     </row>
-    <row r="292" spans="6:6" ht="12.75">
+    <row r="292" spans="6:6" ht="13.2">
       <c r="F292" s="18"/>
     </row>
-    <row r="293" spans="6:6" ht="12.75">
+    <row r="293" spans="6:6" ht="13.2">
       <c r="F293" s="18"/>
     </row>
-    <row r="294" spans="6:6" ht="12.75">
+    <row r="294" spans="6:6" ht="13.2">
       <c r="F294" s="18"/>
     </row>
-    <row r="295" spans="6:6" ht="12.75">
+    <row r="295" spans="6:6" ht="13.2">
       <c r="F295" s="18"/>
     </row>
-    <row r="296" spans="6:6" ht="12.75">
+    <row r="296" spans="6:6" ht="13.2">
       <c r="F296" s="18"/>
     </row>
-    <row r="297" spans="6:6" ht="12.75">
+    <row r="297" spans="6:6" ht="13.2">
       <c r="F297" s="18"/>
     </row>
-    <row r="298" spans="6:6" ht="12.75">
+    <row r="298" spans="6:6" ht="13.2">
       <c r="F298" s="18"/>
     </row>
-    <row r="299" spans="6:6" ht="12.75">
+    <row r="299" spans="6:6" ht="13.2">
       <c r="F299" s="18"/>
     </row>
-    <row r="300" spans="6:6" ht="12.75">
+    <row r="300" spans="6:6" ht="13.2">
       <c r="F300" s="18"/>
     </row>
-    <row r="301" spans="6:6" ht="12.75">
+    <row r="301" spans="6:6" ht="13.2">
       <c r="F301" s="18"/>
     </row>
-    <row r="302" spans="6:6" ht="12.75">
+    <row r="302" spans="6:6" ht="13.2">
       <c r="F302" s="18"/>
     </row>
-    <row r="303" spans="6:6" ht="12.75">
+    <row r="303" spans="6:6" ht="13.2">
       <c r="F303" s="18"/>
     </row>
-    <row r="304" spans="6:6" ht="12.75">
+    <row r="304" spans="6:6" ht="13.2">
       <c r="F304" s="18"/>
     </row>
-    <row r="305" spans="6:6" ht="12.75">
+    <row r="305" spans="6:6" ht="13.2">
       <c r="F305" s="18"/>
     </row>
-    <row r="306" spans="6:6" ht="12.75">
+    <row r="306" spans="6:6" ht="13.2">
       <c r="F306" s="18"/>
     </row>
-    <row r="307" spans="6:6" ht="12.75">
+    <row r="307" spans="6:6" ht="13.2">
       <c r="F307" s="18"/>
     </row>
-    <row r="308" spans="6:6" ht="12.75">
+    <row r="308" spans="6:6" ht="13.2">
       <c r="F308" s="18"/>
     </row>
-    <row r="309" spans="6:6" ht="12.75">
+    <row r="309" spans="6:6" ht="13.2">
       <c r="F309" s="18"/>
     </row>
-    <row r="310" spans="6:6" ht="12.75">
+    <row r="310" spans="6:6" ht="13.2">
       <c r="F310" s="18"/>
     </row>
-    <row r="311" spans="6:6" ht="12.75">
+    <row r="311" spans="6:6" ht="13.2">
       <c r="F311" s="18"/>
     </row>
-    <row r="312" spans="6:6" ht="12.75">
+    <row r="312" spans="6:6" ht="13.2">
       <c r="F312" s="18"/>
     </row>
-    <row r="313" spans="6:6" ht="12.75">
+    <row r="313" spans="6:6" ht="13.2">
       <c r="F313" s="18"/>
     </row>
-    <row r="314" spans="6:6" ht="12.75">
+    <row r="314" spans="6:6" ht="13.2">
       <c r="F314" s="18"/>
     </row>
-    <row r="315" spans="6:6" ht="12.75">
+    <row r="315" spans="6:6" ht="13.2">
       <c r="F315" s="18"/>
     </row>
-    <row r="316" spans="6:6" ht="12.75">
+    <row r="316" spans="6:6" ht="13.2">
       <c r="F316" s="18"/>
     </row>
-    <row r="317" spans="6:6" ht="12.75">
+    <row r="317" spans="6:6" ht="13.2">
       <c r="F317" s="18"/>
     </row>
-    <row r="318" spans="6:6" ht="12.75">
+    <row r="318" spans="6:6" ht="13.2">
       <c r="F318" s="18"/>
     </row>
-    <row r="319" spans="6:6" ht="12.75">
+    <row r="319" spans="6:6" ht="13.2">
       <c r="F319" s="18"/>
     </row>
-    <row r="320" spans="6:6" ht="12.75">
+    <row r="320" spans="6:6" ht="13.2">
       <c r="F320" s="18"/>
     </row>
-    <row r="321" spans="6:6" ht="12.75">
+    <row r="321" spans="6:6" ht="13.2">
       <c r="F321" s="18"/>
     </row>
-    <row r="322" spans="6:6" ht="12.75">
+    <row r="322" spans="6:6" ht="13.2">
       <c r="F322" s="18"/>
     </row>
-    <row r="323" spans="6:6" ht="12.75">
+    <row r="323" spans="6:6" ht="13.2">
       <c r="F323" s="18"/>
     </row>
-    <row r="324" spans="6:6" ht="12.75">
+    <row r="324" spans="6:6" ht="13.2">
       <c r="F324" s="18"/>
     </row>
-    <row r="325" spans="6:6" ht="12.75">
+    <row r="325" spans="6:6" ht="13.2">
       <c r="F325" s="18"/>
     </row>
-    <row r="326" spans="6:6" ht="12.75">
+    <row r="326" spans="6:6" ht="13.2">
       <c r="F326" s="18"/>
     </row>
-    <row r="327" spans="6:6" ht="12.75">
+    <row r="327" spans="6:6" ht="13.2">
       <c r="F327" s="18"/>
     </row>
-    <row r="328" spans="6:6" ht="12.75">
+    <row r="328" spans="6:6" ht="13.2">
       <c r="F328" s="18"/>
     </row>
-    <row r="329" spans="6:6" ht="12.75">
+    <row r="329" spans="6:6" ht="13.2">
       <c r="F329" s="18"/>
     </row>
-    <row r="330" spans="6:6" ht="12.75">
+    <row r="330" spans="6:6" ht="13.2">
       <c r="F330" s="18"/>
     </row>
-    <row r="331" spans="6:6" ht="12.75">
+    <row r="331" spans="6:6" ht="13.2">
       <c r="F331" s="18"/>
     </row>
-    <row r="332" spans="6:6" ht="12.75">
+    <row r="332" spans="6:6" ht="13.2">
       <c r="F332" s="18"/>
     </row>
-    <row r="333" spans="6:6" ht="12.75">
+    <row r="333" spans="6:6" ht="13.2">
       <c r="F333" s="18"/>
     </row>
-    <row r="334" spans="6:6" ht="12.75">
+    <row r="334" spans="6:6" ht="13.2">
       <c r="F334" s="18"/>
     </row>
-    <row r="335" spans="6:6" ht="12.75">
+    <row r="335" spans="6:6" ht="13.2">
       <c r="F335" s="18"/>
     </row>
-    <row r="336" spans="6:6" ht="12.75">
+    <row r="336" spans="6:6" ht="13.2">
       <c r="F336" s="18"/>
     </row>
-    <row r="337" spans="6:6" ht="12.75">
+    <row r="337" spans="6:6" ht="13.2">
       <c r="F337" s="18"/>
     </row>
-    <row r="338" spans="6:6" ht="12.75">
+    <row r="338" spans="6:6" ht="13.2">
       <c r="F338" s="18"/>
     </row>
-    <row r="339" spans="6:6" ht="12.75">
+    <row r="339" spans="6:6" ht="13.2">
       <c r="F339" s="18"/>
     </row>
-    <row r="340" spans="6:6" ht="12.75">
+    <row r="340" spans="6:6" ht="13.2">
       <c r="F340" s="18"/>
     </row>
-    <row r="341" spans="6:6" ht="12.75">
+    <row r="341" spans="6:6" ht="13.2">
       <c r="F341" s="18"/>
     </row>
-    <row r="342" spans="6:6" ht="12.75">
+    <row r="342" spans="6:6" ht="13.2">
       <c r="F342" s="18"/>
     </row>
-    <row r="343" spans="6:6" ht="12.75">
+    <row r="343" spans="6:6" ht="13.2">
       <c r="F343" s="18"/>
     </row>
-    <row r="344" spans="6:6" ht="12.75">
+    <row r="344" spans="6:6" ht="13.2">
       <c r="F344" s="18"/>
     </row>
-    <row r="345" spans="6:6" ht="12.75">
+    <row r="345" spans="6:6" ht="13.2">
       <c r="F345" s="18"/>
     </row>
-    <row r="346" spans="6:6" ht="12.75">
+    <row r="346" spans="6:6" ht="13.2">
       <c r="F346" s="18"/>
     </row>
-    <row r="347" spans="6:6" ht="12.75">
+    <row r="347" spans="6:6" ht="13.2">
       <c r="F347" s="18"/>
     </row>
-    <row r="348" spans="6:6" ht="12.75">
+    <row r="348" spans="6:6" ht="13.2">
       <c r="F348" s="18"/>
     </row>
-    <row r="349" spans="6:6" ht="12.75">
+    <row r="349" spans="6:6" ht="13.2">
       <c r="F349" s="18"/>
     </row>
-    <row r="350" spans="6:6" ht="12.75">
+    <row r="350" spans="6:6" ht="13.2">
       <c r="F350" s="18"/>
     </row>
-    <row r="351" spans="6:6" ht="12.75">
+    <row r="351" spans="6:6" ht="13.2">
       <c r="F351" s="18"/>
     </row>
-    <row r="352" spans="6:6" ht="12.75">
+    <row r="352" spans="6:6" ht="13.2">
       <c r="F352" s="18"/>
     </row>
-    <row r="353" spans="6:6" ht="12.75">
+    <row r="353" spans="6:6" ht="13.2">
       <c r="F353" s="18"/>
     </row>
-    <row r="354" spans="6:6" ht="12.75">
+    <row r="354" spans="6:6" ht="13.2">
       <c r="F354" s="18"/>
     </row>
-    <row r="355" spans="6:6" ht="12.75">
+    <row r="355" spans="6:6" ht="13.2">
       <c r="F355" s="18"/>
     </row>
-    <row r="356" spans="6:6" ht="12.75">
+    <row r="356" spans="6:6" ht="13.2">
       <c r="F356" s="18"/>
     </row>
-    <row r="357" spans="6:6" ht="12.75">
+    <row r="357" spans="6:6" ht="13.2">
       <c r="F357" s="18"/>
     </row>
-    <row r="358" spans="6:6" ht="12.75">
+    <row r="358" spans="6:6" ht="13.2">
       <c r="F358" s="18"/>
     </row>
-    <row r="359" spans="6:6" ht="12.75">
+    <row r="359" spans="6:6" ht="13.2">
       <c r="F359" s="18"/>
     </row>
-    <row r="360" spans="6:6" ht="12.75">
+    <row r="360" spans="6:6" ht="13.2">
       <c r="F360" s="18"/>
     </row>
-    <row r="361" spans="6:6" ht="12.75">
+    <row r="361" spans="6:6" ht="13.2">
       <c r="F361" s="18"/>
     </row>
-    <row r="362" spans="6:6" ht="12.75">
+    <row r="362" spans="6:6" ht="13.2">
       <c r="F362" s="18"/>
     </row>
-    <row r="363" spans="6:6" ht="12.75">
+    <row r="363" spans="6:6" ht="13.2">
       <c r="F363" s="18"/>
     </row>
-    <row r="364" spans="6:6" ht="12.75">
+    <row r="364" spans="6:6" ht="13.2">
       <c r="F364" s="18"/>
     </row>
-    <row r="365" spans="6:6" ht="12.75">
+    <row r="365" spans="6:6" ht="13.2">
       <c r="F365" s="18"/>
     </row>
-    <row r="366" spans="6:6" ht="12.75">
+    <row r="366" spans="6:6" ht="13.2">
       <c r="F366" s="18"/>
     </row>
-    <row r="367" spans="6:6" ht="12.75">
+    <row r="367" spans="6:6" ht="13.2">
       <c r="F367" s="18"/>
     </row>
-    <row r="368" spans="6:6" ht="12.75">
+    <row r="368" spans="6:6" ht="13.2">
       <c r="F368" s="18"/>
     </row>
-    <row r="369" spans="6:6" ht="12.75">
+    <row r="369" spans="6:6" ht="13.2">
       <c r="F369" s="18"/>
     </row>
-    <row r="370" spans="6:6" ht="12.75">
+    <row r="370" spans="6:6" ht="13.2">
       <c r="F370" s="18"/>
     </row>
-    <row r="371" spans="6:6" ht="12.75">
+    <row r="371" spans="6:6" ht="13.2">
       <c r="F371" s="18"/>
     </row>
-    <row r="372" spans="6:6" ht="12.75">
+    <row r="372" spans="6:6" ht="13.2">
       <c r="F372" s="18"/>
     </row>
-    <row r="373" spans="6:6" ht="12.75">
+    <row r="373" spans="6:6" ht="13.2">
       <c r="F373" s="18"/>
     </row>
-    <row r="374" spans="6:6" ht="12.75">
+    <row r="374" spans="6:6" ht="13.2">
       <c r="F374" s="18"/>
     </row>
-    <row r="375" spans="6:6" ht="12.75">
+    <row r="375" spans="6:6" ht="13.2">
       <c r="F375" s="18"/>
     </row>
-    <row r="376" spans="6:6" ht="12.75">
+    <row r="376" spans="6:6" ht="13.2">
       <c r="F376" s="18"/>
     </row>
-    <row r="377" spans="6:6" ht="12.75">
+    <row r="377" spans="6:6" ht="13.2">
       <c r="F377" s="18"/>
     </row>
-    <row r="378" spans="6:6" ht="12.75">
+    <row r="378" spans="6:6" ht="13.2">
       <c r="F378" s="18"/>
     </row>
-    <row r="379" spans="6:6" ht="12.75">
+    <row r="379" spans="6:6" ht="13.2">
       <c r="F379" s="18"/>
     </row>
-    <row r="380" spans="6:6" ht="12.75">
+    <row r="380" spans="6:6" ht="13.2">
       <c r="F380" s="18"/>
     </row>
-    <row r="381" spans="6:6" ht="12.75">
+    <row r="381" spans="6:6" ht="13.2">
       <c r="F381" s="18"/>
     </row>
-    <row r="382" spans="6:6" ht="12.75">
+    <row r="382" spans="6:6" ht="13.2">
       <c r="F382" s="18"/>
     </row>
-    <row r="383" spans="6:6" ht="12.75">
+    <row r="383" spans="6:6" ht="13.2">
       <c r="F383" s="18"/>
     </row>
-    <row r="384" spans="6:6" ht="12.75">
+    <row r="384" spans="6:6" ht="13.2">
       <c r="F384" s="18"/>
     </row>
-    <row r="385" spans="6:6" ht="12.75">
+    <row r="385" spans="6:6" ht="13.2">
       <c r="F385" s="18"/>
     </row>
-    <row r="386" spans="6:6" ht="12.75">
+    <row r="386" spans="6:6" ht="13.2">
       <c r="F386" s="18"/>
     </row>
-    <row r="387" spans="6:6" ht="12.75">
+    <row r="387" spans="6:6" ht="13.2">
       <c r="F387" s="18"/>
     </row>
-    <row r="388" spans="6:6" ht="12.75">
+    <row r="388" spans="6:6" ht="13.2">
       <c r="F388" s="18"/>
     </row>
-    <row r="389" spans="6:6" ht="12.75">
+    <row r="389" spans="6:6" ht="13.2">
       <c r="F389" s="18"/>
     </row>
-    <row r="390" spans="6:6" ht="12.75">
+    <row r="390" spans="6:6" ht="13.2">
       <c r="F390" s="18"/>
     </row>
-    <row r="391" spans="6:6" ht="12.75">
+    <row r="391" spans="6:6" ht="13.2">
       <c r="F391" s="18"/>
     </row>
-    <row r="392" spans="6:6" ht="12.75">
+    <row r="392" spans="6:6" ht="13.2">
       <c r="F392" s="18"/>
     </row>
-    <row r="393" spans="6:6" ht="12.75">
+    <row r="393" spans="6:6" ht="13.2">
       <c r="F393" s="18"/>
     </row>
-    <row r="394" spans="6:6" ht="12.75">
+    <row r="394" spans="6:6" ht="13.2">
       <c r="F394" s="18"/>
     </row>
-    <row r="395" spans="6:6" ht="12.75">
+    <row r="395" spans="6:6" ht="13.2">
       <c r="F395" s="18"/>
     </row>
-    <row r="396" spans="6:6" ht="12.75">
+    <row r="396" spans="6:6" ht="13.2">
       <c r="F396" s="18"/>
     </row>
-    <row r="397" spans="6:6" ht="12.75">
+    <row r="397" spans="6:6" ht="13.2">
       <c r="F397" s="18"/>
     </row>
-    <row r="398" spans="6:6" ht="12.75">
+    <row r="398" spans="6:6" ht="13.2">
       <c r="F398" s="18"/>
     </row>
-    <row r="399" spans="6:6" ht="12.75">
+    <row r="399" spans="6:6" ht="13.2">
       <c r="F399" s="18"/>
     </row>
-    <row r="400" spans="6:6" ht="12.75">
+    <row r="400" spans="6:6" ht="13.2">
       <c r="F400" s="18"/>
     </row>
-    <row r="401" spans="6:6" ht="12.75">
+    <row r="401" spans="6:6" ht="13.2">
       <c r="F401" s="18"/>
     </row>
-    <row r="402" spans="6:6" ht="12.75">
+    <row r="402" spans="6:6" ht="13.2">
       <c r="F402" s="18"/>
     </row>
-    <row r="403" spans="6:6" ht="12.75">
+    <row r="403" spans="6:6" ht="13.2">
       <c r="F403" s="18"/>
     </row>
-    <row r="404" spans="6:6" ht="12.75">
+    <row r="404" spans="6:6" ht="13.2">
       <c r="F404" s="18"/>
     </row>
-    <row r="405" spans="6:6" ht="12.75">
+    <row r="405" spans="6:6" ht="13.2">
       <c r="F405" s="18"/>
     </row>
-    <row r="406" spans="6:6" ht="12.75">
+    <row r="406" spans="6:6" ht="13.2">
       <c r="F406" s="18"/>
     </row>
-    <row r="407" spans="6:6" ht="12.75">
+    <row r="407" spans="6:6" ht="13.2">
       <c r="F407" s="18"/>
     </row>
-    <row r="408" spans="6:6" ht="12.75">
+    <row r="408" spans="6:6" ht="13.2">
       <c r="F408" s="18"/>
     </row>
-    <row r="409" spans="6:6" ht="12.75">
+    <row r="409" spans="6:6" ht="13.2">
       <c r="F409" s="18"/>
     </row>
-    <row r="410" spans="6:6" ht="12.75">
+    <row r="410" spans="6:6" ht="13.2">
       <c r="F410" s="18"/>
     </row>
-    <row r="411" spans="6:6" ht="12.75">
+    <row r="411" spans="6:6" ht="13.2">
       <c r="F411" s="18"/>
     </row>
-    <row r="412" spans="6:6" ht="12.75">
+    <row r="412" spans="6:6" ht="13.2">
       <c r="F412" s="18"/>
     </row>
-    <row r="413" spans="6:6" ht="12.75">
+    <row r="413" spans="6:6" ht="13.2">
       <c r="F413" s="18"/>
     </row>
-    <row r="414" spans="6:6" ht="12.75">
+    <row r="414" spans="6:6" ht="13.2">
       <c r="F414" s="18"/>
     </row>
-    <row r="415" spans="6:6" ht="12.75">
+    <row r="415" spans="6:6" ht="13.2">
       <c r="F415" s="18"/>
     </row>
-    <row r="416" spans="6:6" ht="12.75">
+    <row r="416" spans="6:6" ht="13.2">
       <c r="F416" s="18"/>
     </row>
-    <row r="417" spans="6:6" ht="12.75">
+    <row r="417" spans="6:6" ht="13.2">
       <c r="F417" s="18"/>
     </row>
-    <row r="418" spans="6:6" ht="12.75">
+    <row r="418" spans="6:6" ht="13.2">
       <c r="F418" s="18"/>
     </row>
-    <row r="419" spans="6:6" ht="12.75">
+    <row r="419" spans="6:6" ht="13.2">
       <c r="F419" s="18"/>
     </row>
-    <row r="420" spans="6:6" ht="12.75">
+    <row r="420" spans="6:6" ht="13.2">
       <c r="F420" s="18"/>
     </row>
-    <row r="421" spans="6:6" ht="12.75">
+    <row r="421" spans="6:6" ht="13.2">
       <c r="F421" s="18"/>
     </row>
-    <row r="422" spans="6:6" ht="12.75">
+    <row r="422" spans="6:6" ht="13.2">
       <c r="F422" s="18"/>
     </row>
-    <row r="423" spans="6:6" ht="12.75">
+    <row r="423" spans="6:6" ht="13.2">
       <c r="F423" s="18"/>
     </row>
-    <row r="424" spans="6:6" ht="12.75">
+    <row r="424" spans="6:6" ht="13.2">
       <c r="F424" s="18"/>
     </row>
-    <row r="425" spans="6:6" ht="12.75">
+    <row r="425" spans="6:6" ht="13.2">
       <c r="F425" s="18"/>
     </row>
-    <row r="426" spans="6:6" ht="12.75">
+    <row r="426" spans="6:6" ht="13.2">
       <c r="F426" s="18"/>
     </row>
-    <row r="427" spans="6:6" ht="12.75">
+    <row r="427" spans="6:6" ht="13.2">
       <c r="F427" s="18"/>
     </row>
-    <row r="428" spans="6:6" ht="12.75">
+    <row r="428" spans="6:6" ht="13.2">
       <c r="F428" s="18"/>
     </row>
-    <row r="429" spans="6:6" ht="12.75">
+    <row r="429" spans="6:6" ht="13.2">
       <c r="F429" s="18"/>
     </row>
-    <row r="430" spans="6:6" ht="12.75">
+    <row r="430" spans="6:6" ht="13.2">
       <c r="F430" s="18"/>
     </row>
-    <row r="431" spans="6:6" ht="12.75">
+    <row r="431" spans="6:6" ht="13.2">
       <c r="F431" s="18"/>
     </row>
-    <row r="432" spans="6:6" ht="12.75">
+    <row r="432" spans="6:6" ht="13.2">
       <c r="F432" s="18"/>
     </row>
-    <row r="433" spans="6:6" ht="12.75">
+    <row r="433" spans="6:6" ht="13.2">
       <c r="F433" s="18"/>
     </row>
-    <row r="434" spans="6:6" ht="12.75">
+    <row r="434" spans="6:6" ht="13.2">
       <c r="F434" s="18"/>
     </row>
-    <row r="435" spans="6:6" ht="12.75">
+    <row r="435" spans="6:6" ht="13.2">
       <c r="F435" s="18"/>
     </row>
-    <row r="436" spans="6:6" ht="12.75">
+    <row r="436" spans="6:6" ht="13.2">
       <c r="F436" s="18"/>
     </row>
-    <row r="437" spans="6:6" ht="12.75">
+    <row r="437" spans="6:6" ht="13.2">
       <c r="F437" s="18"/>
     </row>
-    <row r="438" spans="6:6" ht="12.75">
+    <row r="438" spans="6:6" ht="13.2">
       <c r="F438" s="18"/>
     </row>
-    <row r="439" spans="6:6" ht="12.75">
+    <row r="439" spans="6:6" ht="13.2">
       <c r="F439" s="18"/>
     </row>
-    <row r="440" spans="6:6" ht="12.75">
+    <row r="440" spans="6:6" ht="13.2">
       <c r="F440" s="18"/>
     </row>
-    <row r="441" spans="6:6" ht="12.75">
+    <row r="441" spans="6:6" ht="13.2">
       <c r="F441" s="18"/>
     </row>
-    <row r="442" spans="6:6" ht="12.75">
+    <row r="442" spans="6:6" ht="13.2">
       <c r="F442" s="18"/>
     </row>
-    <row r="443" spans="6:6" ht="12.75">
+    <row r="443" spans="6:6" ht="13.2">
       <c r="F443" s="18"/>
     </row>
-    <row r="444" spans="6:6" ht="12.75">
+    <row r="444" spans="6:6" ht="13.2">
       <c r="F444" s="18"/>
     </row>
-    <row r="445" spans="6:6" ht="12.75">
+    <row r="445" spans="6:6" ht="13.2">
       <c r="F445" s="18"/>
     </row>
-    <row r="446" spans="6:6" ht="12.75">
+    <row r="446" spans="6:6" ht="13.2">
       <c r="F446" s="18"/>
     </row>
-    <row r="447" spans="6:6" ht="12.75">
+    <row r="447" spans="6:6" ht="13.2">
       <c r="F447" s="18"/>
     </row>
-    <row r="448" spans="6:6" ht="12.75">
+    <row r="448" spans="6:6" ht="13.2">
       <c r="F448" s="18"/>
     </row>
-    <row r="449" spans="6:6" ht="12.75">
+    <row r="449" spans="6:6" ht="13.2">
       <c r="F449" s="18"/>
     </row>
-    <row r="450" spans="6:6" ht="12.75">
+    <row r="450" spans="6:6" ht="13.2">
       <c r="F450" s="18"/>
     </row>
-    <row r="451" spans="6:6" ht="12.75">
+    <row r="451" spans="6:6" ht="13.2">
       <c r="F451" s="18"/>
     </row>
-    <row r="452" spans="6:6" ht="12.75">
+    <row r="452" spans="6:6" ht="13.2">
       <c r="F452" s="18"/>
     </row>
-    <row r="453" spans="6:6" ht="12.75">
+    <row r="453" spans="6:6" ht="13.2">
       <c r="F453" s="18"/>
     </row>
-    <row r="454" spans="6:6" ht="12.75">
+    <row r="454" spans="6:6" ht="13.2">
       <c r="F454" s="18"/>
     </row>
-    <row r="455" spans="6:6" ht="12.75">
+    <row r="455" spans="6:6" ht="13.2">
       <c r="F455" s="18"/>
     </row>
-    <row r="456" spans="6:6" ht="12.75">
+    <row r="456" spans="6:6" ht="13.2">
       <c r="F456" s="18"/>
     </row>
-    <row r="457" spans="6:6" ht="12.75">
+    <row r="457" spans="6:6" ht="13.2">
       <c r="F457" s="18"/>
     </row>
-    <row r="458" spans="6:6" ht="12.75">
+    <row r="458" spans="6:6" ht="13.2">
       <c r="F458" s="18"/>
     </row>
-    <row r="459" spans="6:6" ht="12.75">
+    <row r="459" spans="6:6" ht="13.2">
       <c r="F459" s="18"/>
     </row>
-    <row r="460" spans="6:6" ht="12.75">
+    <row r="460" spans="6:6" ht="13.2">
       <c r="F460" s="18"/>
     </row>
-    <row r="461" spans="6:6" ht="12.75">
+    <row r="461" spans="6:6" ht="13.2">
       <c r="F461" s="18"/>
     </row>
-    <row r="462" spans="6:6" ht="12.75">
+    <row r="462" spans="6:6" ht="13.2">
       <c r="F462" s="18"/>
     </row>
-    <row r="463" spans="6:6" ht="12.75">
+    <row r="463" spans="6:6" ht="13.2">
       <c r="F463" s="18"/>
     </row>
-    <row r="464" spans="6:6" ht="12.75">
+    <row r="464" spans="6:6" ht="13.2">
       <c r="F464" s="18"/>
     </row>
-    <row r="465" spans="6:6" ht="12.75">
+    <row r="465" spans="6:6" ht="13.2">
       <c r="F465" s="18"/>
     </row>
-    <row r="466" spans="6:6" ht="12.75">
+    <row r="466" spans="6:6" ht="13.2">
       <c r="F466" s="18"/>
     </row>
-    <row r="467" spans="6:6" ht="12.75">
+    <row r="467" spans="6:6" ht="13.2">
       <c r="F467" s="18"/>
     </row>
-    <row r="468" spans="6:6" ht="12.75">
+    <row r="468" spans="6:6" ht="13.2">
       <c r="F468" s="18"/>
     </row>
-    <row r="469" spans="6:6" ht="12.75">
+    <row r="469" spans="6:6" ht="13.2">
       <c r="F469" s="18"/>
     </row>
-    <row r="470" spans="6:6" ht="12.75">
+    <row r="470" spans="6:6" ht="13.2">
       <c r="F470" s="18"/>
     </row>
-    <row r="471" spans="6:6" ht="12.75">
+    <row r="471" spans="6:6" ht="13.2">
       <c r="F471" s="18"/>
     </row>
-    <row r="472" spans="6:6" ht="12.75">
+    <row r="472" spans="6:6" ht="13.2">
       <c r="F472" s="18"/>
     </row>
-    <row r="473" spans="6:6" ht="12.75">
+    <row r="473" spans="6:6" ht="13.2">
       <c r="F473" s="18"/>
     </row>
-    <row r="474" spans="6:6" ht="12.75">
+    <row r="474" spans="6:6" ht="13.2">
       <c r="F474" s="18"/>
     </row>
-    <row r="475" spans="6:6" ht="12.75">
+    <row r="475" spans="6:6" ht="13.2">
       <c r="F475" s="18"/>
     </row>
-    <row r="476" spans="6:6" ht="12.75">
+    <row r="476" spans="6:6" ht="13.2">
       <c r="F476" s="18"/>
     </row>
-    <row r="477" spans="6:6" ht="12.75">
+    <row r="477" spans="6:6" ht="13.2">
       <c r="F477" s="18"/>
     </row>
-    <row r="478" spans="6:6" ht="12.75">
+    <row r="478" spans="6:6" ht="13.2">
       <c r="F478" s="18"/>
     </row>
-    <row r="479" spans="6:6" ht="12.75">
+    <row r="479" spans="6:6" ht="13.2">
       <c r="F479" s="18"/>
     </row>
-    <row r="480" spans="6:6" ht="12.75">
+    <row r="480" spans="6:6" ht="13.2">
       <c r="F480" s="18"/>
     </row>
-    <row r="481" spans="6:6" ht="12.75">
+    <row r="481" spans="6:6" ht="13.2">
       <c r="F481" s="18"/>
     </row>
-    <row r="482" spans="6:6" ht="12.75">
+    <row r="482" spans="6:6" ht="13.2">
       <c r="F482" s="18"/>
     </row>
-    <row r="483" spans="6:6" ht="12.75">
+    <row r="483" spans="6:6" ht="13.2">
       <c r="F483" s="18"/>
     </row>
-    <row r="484" spans="6:6" ht="12.75">
+    <row r="484" spans="6:6" ht="13.2">
       <c r="F484" s="18"/>
     </row>
-    <row r="485" spans="6:6" ht="12.75">
+    <row r="485" spans="6:6" ht="13.2">
       <c r="F485" s="18"/>
     </row>
-    <row r="486" spans="6:6" ht="12.75">
+    <row r="486" spans="6:6" ht="13.2">
       <c r="F486" s="18"/>
     </row>
-    <row r="487" spans="6:6" ht="12.75">
+    <row r="487" spans="6:6" ht="13.2">
       <c r="F487" s="18"/>
     </row>
-    <row r="488" spans="6:6" ht="12.75">
+    <row r="488" spans="6:6" ht="13.2">
       <c r="F488" s="18"/>
     </row>
-    <row r="489" spans="6:6" ht="12.75">
+    <row r="489" spans="6:6" ht="13.2">
       <c r="F489" s="18"/>
     </row>
-    <row r="490" spans="6:6" ht="12.75">
+    <row r="490" spans="6:6" ht="13.2">
       <c r="F490" s="18"/>
     </row>
-    <row r="491" spans="6:6" ht="12.75">
+    <row r="491" spans="6:6" ht="13.2">
       <c r="F491" s="18"/>
     </row>
-    <row r="492" spans="6:6" ht="12.75">
+    <row r="492" spans="6:6" ht="13.2">
       <c r="F492" s="18"/>
     </row>
-    <row r="493" spans="6:6" ht="12.75">
+    <row r="493" spans="6:6" ht="13.2">
       <c r="F493" s="18"/>
     </row>
-    <row r="494" spans="6:6" ht="12.75">
+    <row r="494" spans="6:6" ht="13.2">
       <c r="F494" s="18"/>
     </row>
-    <row r="495" spans="6:6" ht="12.75">
+    <row r="495" spans="6:6" ht="13.2">
       <c r="F495" s="18"/>
     </row>
-    <row r="496" spans="6:6" ht="12.75">
+    <row r="496" spans="6:6" ht="13.2">
       <c r="F496" s="18"/>
     </row>
-    <row r="497" spans="6:6" ht="12.75">
+    <row r="497" spans="6:6" ht="13.2">
       <c r="F497" s="18"/>
     </row>
-    <row r="498" spans="6:6" ht="12.75">
+    <row r="498" spans="6:6" ht="13.2">
       <c r="F498" s="18"/>
     </row>
-    <row r="499" spans="6:6" ht="12.75">
+    <row r="499" spans="6:6" ht="13.2">
       <c r="F499" s="18"/>
     </row>
-    <row r="500" spans="6:6" ht="12.75">
+    <row r="500" spans="6:6" ht="13.2">
       <c r="F500" s="18"/>
     </row>
-    <row r="501" spans="6:6" ht="12.75">
+    <row r="501" spans="6:6" ht="13.2">
       <c r="F501" s="18"/>
     </row>
-    <row r="502" spans="6:6" ht="12.75">
+    <row r="502" spans="6:6" ht="13.2">
       <c r="F502" s="18"/>
     </row>
-    <row r="503" spans="6:6" ht="12.75">
+    <row r="503" spans="6:6" ht="13.2">
       <c r="F503" s="18"/>
     </row>
-    <row r="504" spans="6:6" ht="12.75">
+    <row r="504" spans="6:6" ht="13.2">
       <c r="F504" s="18"/>
     </row>
-    <row r="505" spans="6:6" ht="12.75">
+    <row r="505" spans="6:6" ht="13.2">
       <c r="F505" s="18"/>
     </row>
-    <row r="506" spans="6:6" ht="12.75">
+    <row r="506" spans="6:6" ht="13.2">
       <c r="F506" s="18"/>
     </row>
-    <row r="507" spans="6:6" ht="12.75">
+    <row r="507" spans="6:6" ht="13.2">
       <c r="F507" s="18"/>
     </row>
-    <row r="508" spans="6:6" ht="12.75">
+    <row r="508" spans="6:6" ht="13.2">
       <c r="F508" s="18"/>
     </row>
-    <row r="509" spans="6:6" ht="12.75">
+    <row r="509" spans="6:6" ht="13.2">
       <c r="F509" s="18"/>
     </row>
-    <row r="510" spans="6:6" ht="12.75">
+    <row r="510" spans="6:6" ht="13.2">
       <c r="F510" s="18"/>
     </row>
-    <row r="511" spans="6:6" ht="12.75">
+    <row r="511" spans="6:6" ht="13.2">
       <c r="F511" s="18"/>
     </row>
-    <row r="512" spans="6:6" ht="12.75">
+    <row r="512" spans="6:6" ht="13.2">
       <c r="F512" s="18"/>
     </row>
-    <row r="513" spans="6:6" ht="12.75">
+    <row r="513" spans="6:6" ht="13.2">
       <c r="F513" s="18"/>
     </row>
-    <row r="514" spans="6:6" ht="12.75">
+    <row r="514" spans="6:6" ht="13.2">
       <c r="F514" s="18"/>
     </row>
-    <row r="515" spans="6:6" ht="12.75">
+    <row r="515" spans="6:6" ht="13.2">
       <c r="F515" s="18"/>
     </row>
-    <row r="516" spans="6:6" ht="12.75">
+    <row r="516" spans="6:6" ht="13.2">
       <c r="F516" s="18"/>
     </row>
-    <row r="517" spans="6:6" ht="12.75">
+    <row r="517" spans="6:6" ht="13.2">
       <c r="F517" s="18"/>
     </row>
-    <row r="518" spans="6:6" ht="12.75">
+    <row r="518" spans="6:6" ht="13.2">
       <c r="F518" s="18"/>
     </row>
-    <row r="519" spans="6:6" ht="12.75">
+    <row r="519" spans="6:6" ht="13.2">
       <c r="F519" s="18"/>
     </row>
-    <row r="520" spans="6:6" ht="12.75">
+    <row r="520" spans="6:6" ht="13.2">
       <c r="F520" s="18"/>
     </row>
-    <row r="521" spans="6:6" ht="12.75">
+    <row r="521" spans="6:6" ht="13.2">
       <c r="F521" s="18"/>
     </row>
-    <row r="522" spans="6:6" ht="12.75">
+    <row r="522" spans="6:6" ht="13.2">
       <c r="F522" s="18"/>
     </row>
-    <row r="523" spans="6:6" ht="12.75">
+    <row r="523" spans="6:6" ht="13.2">
       <c r="F523" s="18"/>
     </row>
-    <row r="524" spans="6:6" ht="12.75">
+    <row r="524" spans="6:6" ht="13.2">
       <c r="F524" s="18"/>
     </row>
-    <row r="525" spans="6:6" ht="12.75">
+    <row r="525" spans="6:6" ht="13.2">
       <c r="F525" s="18"/>
     </row>
-    <row r="526" spans="6:6" ht="12.75">
+    <row r="526" spans="6:6" ht="13.2">
       <c r="F526" s="18"/>
     </row>
-    <row r="527" spans="6:6" ht="12.75">
+    <row r="527" spans="6:6" ht="13.2">
       <c r="F527" s="18"/>
     </row>
-    <row r="528" spans="6:6" ht="12.75">
+    <row r="528" spans="6:6" ht="13.2">
       <c r="F528" s="18"/>
     </row>
-    <row r="529" spans="6:6" ht="12.75">
+    <row r="529" spans="6:6" ht="13.2">
       <c r="F529" s="18"/>
     </row>
-    <row r="530" spans="6:6" ht="12.75">
+    <row r="530" spans="6:6" ht="13.2">
       <c r="F530" s="18"/>
     </row>
-    <row r="531" spans="6:6" ht="12.75">
+    <row r="531" spans="6:6" ht="13.2">
       <c r="F531" s="18"/>
     </row>
-    <row r="532" spans="6:6" ht="12.75">
+    <row r="532" spans="6:6" ht="13.2">
       <c r="F532" s="18"/>
     </row>
-    <row r="533" spans="6:6" ht="12.75">
+    <row r="533" spans="6:6" ht="13.2">
       <c r="F533" s="18"/>
     </row>
-    <row r="534" spans="6:6" ht="12.75">
+    <row r="534" spans="6:6" ht="13.2">
       <c r="F534" s="18"/>
     </row>
-    <row r="535" spans="6:6" ht="12.75">
+    <row r="535" spans="6:6" ht="13.2">
       <c r="F535" s="18"/>
     </row>
-    <row r="536" spans="6:6" ht="12.75">
+    <row r="536" spans="6:6" ht="13.2">
       <c r="F536" s="18"/>
     </row>
-    <row r="537" spans="6:6" ht="12.75">
+    <row r="537" spans="6:6" ht="13.2">
       <c r="F537" s="18"/>
     </row>
-    <row r="538" spans="6:6" ht="12.75">
+    <row r="538" spans="6:6" ht="13.2">
       <c r="F538" s="18"/>
     </row>
-    <row r="539" spans="6:6" ht="12.75">
+    <row r="539" spans="6:6" ht="13.2">
       <c r="F539" s="18"/>
     </row>
-    <row r="540" spans="6:6" ht="12.75">
+    <row r="540" spans="6:6" ht="13.2">
       <c r="F540" s="18"/>
     </row>
-    <row r="541" spans="6:6" ht="12.75">
+    <row r="541" spans="6:6" ht="13.2">
       <c r="F541" s="18"/>
     </row>
-    <row r="542" spans="6:6" ht="12.75">
+    <row r="542" spans="6:6" ht="13.2">
       <c r="F542" s="18"/>
     </row>
-    <row r="543" spans="6:6" ht="12.75">
+    <row r="543" spans="6:6" ht="13.2">
       <c r="F543" s="18"/>
     </row>
-    <row r="544" spans="6:6" ht="12.75">
+    <row r="544" spans="6:6" ht="13.2">
       <c r="F544" s="18"/>
     </row>
-    <row r="545" spans="6:6" ht="12.75">
+    <row r="545" spans="6:6" ht="13.2">
       <c r="F545" s="18"/>
     </row>
-    <row r="546" spans="6:6" ht="12.75">
+    <row r="546" spans="6:6" ht="13.2">
       <c r="F546" s="18"/>
     </row>
-    <row r="547" spans="6:6" ht="12.75">
+    <row r="547" spans="6:6" ht="13.2">
       <c r="F547" s="18"/>
     </row>
-    <row r="548" spans="6:6" ht="12.75">
+    <row r="548" spans="6:6" ht="13.2">
       <c r="F548" s="18"/>
     </row>
-    <row r="549" spans="6:6" ht="12.75">
+    <row r="549" spans="6:6" ht="13.2">
       <c r="F549" s="18"/>
     </row>
-    <row r="550" spans="6:6" ht="12.75">
+    <row r="550" spans="6:6" ht="13.2">
       <c r="F550" s="18"/>
     </row>
-    <row r="551" spans="6:6" ht="12.75">
+    <row r="551" spans="6:6" ht="13.2">
       <c r="F551" s="18"/>
     </row>
-    <row r="552" spans="6:6" ht="12.75">
+    <row r="552" spans="6:6" ht="13.2">
       <c r="F552" s="18"/>
     </row>
-    <row r="553" spans="6:6" ht="12.75">
+    <row r="553" spans="6:6" ht="13.2">
       <c r="F553" s="18"/>
     </row>
-    <row r="554" spans="6:6" ht="12.75">
+    <row r="554" spans="6:6" ht="13.2">
       <c r="F554" s="18"/>
     </row>
-    <row r="555" spans="6:6" ht="12.75">
+    <row r="555" spans="6:6" ht="13.2">
       <c r="F555" s="18"/>
     </row>
-    <row r="556" spans="6:6" ht="12.75">
+    <row r="556" spans="6:6" ht="13.2">
       <c r="F556" s="18"/>
     </row>
-    <row r="557" spans="6:6" ht="12.75">
+    <row r="557" spans="6:6" ht="13.2">
       <c r="F557" s="18"/>
     </row>
-    <row r="558" spans="6:6" ht="12.75">
+    <row r="558" spans="6:6" ht="13.2">
       <c r="F558" s="18"/>
     </row>
-    <row r="559" spans="6:6" ht="12.75">
+    <row r="559" spans="6:6" ht="13.2">
       <c r="F559" s="18"/>
     </row>
-    <row r="560" spans="6:6" ht="12.75">
+    <row r="560" spans="6:6" ht="13.2">
       <c r="F560" s="18"/>
     </row>
-    <row r="561" spans="6:6" ht="12.75">
+    <row r="561" spans="6:6" ht="13.2">
       <c r="F561" s="18"/>
     </row>
-    <row r="562" spans="6:6" ht="12.75">
+    <row r="562" spans="6:6" ht="13.2">
       <c r="F562" s="18"/>
     </row>
-    <row r="563" spans="6:6" ht="12.75">
+    <row r="563" spans="6:6" ht="13.2">
       <c r="F563" s="18"/>
     </row>
-    <row r="564" spans="6:6" ht="12.75">
+    <row r="564" spans="6:6" ht="13.2">
       <c r="F564" s="18"/>
     </row>
-    <row r="565" spans="6:6" ht="12.75">
+    <row r="565" spans="6:6" ht="13.2">
       <c r="F565" s="18"/>
     </row>
-    <row r="566" spans="6:6" ht="12.75">
+    <row r="566" spans="6:6" ht="13.2">
       <c r="F566" s="18"/>
     </row>
-    <row r="567" spans="6:6" ht="12.75">
+    <row r="567" spans="6:6" ht="13.2">
       <c r="F567" s="18"/>
     </row>
-    <row r="568" spans="6:6" ht="12.75">
+    <row r="568" spans="6:6" ht="13.2">
       <c r="F568" s="18"/>
     </row>
-    <row r="569" spans="6:6" ht="12.75">
+    <row r="569" spans="6:6" ht="13.2">
       <c r="F569" s="18"/>
     </row>
-    <row r="570" spans="6:6" ht="12.75">
+    <row r="570" spans="6:6" ht="13.2">
       <c r="F570" s="18"/>
     </row>
-    <row r="571" spans="6:6" ht="12.75">
+    <row r="571" spans="6:6" ht="13.2">
       <c r="F571" s="18"/>
     </row>
-    <row r="572" spans="6:6" ht="12.75">
+    <row r="572" spans="6:6" ht="13.2">
       <c r="F572" s="18"/>
     </row>
-    <row r="573" spans="6:6" ht="12.75">
+    <row r="573" spans="6:6" ht="13.2">
       <c r="F573" s="18"/>
     </row>
-    <row r="574" spans="6:6" ht="12.75">
+    <row r="574" spans="6:6" ht="13.2">
       <c r="F574" s="18"/>
     </row>
-    <row r="575" spans="6:6" ht="12.75">
+    <row r="575" spans="6:6" ht="13.2">
       <c r="F575" s="18"/>
     </row>
-    <row r="576" spans="6:6" ht="12.75">
+    <row r="576" spans="6:6" ht="13.2">
       <c r="F576" s="18"/>
     </row>
-    <row r="577" spans="6:6" ht="12.75">
+    <row r="577" spans="6:6" ht="13.2">
       <c r="F577" s="18"/>
     </row>
-    <row r="578" spans="6:6" ht="12.75">
+    <row r="578" spans="6:6" ht="13.2">
       <c r="F578" s="18"/>
     </row>
-    <row r="579" spans="6:6" ht="12.75">
+    <row r="579" spans="6:6" ht="13.2">
       <c r="F579" s="18"/>
     </row>
-    <row r="580" spans="6:6" ht="12.75">
+    <row r="580" spans="6:6" ht="13.2">
       <c r="F580" s="18"/>
     </row>
-    <row r="581" spans="6:6" ht="12.75">
+    <row r="581" spans="6:6" ht="13.2">
       <c r="F581" s="18"/>
     </row>
-    <row r="582" spans="6:6" ht="12.75">
+    <row r="582" spans="6:6" ht="13.2">
       <c r="F582" s="18"/>
     </row>
-    <row r="583" spans="6:6" ht="12.75">
+    <row r="583" spans="6:6" ht="13.2">
       <c r="F583" s="18"/>
     </row>
-    <row r="584" spans="6:6" ht="12.75">
+    <row r="584" spans="6:6" ht="13.2">
       <c r="F584" s="18"/>
     </row>
-    <row r="585" spans="6:6" ht="12.75">
+    <row r="585" spans="6:6" ht="13.2">
       <c r="F585" s="18"/>
     </row>
-    <row r="586" spans="6:6" ht="12.75">
+    <row r="586" spans="6:6" ht="13.2">
       <c r="F586" s="18"/>
     </row>
-    <row r="587" spans="6:6" ht="12.75">
+    <row r="587" spans="6:6" ht="13.2">
       <c r="F587" s="18"/>
     </row>
-    <row r="588" spans="6:6" ht="12.75">
+    <row r="588" spans="6:6" ht="13.2">
       <c r="F588" s="18"/>
     </row>
-    <row r="589" spans="6:6" ht="12.75">
+    <row r="589" spans="6:6" ht="13.2">
       <c r="F589" s="18"/>
     </row>
-    <row r="590" spans="6:6" ht="12.75">
+    <row r="590" spans="6:6" ht="13.2">
       <c r="F590" s="18"/>
     </row>
-    <row r="591" spans="6:6" ht="12.75">
+    <row r="591" spans="6:6" ht="13.2">
       <c r="F591" s="18"/>
     </row>
-    <row r="592" spans="6:6" ht="12.75">
+    <row r="592" spans="6:6" ht="13.2">
       <c r="F592" s="18"/>
     </row>
-    <row r="593" spans="6:6" ht="12.75">
+    <row r="593" spans="6:6" ht="13.2">
       <c r="F593" s="18"/>
     </row>
-    <row r="594" spans="6:6" ht="12.75">
+    <row r="594" spans="6:6" ht="13.2">
       <c r="F594" s="18"/>
     </row>
-    <row r="595" spans="6:6" ht="12.75">
+    <row r="595" spans="6:6" ht="13.2">
       <c r="F595" s="18"/>
     </row>
-    <row r="596" spans="6:6" ht="12.75">
+    <row r="596" spans="6:6" ht="13.2">
       <c r="F596" s="18"/>
     </row>
-    <row r="597" spans="6:6" ht="12.75">
+    <row r="597" spans="6:6" ht="13.2">
       <c r="F597" s="18"/>
     </row>
-    <row r="598" spans="6:6" ht="12.75">
+    <row r="598" spans="6:6" ht="13.2">
       <c r="F598" s="18"/>
     </row>
-    <row r="599" spans="6:6" ht="12.75">
+    <row r="599" spans="6:6" ht="13.2">
       <c r="F599" s="18"/>
     </row>
-    <row r="600" spans="6:6" ht="12.75">
+    <row r="600" spans="6:6" ht="13.2">
       <c r="F600" s="18"/>
     </row>
-    <row r="601" spans="6:6" ht="12.75">
+    <row r="601" spans="6:6" ht="13.2">
       <c r="F601" s="18"/>
     </row>
-    <row r="602" spans="6:6" ht="12.75">
+    <row r="602" spans="6:6" ht="13.2">
       <c r="F602" s="18"/>
     </row>
-    <row r="603" spans="6:6" ht="12.75">
+    <row r="603" spans="6:6" ht="13.2">
       <c r="F603" s="18"/>
     </row>
-    <row r="604" spans="6:6" ht="12.75">
+    <row r="604" spans="6:6" ht="13.2">
       <c r="F604" s="18"/>
     </row>
-    <row r="605" spans="6:6" ht="12.75">
+    <row r="605" spans="6:6" ht="13.2">
       <c r="F605" s="18"/>
     </row>
-    <row r="606" spans="6:6" ht="12.75">
+    <row r="606" spans="6:6" ht="13.2">
       <c r="F606" s="18"/>
     </row>
-    <row r="607" spans="6:6" ht="12.75">
+    <row r="607" spans="6:6" ht="13.2">
       <c r="F607" s="18"/>
     </row>
-    <row r="608" spans="6:6" ht="12.75">
+    <row r="608" spans="6:6" ht="13.2">
       <c r="F608" s="18"/>
     </row>
-    <row r="609" spans="6:6" ht="12.75">
+    <row r="609" spans="6:6" ht="13.2">
       <c r="F609" s="18"/>
     </row>
-    <row r="610" spans="6:6" ht="12.75">
+    <row r="610" spans="6:6" ht="13.2">
       <c r="F610" s="18"/>
     </row>
-    <row r="611" spans="6:6" ht="12.75">
+    <row r="611" spans="6:6" ht="13.2">
       <c r="F611" s="18"/>
     </row>
-    <row r="612" spans="6:6" ht="12.75">
+    <row r="612" spans="6:6" ht="13.2">
       <c r="F612" s="18"/>
     </row>
-    <row r="613" spans="6:6" ht="12.75">
+    <row r="613" spans="6:6" ht="13.2">
       <c r="F613" s="18"/>
     </row>
-    <row r="614" spans="6:6" ht="12.75">
+    <row r="614" spans="6:6" ht="13.2">
       <c r="F614" s="18"/>
     </row>
-    <row r="615" spans="6:6" ht="12.75">
+    <row r="615" spans="6:6" ht="13.2">
       <c r="F615" s="18"/>
     </row>
-    <row r="616" spans="6:6" ht="12.75">
+    <row r="616" spans="6:6" ht="13.2">
       <c r="F616" s="18"/>
     </row>
-    <row r="617" spans="6:6" ht="12.75">
+    <row r="617" spans="6:6" ht="13.2">
       <c r="F617" s="18"/>
     </row>
-    <row r="618" spans="6:6" ht="12.75">
+    <row r="618" spans="6:6" ht="13.2">
       <c r="F618" s="18"/>
     </row>
-    <row r="619" spans="6:6" ht="12.75">
+    <row r="619" spans="6:6" ht="13.2">
       <c r="F619" s="18"/>
     </row>
-    <row r="620" spans="6:6" ht="12.75">
+    <row r="620" spans="6:6" ht="13.2">
       <c r="F620" s="18"/>
     </row>
-    <row r="621" spans="6:6" ht="12.75">
+    <row r="621" spans="6:6" ht="13.2">
       <c r="F621" s="18"/>
     </row>
-    <row r="622" spans="6:6" ht="12.75">
+    <row r="622" spans="6:6" ht="13.2">
       <c r="F622" s="18"/>
     </row>
-    <row r="623" spans="6:6" ht="12.75">
+    <row r="623" spans="6:6" ht="13.2">
       <c r="F623" s="18"/>
     </row>
-    <row r="624" spans="6:6" ht="12.75">
+    <row r="624" spans="6:6" ht="13.2">
       <c r="F624" s="18"/>
     </row>
-    <row r="625" spans="6:6" ht="12.75">
+    <row r="625" spans="6:6" ht="13.2">
       <c r="F625" s="18"/>
     </row>
-    <row r="626" spans="6:6" ht="12.75">
+    <row r="626" spans="6:6" ht="13.2">
       <c r="F626" s="18"/>
     </row>
-    <row r="627" spans="6:6" ht="12.75">
+    <row r="627" spans="6:6" ht="13.2">
       <c r="F627" s="18"/>
     </row>
-    <row r="628" spans="6:6" ht="12.75">
+    <row r="628" spans="6:6" ht="13.2">
       <c r="F628" s="18"/>
     </row>
-    <row r="629" spans="6:6" ht="12.75">
+    <row r="629" spans="6:6" ht="13.2">
       <c r="F629" s="18"/>
     </row>
-    <row r="630" spans="6:6" ht="12.75">
+    <row r="630" spans="6:6" ht="13.2">
       <c r="F630" s="18"/>
     </row>
-    <row r="631" spans="6:6" ht="12.75">
+    <row r="631" spans="6:6" ht="13.2">
       <c r="F631" s="18"/>
     </row>
-    <row r="632" spans="6:6" ht="12.75">
+    <row r="632" spans="6:6" ht="13.2">
       <c r="F632" s="18"/>
     </row>
-    <row r="633" spans="6:6" ht="12.75">
+    <row r="633" spans="6:6" ht="13.2">
       <c r="F633" s="18"/>
     </row>
-    <row r="634" spans="6:6" ht="12.75">
+    <row r="634" spans="6:6" ht="13.2">
       <c r="F634" s="18"/>
     </row>
-    <row r="635" spans="6:6" ht="12.75">
+    <row r="635" spans="6:6" ht="13.2">
       <c r="F635" s="18"/>
     </row>
-    <row r="636" spans="6:6" ht="12.75">
+    <row r="636" spans="6:6" ht="13.2">
       <c r="F636" s="18"/>
     </row>
-    <row r="637" spans="6:6" ht="12.75">
+    <row r="637" spans="6:6" ht="13.2">
       <c r="F637" s="18"/>
     </row>
-    <row r="638" spans="6:6" ht="12.75">
+    <row r="638" spans="6:6" ht="13.2">
       <c r="F638" s="18"/>
     </row>
-    <row r="639" spans="6:6" ht="12.75">
+    <row r="639" spans="6:6" ht="13.2">
       <c r="F639" s="18"/>
     </row>
-    <row r="640" spans="6:6" ht="12.75">
+    <row r="640" spans="6:6" ht="13.2">
       <c r="F640" s="18"/>
     </row>
-    <row r="641" spans="6:6" ht="12.75">
+    <row r="641" spans="6:6" ht="13.2">
       <c r="F641" s="18"/>
     </row>
-    <row r="642" spans="6:6" ht="12.75">
+    <row r="642" spans="6:6" ht="13.2">
       <c r="F642" s="18"/>
     </row>
-    <row r="643" spans="6:6" ht="12.75">
+    <row r="643" spans="6:6" ht="13.2">
       <c r="F643" s="18"/>
     </row>
-    <row r="644" spans="6:6" ht="12.75">
+    <row r="644" spans="6:6" ht="13.2">
       <c r="F644" s="18"/>
     </row>
-    <row r="645" spans="6:6" ht="12.75">
+    <row r="645" spans="6:6" ht="13.2">
       <c r="F645" s="18"/>
     </row>
-    <row r="646" spans="6:6" ht="12.75">
+    <row r="646" spans="6:6" ht="13.2">
       <c r="F646" s="18"/>
     </row>
-    <row r="647" spans="6:6" ht="12.75">
+    <row r="647" spans="6:6" ht="13.2">
       <c r="F647" s="18"/>
     </row>
-    <row r="648" spans="6:6" ht="12.75">
+    <row r="648" spans="6:6" ht="13.2">
       <c r="F648" s="18"/>
     </row>
-    <row r="649" spans="6:6" ht="12.75">
+    <row r="649" spans="6:6" ht="13.2">
       <c r="F649" s="18"/>
     </row>
-    <row r="650" spans="6:6" ht="12.75">
+    <row r="650" spans="6:6" ht="13.2">
       <c r="F650" s="18"/>
     </row>
-    <row r="651" spans="6:6" ht="12.75">
+    <row r="651" spans="6:6" ht="13.2">
       <c r="F651" s="18"/>
     </row>
-    <row r="652" spans="6:6" ht="12.75">
+    <row r="652" spans="6:6" ht="13.2">
       <c r="F652" s="18"/>
     </row>
-    <row r="653" spans="6:6" ht="12.75">
+    <row r="653" spans="6:6" ht="13.2">
       <c r="F653" s="18"/>
     </row>
-    <row r="654" spans="6:6" ht="12.75">
+    <row r="654" spans="6:6" ht="13.2">
       <c r="F654" s="18"/>
     </row>
-    <row r="655" spans="6:6" ht="12.75">
+    <row r="655" spans="6:6" ht="13.2">
       <c r="F655" s="18"/>
     </row>
-    <row r="656" spans="6:6" ht="12.75">
+    <row r="656" spans="6:6" ht="13.2">
       <c r="F656" s="18"/>
     </row>
-    <row r="657" spans="6:6" ht="12.75">
+    <row r="657" spans="6:6" ht="13.2">
       <c r="F657" s="18"/>
     </row>
-    <row r="658" spans="6:6" ht="12.75">
+    <row r="658" spans="6:6" ht="13.2">
       <c r="F658" s="18"/>
     </row>
-    <row r="659" spans="6:6" ht="12.75">
+    <row r="659" spans="6:6" ht="13.2">
       <c r="F659" s="18"/>
     </row>
-    <row r="660" spans="6:6" ht="12.75">
+    <row r="660" spans="6:6" ht="13.2">
       <c r="F660" s="18"/>
     </row>
-    <row r="661" spans="6:6" ht="12.75">
+    <row r="661" spans="6:6" ht="13.2">
       <c r="F661" s="18"/>
     </row>
-    <row r="662" spans="6:6" ht="12.75">
+    <row r="662" spans="6:6" ht="13.2">
       <c r="F662" s="18"/>
     </row>
-    <row r="663" spans="6:6" ht="12.75">
+    <row r="663" spans="6:6" ht="13.2">
       <c r="F663" s="18"/>
     </row>
-    <row r="664" spans="6:6" ht="12.75">
+    <row r="664" spans="6:6" ht="13.2">
       <c r="F664" s="18"/>
     </row>
-    <row r="665" spans="6:6" ht="12.75">
+    <row r="665" spans="6:6" ht="13.2">
       <c r="F665" s="18"/>
     </row>
-    <row r="666" spans="6:6" ht="12.75">
+    <row r="666" spans="6:6" ht="13.2">
       <c r="F666" s="18"/>
     </row>
-    <row r="667" spans="6:6" ht="12.75">
+    <row r="667" spans="6:6" ht="13.2">
       <c r="F667" s="18"/>
     </row>
-    <row r="668" spans="6:6" ht="12.75">
+    <row r="668" spans="6:6" ht="13.2">
       <c r="F668" s="18"/>
     </row>
-    <row r="669" spans="6:6" ht="12.75">
+    <row r="669" spans="6:6" ht="13.2">
       <c r="F669" s="18"/>
     </row>
-    <row r="670" spans="6:6" ht="12.75">
+    <row r="670" spans="6:6" ht="13.2">
       <c r="F670" s="18"/>
     </row>
-    <row r="671" spans="6:6" ht="12.75">
+    <row r="671" spans="6:6" ht="13.2">
       <c r="F671" s="18"/>
     </row>
-    <row r="672" spans="6:6" ht="12.75">
+    <row r="672" spans="6:6" ht="13.2">
       <c r="F672" s="18"/>
     </row>
-    <row r="673" spans="6:6" ht="12.75">
+    <row r="673" spans="6:6" ht="13.2">
       <c r="F673" s="18"/>
     </row>
-    <row r="674" spans="6:6" ht="12.75">
+    <row r="674" spans="6:6" ht="13.2">
       <c r="F674" s="18"/>
     </row>
-    <row r="675" spans="6:6" ht="12.75">
+    <row r="675" spans="6:6" ht="13.2">
       <c r="F675" s="18"/>
     </row>
-    <row r="676" spans="6:6" ht="12.75">
+    <row r="676" spans="6:6" ht="13.2">
       <c r="F676" s="18"/>
     </row>
-    <row r="677" spans="6:6" ht="12.75">
+    <row r="677" spans="6:6" ht="13.2">
       <c r="F677" s="18"/>
     </row>
-    <row r="678" spans="6:6" ht="12.75">
+    <row r="678" spans="6:6" ht="13.2">
       <c r="F678" s="18"/>
     </row>
-    <row r="679" spans="6:6" ht="12.75">
+    <row r="679" spans="6:6" ht="13.2">
       <c r="F679" s="18"/>
     </row>
-    <row r="680" spans="6:6" ht="12.75">
+    <row r="680" spans="6:6" ht="13.2">
       <c r="F680" s="18"/>
     </row>
-    <row r="681" spans="6:6" ht="12.75">
+    <row r="681" spans="6:6" ht="13.2">
       <c r="F681" s="18"/>
     </row>
-    <row r="682" spans="6:6" ht="12.75">
+    <row r="682" spans="6:6" ht="13.2">
       <c r="F682" s="18"/>
     </row>
-    <row r="683" spans="6:6" ht="12.75">
+    <row r="683" spans="6:6" ht="13.2">
       <c r="F683" s="18"/>
     </row>
-    <row r="684" spans="6:6" ht="12.75">
+    <row r="684" spans="6:6" ht="13.2">
       <c r="F684" s="18"/>
     </row>
-    <row r="685" spans="6:6" ht="12.75">
+    <row r="685" spans="6:6" ht="13.2">
       <c r="F685" s="18"/>
     </row>
-    <row r="686" spans="6:6" ht="12.75">
+    <row r="686" spans="6:6" ht="13.2">
       <c r="F686" s="18"/>
     </row>
-    <row r="687" spans="6:6" ht="12.75">
+    <row r="687" spans="6:6" ht="13.2">
       <c r="F687" s="18"/>
     </row>
-    <row r="688" spans="6:6" ht="12.75">
+    <row r="688" spans="6:6" ht="13.2">
       <c r="F688" s="18"/>
     </row>
-    <row r="689" spans="6:6" ht="12.75">
+    <row r="689" spans="6:6" ht="13.2">
       <c r="F689" s="18"/>
     </row>
-    <row r="690" spans="6:6" ht="12.75">
+    <row r="690" spans="6:6" ht="13.2">
       <c r="F690" s="18"/>
     </row>
-    <row r="691" spans="6:6" ht="12.75">
+    <row r="691" spans="6:6" ht="13.2">
       <c r="F691" s="18"/>
     </row>
-    <row r="692" spans="6:6" ht="12.75">
+    <row r="692" spans="6:6" ht="13.2">
       <c r="F692" s="18"/>
     </row>
-    <row r="693" spans="6:6" ht="12.75">
+    <row r="693" spans="6:6" ht="13.2">
       <c r="F693" s="18"/>
     </row>
-    <row r="694" spans="6:6" ht="12.75">
+    <row r="694" spans="6:6" ht="13.2">
       <c r="F694" s="18"/>
     </row>
-    <row r="695" spans="6:6" ht="12.75">
+    <row r="695" spans="6:6" ht="13.2">
       <c r="F695" s="18"/>
     </row>
-    <row r="696" spans="6:6" ht="12.75">
+    <row r="696" spans="6:6" ht="13.2">
       <c r="F696" s="18"/>
     </row>
-    <row r="697" spans="6:6" ht="12.75">
+    <row r="697" spans="6:6" ht="13.2">
       <c r="F697" s="18"/>
     </row>
-    <row r="698" spans="6:6" ht="12.75">
+    <row r="698" spans="6:6" ht="13.2">
       <c r="F698" s="18"/>
     </row>
-    <row r="699" spans="6:6" ht="12.75">
+    <row r="699" spans="6:6" ht="13.2">
       <c r="F699" s="18"/>
     </row>
-    <row r="700" spans="6:6" ht="12.75">
+    <row r="700" spans="6:6" ht="13.2">
       <c r="F700" s="18"/>
     </row>
-    <row r="701" spans="6:6" ht="12.75">
+    <row r="701" spans="6:6" ht="13.2">
       <c r="F701" s="18"/>
     </row>
-    <row r="702" spans="6:6" ht="12.75">
+    <row r="702" spans="6:6" ht="13.2">
       <c r="F702" s="18"/>
     </row>
-    <row r="703" spans="6:6" ht="12.75">
+    <row r="703" spans="6:6" ht="13.2">
       <c r="F703" s="18"/>
     </row>
-    <row r="704" spans="6:6" ht="12.75">
+    <row r="704" spans="6:6" ht="13.2">
       <c r="F704" s="18"/>
     </row>
-    <row r="705" spans="6:6" ht="12.75">
+    <row r="705" spans="6:6" ht="13.2">
       <c r="F705" s="18"/>
     </row>
-    <row r="706" spans="6:6" ht="12.75">
+    <row r="706" spans="6:6" ht="13.2">
       <c r="F706" s="18"/>
     </row>
-    <row r="707" spans="6:6" ht="12.75">
+    <row r="707" spans="6:6" ht="13.2">
       <c r="F707" s="18"/>
     </row>
-    <row r="708" spans="6:6" ht="12.75">
+    <row r="708" spans="6:6" ht="13.2">
       <c r="F708" s="18"/>
     </row>
-    <row r="709" spans="6:6" ht="12.75">
+    <row r="709" spans="6:6" ht="13.2">
       <c r="F709" s="18"/>
     </row>
-    <row r="710" spans="6:6" ht="12.75">
+    <row r="710" spans="6:6" ht="13.2">
       <c r="F710" s="18"/>
     </row>
-    <row r="711" spans="6:6" ht="12.75">
+    <row r="711" spans="6:6" ht="13.2">
       <c r="F711" s="18"/>
     </row>
-    <row r="712" spans="6:6" ht="12.75">
+    <row r="712" spans="6:6" ht="13.2">
       <c r="F712" s="18"/>
     </row>
-    <row r="713" spans="6:6" ht="12.75">
+    <row r="713" spans="6:6" ht="13.2">
       <c r="F713" s="18"/>
     </row>
-    <row r="714" spans="6:6" ht="12.75">
+    <row r="714" spans="6:6" ht="13.2">
       <c r="F714" s="18"/>
     </row>
-    <row r="715" spans="6:6" ht="12.75">
+    <row r="715" spans="6:6" ht="13.2">
       <c r="F715" s="18"/>
     </row>
-    <row r="716" spans="6:6" ht="12.75">
+    <row r="716" spans="6:6" ht="13.2">
       <c r="F716" s="18"/>
     </row>
-    <row r="717" spans="6:6" ht="12.75">
+    <row r="717" spans="6:6" ht="13.2">
       <c r="F717" s="18"/>
     </row>
-    <row r="718" spans="6:6" ht="12.75">
+    <row r="718" spans="6:6" ht="13.2">
       <c r="F718" s="18"/>
     </row>
-    <row r="719" spans="6:6" ht="12.75">
+    <row r="719" spans="6:6" ht="13.2">
       <c r="F719" s="18"/>
     </row>
-    <row r="720" spans="6:6" ht="12.75">
+    <row r="720" spans="6:6" ht="13.2">
       <c r="F720" s="18"/>
     </row>
-    <row r="721" spans="6:6" ht="12.75">
+    <row r="721" spans="6:6" ht="13.2">
       <c r="F721" s="18"/>
     </row>
-    <row r="722" spans="6:6" ht="12.75">
+    <row r="722" spans="6:6" ht="13.2">
       <c r="F722" s="18"/>
     </row>
-    <row r="723" spans="6:6" ht="12.75">
+    <row r="723" spans="6:6" ht="13.2">
       <c r="F723" s="18"/>
     </row>
-    <row r="724" spans="6:6" ht="12.75">
+    <row r="724" spans="6:6" ht="13.2">
       <c r="F724" s="18"/>
     </row>
-    <row r="725" spans="6:6" ht="12.75">
+    <row r="725" spans="6:6" ht="13.2">
       <c r="F725" s="18"/>
     </row>
-    <row r="726" spans="6:6" ht="12.75">
+    <row r="726" spans="6:6" ht="13.2">
       <c r="F726" s="18"/>
     </row>
-    <row r="727" spans="6:6" ht="12.75">
+    <row r="727" spans="6:6" ht="13.2">
       <c r="F727" s="18"/>
     </row>
-    <row r="728" spans="6:6" ht="12.75">
+    <row r="728" spans="6:6" ht="13.2">
       <c r="F728" s="18"/>
     </row>
-    <row r="729" spans="6:6" ht="12.75">
+    <row r="729" spans="6:6" ht="13.2">
       <c r="F729" s="18"/>
     </row>
-    <row r="730" spans="6:6" ht="12.75">
+    <row r="730" spans="6:6" ht="13.2">
       <c r="F730" s="18"/>
     </row>
-    <row r="731" spans="6:6" ht="12.75">
+    <row r="731" spans="6:6" ht="13.2">
       <c r="F731" s="18"/>
     </row>
-    <row r="732" spans="6:6" ht="12.75">
+    <row r="732" spans="6:6" ht="13.2">
       <c r="F732" s="18"/>
     </row>
-    <row r="733" spans="6:6" ht="12.75">
+    <row r="733" spans="6:6" ht="13.2">
       <c r="F733" s="18"/>
     </row>
-    <row r="734" spans="6:6" ht="12.75">
+    <row r="734" spans="6:6" ht="13.2">
       <c r="F734" s="18"/>
     </row>
-    <row r="735" spans="6:6" ht="12.75">
+    <row r="735" spans="6:6" ht="13.2">
       <c r="F735" s="18"/>
     </row>
-    <row r="736" spans="6:6" ht="12.75">
+    <row r="736" spans="6:6" ht="13.2">
       <c r="F736" s="18"/>
     </row>
-    <row r="737" spans="6:6" ht="12.75">
+    <row r="737" spans="6:6" ht="13.2">
       <c r="F737" s="18"/>
     </row>
-    <row r="738" spans="6:6" ht="12.75">
+    <row r="738" spans="6:6" ht="13.2">
       <c r="F738" s="18"/>
     </row>
-    <row r="739" spans="6:6" ht="12.75">
+    <row r="739" spans="6:6" ht="13.2">
       <c r="F739" s="18"/>
     </row>
-    <row r="740" spans="6:6" ht="12.75">
+    <row r="740" spans="6:6" ht="13.2">
       <c r="F740" s="18"/>
     </row>
-    <row r="741" spans="6:6" ht="12.75">
+    <row r="741" spans="6:6" ht="13.2">
       <c r="F741" s="18"/>
     </row>
-    <row r="742" spans="6:6" ht="12.75">
+    <row r="742" spans="6:6" ht="13.2">
       <c r="F742" s="18"/>
     </row>
-    <row r="743" spans="6:6" ht="12.75">
+    <row r="743" spans="6:6" ht="13.2">
       <c r="F743" s="18"/>
     </row>
-    <row r="744" spans="6:6" ht="12.75">
+    <row r="744" spans="6:6" ht="13.2">
       <c r="F744" s="18"/>
     </row>
-    <row r="745" spans="6:6" ht="12.75">
+    <row r="745" spans="6:6" ht="13.2">
       <c r="F745" s="18"/>
     </row>
-    <row r="746" spans="6:6" ht="12.75">
+    <row r="746" spans="6:6" ht="13.2">
       <c r="F746" s="18"/>
     </row>
-    <row r="747" spans="6:6" ht="12.75">
+    <row r="747" spans="6:6" ht="13.2">
       <c r="F747" s="18"/>
     </row>
-    <row r="748" spans="6:6" ht="12.75">
+    <row r="748" spans="6:6" ht="13.2">
       <c r="F748" s="18"/>
     </row>
-    <row r="749" spans="6:6" ht="12.75">
+    <row r="749" spans="6:6" ht="13.2">
       <c r="F749" s="18"/>
     </row>
-    <row r="750" spans="6:6" ht="12.75">
+    <row r="750" spans="6:6" ht="13.2">
       <c r="F750" s="18"/>
     </row>
-    <row r="751" spans="6:6" ht="12.75">
+    <row r="751" spans="6:6" ht="13.2">
       <c r="F751" s="18"/>
     </row>
-    <row r="752" spans="6:6" ht="12.75">
+    <row r="752" spans="6:6" ht="13.2">
       <c r="F752" s="18"/>
     </row>
-    <row r="753" spans="6:6" ht="12.75">
+    <row r="753" spans="6:6" ht="13.2">
       <c r="F753" s="18"/>
     </row>
-    <row r="754" spans="6:6" ht="12.75">
+    <row r="754" spans="6:6" ht="13.2">
       <c r="F754" s="18"/>
     </row>
-    <row r="755" spans="6:6" ht="12.75">
+    <row r="755" spans="6:6" ht="13.2">
       <c r="F755" s="18"/>
     </row>
-    <row r="756" spans="6:6" ht="12.75">
+    <row r="756" spans="6:6" ht="13.2">
       <c r="F756" s="18"/>
     </row>
-    <row r="757" spans="6:6" ht="12.75">
+    <row r="757" spans="6:6" ht="13.2">
       <c r="F757" s="18"/>
     </row>
-    <row r="758" spans="6:6" ht="12.75">
+    <row r="758" spans="6:6" ht="13.2">
       <c r="F758" s="18"/>
     </row>
-    <row r="759" spans="6:6" ht="12.75">
+    <row r="759" spans="6:6" ht="13.2">
       <c r="F759" s="18"/>
     </row>
-    <row r="760" spans="6:6" ht="12.75">
+    <row r="760" spans="6:6" ht="13.2">
       <c r="F760" s="18"/>
     </row>
-    <row r="761" spans="6:6" ht="12.75">
+    <row r="761" spans="6:6" ht="13.2">
       <c r="F761" s="18"/>
     </row>
-    <row r="762" spans="6:6" ht="12.75">
+    <row r="762" spans="6:6" ht="13.2">
       <c r="F762" s="18"/>
     </row>
-    <row r="763" spans="6:6" ht="12.75">
+    <row r="763" spans="6:6" ht="13.2">
       <c r="F763" s="18"/>
     </row>
-    <row r="764" spans="6:6" ht="12.75">
+    <row r="764" spans="6:6" ht="13.2">
       <c r="F764" s="18"/>
     </row>
-    <row r="765" spans="6:6" ht="12.75">
+    <row r="765" spans="6:6" ht="13.2">
       <c r="F765" s="18"/>
     </row>
-    <row r="766" spans="6:6" ht="12.75">
+    <row r="766" spans="6:6" ht="13.2">
       <c r="F766" s="18"/>
     </row>
-    <row r="767" spans="6:6" ht="12.75">
+    <row r="767" spans="6:6" ht="13.2">
       <c r="F767" s="18"/>
     </row>
-    <row r="768" spans="6:6" ht="12.75">
+    <row r="768" spans="6:6" ht="13.2">
       <c r="F768" s="18"/>
     </row>
-    <row r="769" spans="6:6" ht="12.75">
+    <row r="769" spans="6:6" ht="13.2">
       <c r="F769" s="18"/>
     </row>
-    <row r="770" spans="6:6" ht="12.75">
+    <row r="770" spans="6:6" ht="13.2">
       <c r="F770" s="18"/>
     </row>
-    <row r="771" spans="6:6" ht="12.75">
+    <row r="771" spans="6:6" ht="13.2">
       <c r="F771" s="18"/>
     </row>
-    <row r="772" spans="6:6" ht="12.75">
+    <row r="772" spans="6:6" ht="13.2">
       <c r="F772" s="18"/>
     </row>
-    <row r="773" spans="6:6" ht="12.75">
+    <row r="773" spans="6:6" ht="13.2">
       <c r="F773" s="18"/>
     </row>
-    <row r="774" spans="6:6" ht="12.75">
+    <row r="774" spans="6:6" ht="13.2">
       <c r="F774" s="18"/>
     </row>
-    <row r="775" spans="6:6" ht="12.75">
+    <row r="775" spans="6:6" ht="13.2">
       <c r="F775" s="18"/>
     </row>
-    <row r="776" spans="6:6" ht="12.75">
+    <row r="776" spans="6:6" ht="13.2">
       <c r="F776" s="18"/>
     </row>
-    <row r="777" spans="6:6" ht="12.75">
+    <row r="777" spans="6:6" ht="13.2">
       <c r="F777" s="18"/>
     </row>
-    <row r="778" spans="6:6" ht="12.75">
+    <row r="778" spans="6:6" ht="13.2">
       <c r="F778" s="18"/>
     </row>
-    <row r="779" spans="6:6" ht="12.75">
+    <row r="779" spans="6:6" ht="13.2">
       <c r="F779" s="18"/>
     </row>
-    <row r="780" spans="6:6" ht="12.75">
+    <row r="780" spans="6:6" ht="13.2">
       <c r="F780" s="18"/>
     </row>
-    <row r="781" spans="6:6" ht="12.75">
+    <row r="781" spans="6:6" ht="13.2">
       <c r="F781" s="18"/>
     </row>
-    <row r="782" spans="6:6" ht="12.75">
+    <row r="782" spans="6:6" ht="13.2">
       <c r="F782" s="18"/>
     </row>
-    <row r="783" spans="6:6" ht="12.75">
+    <row r="783" spans="6:6" ht="13.2">
       <c r="F783" s="18"/>
     </row>
-    <row r="784" spans="6:6" ht="12.75">
+    <row r="784" spans="6:6" ht="13.2">
       <c r="F784" s="18"/>
     </row>
-    <row r="785" spans="6:6" ht="12.75">
+    <row r="785" spans="6:6" ht="13.2">
       <c r="F785" s="18"/>
     </row>
-    <row r="786" spans="6:6" ht="12.75">
+    <row r="786" spans="6:6" ht="13.2">
       <c r="F786" s="18"/>
     </row>
-    <row r="787" spans="6:6" ht="12.75">
+    <row r="787" spans="6:6" ht="13.2">
       <c r="F787" s="18"/>
     </row>
-    <row r="788" spans="6:6" ht="12.75">
+    <row r="788" spans="6:6" ht="13.2">
       <c r="F788" s="18"/>
     </row>
-    <row r="789" spans="6:6" ht="12.75">
+    <row r="789" spans="6:6" ht="13.2">
       <c r="F789" s="18"/>
     </row>
-    <row r="790" spans="6:6" ht="12.75">
+    <row r="790" spans="6:6" ht="13.2">
       <c r="F790" s="18"/>
     </row>
-    <row r="791" spans="6:6" ht="12.75">
+    <row r="791" spans="6:6" ht="13.2">
       <c r="F791" s="18"/>
     </row>
-    <row r="792" spans="6:6" ht="12.75">
+    <row r="792" spans="6:6" ht="13.2">
       <c r="F792" s="18"/>
     </row>
-    <row r="793" spans="6:6" ht="12.75">
+    <row r="793" spans="6:6" ht="13.2">
       <c r="F793" s="18"/>
     </row>
-    <row r="794" spans="6:6" ht="12.75">
+    <row r="794" spans="6:6" ht="13.2">
       <c r="F794" s="18"/>
     </row>
-    <row r="795" spans="6:6" ht="12.75">
+    <row r="795" spans="6:6" ht="13.2">
       <c r="F795" s="18"/>
     </row>
-    <row r="796" spans="6:6" ht="12.75">
+    <row r="796" spans="6:6" ht="13.2">
       <c r="F796" s="18"/>
     </row>
-    <row r="797" spans="6:6" ht="12.75">
+    <row r="797" spans="6:6" ht="13.2">
       <c r="F797" s="18"/>
     </row>
-    <row r="798" spans="6:6" ht="12.75">
+    <row r="798" spans="6:6" ht="13.2">
       <c r="F798" s="18"/>
     </row>
-    <row r="799" spans="6:6" ht="12.75">
+    <row r="799" spans="6:6" ht="13.2">
       <c r="F799" s="18"/>
     </row>
-    <row r="800" spans="6:6" ht="12.75">
+    <row r="800" spans="6:6" ht="13.2">
       <c r="F800" s="18"/>
     </row>
-    <row r="801" spans="6:6" ht="12.75">
+    <row r="801" spans="6:6" ht="13.2">
       <c r="F801" s="18"/>
     </row>
-    <row r="802" spans="6:6" ht="12.75">
+    <row r="802" spans="6:6" ht="13.2">
       <c r="F802" s="18"/>
     </row>
-    <row r="803" spans="6:6" ht="12.75">
+    <row r="803" spans="6:6" ht="13.2">
       <c r="F803" s="18"/>
     </row>
-    <row r="804" spans="6:6" ht="12.75">
+    <row r="804" spans="6:6" ht="13.2">
       <c r="F804" s="18"/>
     </row>
-    <row r="805" spans="6:6" ht="12.75">
+    <row r="805" spans="6:6" ht="13.2">
       <c r="F805" s="18"/>
     </row>
-    <row r="806" spans="6:6" ht="12.75">
+    <row r="806" spans="6:6" ht="13.2">
       <c r="F806" s="18"/>
     </row>
-    <row r="807" spans="6:6" ht="12.75">
+    <row r="807" spans="6:6" ht="13.2">
       <c r="F807" s="18"/>
     </row>
-    <row r="808" spans="6:6" ht="12.75">
+    <row r="808" spans="6:6" ht="13.2">
       <c r="F808" s="18"/>
     </row>
-    <row r="809" spans="6:6" ht="12.75">
+    <row r="809" spans="6:6" ht="13.2">
       <c r="F809" s="18"/>
     </row>
-    <row r="810" spans="6:6" ht="12.75">
+    <row r="810" spans="6:6" ht="13.2">
       <c r="F810" s="18"/>
     </row>
-    <row r="811" spans="6:6" ht="12.75">
+    <row r="811" spans="6:6" ht="13.2">
       <c r="F811" s="18"/>
     </row>
-    <row r="812" spans="6:6" ht="12.75">
+    <row r="812" spans="6:6" ht="13.2">
       <c r="F812" s="18"/>
     </row>
-    <row r="813" spans="6:6" ht="12.75">
+    <row r="813" spans="6:6" ht="13.2">
       <c r="F813" s="18"/>
     </row>
-    <row r="814" spans="6:6" ht="12.75">
+    <row r="814" spans="6:6" ht="13.2">
       <c r="F814" s="18"/>
     </row>
-    <row r="815" spans="6:6" ht="12.75">
+    <row r="815" spans="6:6" ht="13.2">
       <c r="F815" s="18"/>
     </row>
-    <row r="816" spans="6:6" ht="12.75">
+    <row r="816" spans="6:6" ht="13.2">
       <c r="F816" s="18"/>
     </row>
-    <row r="817" spans="6:6" ht="12.75">
+    <row r="817" spans="6:6" ht="13.2">
       <c r="F817" s="18"/>
     </row>
-    <row r="818" spans="6:6" ht="12.75">
+    <row r="818" spans="6:6" ht="13.2">
       <c r="F818" s="18"/>
     </row>
-    <row r="819" spans="6:6" ht="12.75">
+    <row r="819" spans="6:6" ht="13.2">
       <c r="F819" s="18"/>
     </row>
-    <row r="820" spans="6:6" ht="12.75">
+    <row r="820" spans="6:6" ht="13.2">
       <c r="F820" s="18"/>
     </row>
-    <row r="821" spans="6:6" ht="12.75">
+    <row r="821" spans="6:6" ht="13.2">
       <c r="F821" s="18"/>
     </row>
-    <row r="822" spans="6:6" ht="12.75">
+    <row r="822" spans="6:6" ht="13.2">
       <c r="F822" s="18"/>
     </row>
-    <row r="823" spans="6:6" ht="12.75">
+    <row r="823" spans="6:6" ht="13.2">
       <c r="F823" s="18"/>
     </row>
-    <row r="824" spans="6:6" ht="12.75">
+    <row r="824" spans="6:6" ht="13.2">
       <c r="F824" s="18"/>
     </row>
-    <row r="825" spans="6:6" ht="12.75">
+    <row r="825" spans="6:6" ht="13.2">
       <c r="F825" s="18"/>
     </row>
-    <row r="826" spans="6:6" ht="12.75">
+    <row r="826" spans="6:6" ht="13.2">
       <c r="F826" s="18"/>
     </row>
-    <row r="827" spans="6:6" ht="12.75">
+    <row r="827" spans="6:6" ht="13.2">
       <c r="F827" s="18"/>
     </row>
-    <row r="828" spans="6:6" ht="12.75">
+    <row r="828" spans="6:6" ht="13.2">
       <c r="F828" s="18"/>
     </row>
-    <row r="829" spans="6:6" ht="12.75">
+    <row r="829" spans="6:6" ht="13.2">
       <c r="F829" s="18"/>
     </row>
-    <row r="830" spans="6:6" ht="12.75">
+    <row r="830" spans="6:6" ht="13.2">
       <c r="F830" s="18"/>
     </row>
-    <row r="831" spans="6:6" ht="12.75">
+    <row r="831" spans="6:6" ht="13.2">
       <c r="F831" s="18"/>
     </row>
-    <row r="832" spans="6:6" ht="12.75">
+    <row r="832" spans="6:6" ht="13.2">
       <c r="F832" s="18"/>
     </row>
-    <row r="833" spans="6:6" ht="12.75">
+    <row r="833" spans="6:6" ht="13.2">
       <c r="F833" s="18"/>
     </row>
-    <row r="834" spans="6:6" ht="12.75">
+    <row r="834" spans="6:6" ht="13.2">
       <c r="F834" s="18"/>
     </row>
-    <row r="835" spans="6:6" ht="12.75">
+    <row r="835" spans="6:6" ht="13.2">
       <c r="F835" s="18"/>
     </row>
-    <row r="836" spans="6:6" ht="12.75">
+    <row r="836" spans="6:6" ht="13.2">
       <c r="F836" s="18"/>
     </row>
-    <row r="837" spans="6:6" ht="12.75">
+    <row r="837" spans="6:6" ht="13.2">
       <c r="F837" s="18"/>
     </row>
-    <row r="838" spans="6:6" ht="12.75">
+    <row r="838" spans="6:6" ht="13.2">
       <c r="F838" s="18"/>
     </row>
-    <row r="839" spans="6:6" ht="12.75">
+    <row r="839" spans="6:6" ht="13.2">
       <c r="F839" s="18"/>
     </row>
-    <row r="840" spans="6:6" ht="12.75">
+    <row r="840" spans="6:6" ht="13.2">
       <c r="F840" s="18"/>
     </row>
-    <row r="841" spans="6:6" ht="12.75">
+    <row r="841" spans="6:6" ht="13.2">
       <c r="F841" s="18"/>
     </row>
-    <row r="842" spans="6:6" ht="12.75">
+    <row r="842" spans="6:6" ht="13.2">
       <c r="F842" s="18"/>
     </row>
-    <row r="843" spans="6:6" ht="12.75">
+    <row r="843" spans="6:6" ht="13.2">
       <c r="F843" s="18"/>
     </row>
-    <row r="844" spans="6:6" ht="12.75">
+    <row r="844" spans="6:6" ht="13.2">
       <c r="F844" s="18"/>
     </row>
-    <row r="845" spans="6:6" ht="12.75">
+    <row r="845" spans="6:6" ht="13.2">
       <c r="F845" s="18"/>
     </row>
-    <row r="846" spans="6:6" ht="12.75">
+    <row r="846" spans="6:6" ht="13.2">
       <c r="F846" s="18"/>
     </row>
-    <row r="847" spans="6:6" ht="12.75">
+    <row r="847" spans="6:6" ht="13.2">
       <c r="F847" s="18"/>
     </row>
-    <row r="848" spans="6:6" ht="12.75">
+    <row r="848" spans="6:6" ht="13.2">
       <c r="F848" s="18"/>
     </row>
-    <row r="849" spans="6:6" ht="12.75">
+    <row r="849" spans="6:6" ht="13.2">
       <c r="F849" s="18"/>
     </row>
-    <row r="850" spans="6:6" ht="12.75">
+    <row r="850" spans="6:6" ht="13.2">
       <c r="F850" s="18"/>
     </row>
-    <row r="851" spans="6:6" ht="12.75">
+    <row r="851" spans="6:6" ht="13.2">
       <c r="F851" s="18"/>
     </row>
-    <row r="852" spans="6:6" ht="12.75">
+    <row r="852" spans="6:6" ht="13.2">
       <c r="F852" s="18"/>
     </row>
-    <row r="853" spans="6:6" ht="12.75">
+    <row r="853" spans="6:6" ht="13.2">
       <c r="F853" s="18"/>
     </row>
-    <row r="854" spans="6:6" ht="12.75">
+    <row r="854" spans="6:6" ht="13.2">
       <c r="F854" s="18"/>
     </row>
-    <row r="855" spans="6:6" ht="12.75">
+    <row r="855" spans="6:6" ht="13.2">
       <c r="F855" s="18"/>
     </row>
-    <row r="856" spans="6:6" ht="12.75">
+    <row r="856" spans="6:6" ht="13.2">
       <c r="F856" s="18"/>
     </row>
-    <row r="857" spans="6:6" ht="12.75">
+    <row r="857" spans="6:6" ht="13.2">
       <c r="F857" s="18"/>
     </row>
-    <row r="858" spans="6:6" ht="12.75">
+    <row r="858" spans="6:6" ht="13.2">
       <c r="F858" s="18"/>
     </row>
-    <row r="859" spans="6:6" ht="12.75">
+    <row r="859" spans="6:6" ht="13.2">
       <c r="F859" s="18"/>
     </row>
-    <row r="860" spans="6:6" ht="12.75">
+    <row r="860" spans="6:6" ht="13.2">
       <c r="F860" s="18"/>
     </row>
-    <row r="861" spans="6:6" ht="12.75">
+    <row r="861" spans="6:6" ht="13.2">
       <c r="F861" s="18"/>
     </row>
-    <row r="862" spans="6:6" ht="12.75">
+    <row r="862" spans="6:6" ht="13.2">
       <c r="F862" s="18"/>
     </row>
-    <row r="863" spans="6:6" ht="12.75">
+    <row r="863" spans="6:6" ht="13.2">
       <c r="F863" s="18"/>
     </row>
-    <row r="864" spans="6:6" ht="12.75">
+    <row r="864" spans="6:6" ht="13.2">
       <c r="F864" s="18"/>
     </row>
-    <row r="865" spans="6:6" ht="12.75">
+    <row r="865" spans="6:6" ht="13.2">
       <c r="F865" s="18"/>
     </row>
-    <row r="866" spans="6:6" ht="12.75">
+    <row r="866" spans="6:6" ht="13.2">
       <c r="F866" s="18"/>
     </row>
-    <row r="867" spans="6:6" ht="12.75">
+    <row r="867" spans="6:6" ht="13.2">
       <c r="F867" s="18"/>
     </row>
-    <row r="868" spans="6:6" ht="12.75">
+    <row r="868" spans="6:6" ht="13.2">
       <c r="F868" s="18"/>
     </row>
-    <row r="869" spans="6:6" ht="12.75">
+    <row r="869" spans="6:6" ht="13.2">
       <c r="F869" s="18"/>
     </row>
-    <row r="870" spans="6:6" ht="12.75">
+    <row r="870" spans="6:6" ht="13.2">
       <c r="F870" s="18"/>
     </row>
-    <row r="871" spans="6:6" ht="12.75">
+    <row r="871" spans="6:6" ht="13.2">
       <c r="F871" s="18"/>
     </row>
-    <row r="872" spans="6:6" ht="12.75">
+    <row r="872" spans="6:6" ht="13.2">
       <c r="F872" s="18"/>
     </row>
-    <row r="873" spans="6:6" ht="12.75">
+    <row r="873" spans="6:6" ht="13.2">
       <c r="F873" s="18"/>
     </row>
-    <row r="874" spans="6:6" ht="12.75">
+    <row r="874" spans="6:6" ht="13.2">
       <c r="F874" s="18"/>
     </row>
-    <row r="875" spans="6:6" ht="12.75">
+    <row r="875" spans="6:6" ht="13.2">
       <c r="F875" s="18"/>
     </row>
-    <row r="876" spans="6:6" ht="12.75">
+    <row r="876" spans="6:6" ht="13.2">
       <c r="F876" s="18"/>
     </row>
-    <row r="877" spans="6:6" ht="12.75">
+    <row r="877" spans="6:6" ht="13.2">
       <c r="F877" s="18"/>
     </row>
-    <row r="878" spans="6:6" ht="12.75">
+    <row r="878" spans="6:6" ht="13.2">
       <c r="F878" s="18"/>
     </row>
-    <row r="879" spans="6:6" ht="12.75">
+    <row r="879" spans="6:6" ht="13.2">
       <c r="F879" s="18"/>
     </row>
-    <row r="880" spans="6:6" ht="12.75">
+    <row r="880" spans="6:6" ht="13.2">
       <c r="F880" s="18"/>
     </row>
-    <row r="881" spans="6:6" ht="12.75">
+    <row r="881" spans="6:6" ht="13.2">
       <c r="F881" s="18"/>
     </row>
-    <row r="882" spans="6:6" ht="12.75">
+    <row r="882" spans="6:6" ht="13.2">
       <c r="F882" s="18"/>
     </row>
-    <row r="883" spans="6:6" ht="12.75">
+    <row r="883" spans="6:6" ht="13.2">
       <c r="F883" s="18"/>
     </row>
-    <row r="884" spans="6:6" ht="12.75">
+    <row r="884" spans="6:6" ht="13.2">
       <c r="F884" s="18"/>
     </row>
-    <row r="885" spans="6:6" ht="12.75">
+    <row r="885" spans="6:6" ht="13.2">
       <c r="F885" s="18"/>
     </row>
-    <row r="886" spans="6:6" ht="12.75">
+    <row r="886" spans="6:6" ht="13.2">
       <c r="F886" s="18"/>
     </row>
-    <row r="887" spans="6:6" ht="12.75">
+    <row r="887" spans="6:6" ht="13.2">
       <c r="F887" s="18"/>
     </row>
-    <row r="888" spans="6:6" ht="12.75">
+    <row r="888" spans="6:6" ht="13.2">
       <c r="F888" s="18"/>
     </row>
-    <row r="889" spans="6:6" ht="12.75">
+    <row r="889" spans="6:6" ht="13.2">
       <c r="F889" s="18"/>
     </row>
-    <row r="890" spans="6:6" ht="12.75">
+    <row r="890" spans="6:6" ht="13.2">
       <c r="F890" s="18"/>
     </row>
-    <row r="891" spans="6:6" ht="12.75">
+    <row r="891" spans="6:6" ht="13.2">
       <c r="F891" s="18"/>
     </row>
-    <row r="892" spans="6:6" ht="12.75">
+    <row r="892" spans="6:6" ht="13.2">
       <c r="F892" s="18"/>
     </row>
-    <row r="893" spans="6:6" ht="12.75">
+    <row r="893" spans="6:6" ht="13.2">
       <c r="F893" s="18"/>
     </row>
-    <row r="894" spans="6:6" ht="12.75">
+    <row r="894" spans="6:6" ht="13.2">
       <c r="F894" s="18"/>
     </row>
-    <row r="895" spans="6:6" ht="12.75">
+    <row r="895" spans="6:6" ht="13.2">
       <c r="F895" s="18"/>
     </row>
-    <row r="896" spans="6:6" ht="12.75">
+    <row r="896" spans="6:6" ht="13.2">
       <c r="F896" s="18"/>
     </row>
-    <row r="897" spans="6:6" ht="12.75">
+    <row r="897" spans="6:6" ht="13.2">
       <c r="F897" s="18"/>
     </row>
-    <row r="898" spans="6:6" ht="12.75">
+    <row r="898" spans="6:6" ht="13.2">
       <c r="F898" s="18"/>
     </row>
-    <row r="899" spans="6:6" ht="12.75">
+    <row r="899" spans="6:6" ht="13.2">
       <c r="F899" s="18"/>
     </row>
-    <row r="900" spans="6:6" ht="12.75">
+    <row r="900" spans="6:6" ht="13.2">
       <c r="F900" s="18"/>
     </row>
-    <row r="901" spans="6:6" ht="12.75">
+    <row r="901" spans="6:6" ht="13.2">
       <c r="F901" s="18"/>
     </row>
-    <row r="902" spans="6:6" ht="12.75">
+    <row r="902" spans="6:6" ht="13.2">
       <c r="F902" s="18"/>
     </row>
-    <row r="903" spans="6:6" ht="12.75">
+    <row r="903" spans="6:6" ht="13.2">
       <c r="F903" s="18"/>
     </row>
-    <row r="904" spans="6:6" ht="12.75">
+    <row r="904" spans="6:6" ht="13.2">
       <c r="F904" s="18"/>
     </row>
-    <row r="905" spans="6:6" ht="12.75">
+    <row r="905" spans="6:6" ht="13.2">
       <c r="F905" s="18"/>
     </row>
-    <row r="906" spans="6:6" ht="12.75">
+    <row r="906" spans="6:6" ht="13.2">
       <c r="F906" s="18"/>
     </row>
-    <row r="907" spans="6:6" ht="12.75">
+    <row r="907" spans="6:6" ht="13.2">
       <c r="F907" s="18"/>
     </row>
-    <row r="908" spans="6:6" ht="12.75">
+    <row r="908" spans="6:6" ht="13.2">
       <c r="F908" s="18"/>
     </row>
-    <row r="909" spans="6:6" ht="12.75">
+    <row r="909" spans="6:6" ht="13.2">
       <c r="F909" s="18"/>
     </row>
-    <row r="910" spans="6:6" ht="12.75">
+    <row r="910" spans="6:6" ht="13.2">
       <c r="F910" s="18"/>
     </row>
-    <row r="911" spans="6:6" ht="12.75">
+    <row r="911" spans="6:6" ht="13.2">
       <c r="F911" s="18"/>
     </row>
-    <row r="912" spans="6:6" ht="12.75">
+    <row r="912" spans="6:6" ht="13.2">
       <c r="F912" s="18"/>
     </row>
-    <row r="913" spans="6:6" ht="12.75">
+    <row r="913" spans="6:6" ht="13.2">
       <c r="F913" s="18"/>
     </row>
-    <row r="914" spans="6:6" ht="12.75">
+    <row r="914" spans="6:6" ht="13.2">
       <c r="F914" s="18"/>
     </row>
-    <row r="915" spans="6:6" ht="12.75">
+    <row r="915" spans="6:6" ht="13.2">
       <c r="F915" s="18"/>
     </row>
-    <row r="916" spans="6:6" ht="12.75">
+    <row r="916" spans="6:6" ht="13.2">
       <c r="F916" s="18"/>
     </row>
-    <row r="917" spans="6:6" ht="12.75">
+    <row r="917" spans="6:6" ht="13.2">
       <c r="F917" s="18"/>
     </row>
-    <row r="918" spans="6:6" ht="12.75">
+    <row r="918" spans="6:6" ht="13.2">
       <c r="F918" s="18"/>
     </row>
-    <row r="919" spans="6:6" ht="12.75">
+    <row r="919" spans="6:6" ht="13.2">
       <c r="F919" s="18"/>
     </row>
-    <row r="920" spans="6:6" ht="12.75">
+    <row r="920" spans="6:6" ht="13.2">
       <c r="F920" s="18"/>
     </row>
-    <row r="921" spans="6:6" ht="12.75">
+    <row r="921" spans="6:6" ht="13.2">
       <c r="F921" s="18"/>
     </row>
-    <row r="922" spans="6:6" ht="12.75">
+    <row r="922" spans="6:6" ht="13.2">
       <c r="F922" s="18"/>
     </row>
-    <row r="923" spans="6:6" ht="12.75">
+    <row r="923" spans="6:6" ht="13.2">
       <c r="F923" s="18"/>
     </row>
-    <row r="924" spans="6:6" ht="12.75">
+    <row r="924" spans="6:6" ht="13.2">
       <c r="F924" s="18"/>
     </row>
-    <row r="925" spans="6:6" ht="12.75">
+    <row r="925" spans="6:6" ht="13.2">
       <c r="F925" s="18"/>
     </row>
-    <row r="926" spans="6:6" ht="12.75">
+    <row r="926" spans="6:6" ht="13.2">
       <c r="F926" s="18"/>
     </row>
-    <row r="927" spans="6:6" ht="12.75">
+    <row r="927" spans="6:6" ht="13.2">
       <c r="F927" s="18"/>
     </row>
-    <row r="928" spans="6:6" ht="12.75">
+    <row r="928" spans="6:6" ht="13.2">
       <c r="F928" s="18"/>
     </row>
-    <row r="929" spans="6:6" ht="12.75">
+    <row r="929" spans="6:6" ht="13.2">
       <c r="F929" s="18"/>
     </row>
-    <row r="930" spans="6:6" ht="12.75">
+    <row r="930" spans="6:6" ht="13.2">
       <c r="F930" s="18"/>
     </row>
-    <row r="931" spans="6:6" ht="12.75">
+    <row r="931" spans="6:6" ht="13.2">
       <c r="F931" s="18"/>
     </row>
-    <row r="932" spans="6:6" ht="12.75">
+    <row r="932" spans="6:6" ht="13.2">
       <c r="F932" s="18"/>
     </row>
-    <row r="933" spans="6:6" ht="12.75">
+    <row r="933" spans="6:6" ht="13.2">
       <c r="F933" s="18"/>
     </row>
-    <row r="934" spans="6:6" ht="12.75">
+    <row r="934" spans="6:6" ht="13.2">
       <c r="F934" s="18"/>
     </row>
-    <row r="935" spans="6:6" ht="12.75">
+    <row r="935" spans="6:6" ht="13.2">
       <c r="F935" s="18"/>
     </row>
-    <row r="936" spans="6:6" ht="12.75">
+    <row r="936" spans="6:6" ht="13.2">
       <c r="F936" s="18"/>
     </row>
-    <row r="937" spans="6:6" ht="12.75">
+    <row r="937" spans="6:6" ht="13.2">
       <c r="F937" s="18"/>
     </row>
-    <row r="938" spans="6:6" ht="12.75">
+    <row r="938" spans="6:6" ht="13.2">
       <c r="F938" s="18"/>
     </row>
-    <row r="939" spans="6:6" ht="12.75">
+    <row r="939" spans="6:6" ht="13.2">
       <c r="F939" s="18"/>
     </row>
-    <row r="940" spans="6:6" ht="12.75">
+    <row r="940" spans="6:6" ht="13.2">
       <c r="F940" s="18"/>
     </row>
-    <row r="941" spans="6:6" ht="12.75">
+    <row r="941" spans="6:6" ht="13.2">
       <c r="F941" s="18"/>
     </row>
-    <row r="942" spans="6:6" ht="12.75">
+    <row r="942" spans="6:6" ht="13.2">
       <c r="F942" s="18"/>
     </row>
-    <row r="943" spans="6:6" ht="12.75">
+    <row r="943" spans="6:6" ht="13.2">
       <c r="F943" s="18"/>
     </row>
-    <row r="944" spans="6:6" ht="12.75">
+    <row r="944" spans="6:6" ht="13.2">
       <c r="F944" s="18"/>
     </row>
-    <row r="945" spans="6:6" ht="12.75">
+    <row r="945" spans="6:6" ht="13.2">
       <c r="F945" s="18"/>
     </row>
-    <row r="946" spans="6:6" ht="12.75">
+    <row r="946" spans="6:6" ht="13.2">
       <c r="F946" s="18"/>
     </row>
-    <row r="947" spans="6:6" ht="12.75">
+    <row r="947" spans="6:6" ht="13.2">
       <c r="F947" s="18"/>
     </row>
-    <row r="948" spans="6:6" ht="12.75">
+    <row r="948" spans="6:6" ht="13.2">
       <c r="F948" s="18"/>
     </row>
-    <row r="949" spans="6:6" ht="12.75">
+    <row r="949" spans="6:6" ht="13.2">
       <c r="F949" s="18"/>
     </row>
-    <row r="950" spans="6:6" ht="12.75">
+    <row r="950" spans="6:6" ht="13.2">
       <c r="F950" s="18"/>
     </row>
-    <row r="951" spans="6:6" ht="12.75">
+    <row r="951" spans="6:6" ht="13.2">
       <c r="F951" s="18"/>
     </row>
-    <row r="952" spans="6:6" ht="12.75">
+    <row r="952" spans="6:6" ht="13.2">
       <c r="F952" s="18"/>
     </row>
-    <row r="953" spans="6:6" ht="12.75">
+    <row r="953" spans="6:6" ht="13.2">
       <c r="F953" s="18"/>
     </row>
-    <row r="954" spans="6:6" ht="12.75">
+    <row r="954" spans="6:6" ht="13.2">
       <c r="F954" s="18"/>
     </row>
-    <row r="955" spans="6:6" ht="12.75">
+    <row r="955" spans="6:6" ht="13.2">
       <c r="F955" s="18"/>
     </row>
-    <row r="956" spans="6:6" ht="12.75">
+    <row r="956" spans="6:6" ht="13.2">
       <c r="F956" s="18"/>
     </row>
-    <row r="957" spans="6:6" ht="12.75">
+    <row r="957" spans="6:6" ht="13.2">
       <c r="F957" s="18"/>
     </row>
-    <row r="958" spans="6:6" ht="12.75">
+    <row r="958" spans="6:6" ht="13.2">
       <c r="F958" s="18"/>
     </row>
-    <row r="959" spans="6:6" ht="12.75">
+    <row r="959" spans="6:6" ht="13.2">
       <c r="F959" s="18"/>
     </row>
-    <row r="960" spans="6:6" ht="12.75">
+    <row r="960" spans="6:6" ht="13.2">
       <c r="F960" s="18"/>
     </row>
-    <row r="961" spans="6:6" ht="12.75">
+    <row r="961" spans="6:6" ht="13.2">
       <c r="F961" s="18"/>
     </row>
-    <row r="962" spans="6:6" ht="12.75">
+    <row r="962" spans="6:6" ht="13.2">
       <c r="F962" s="18"/>
     </row>
-    <row r="963" spans="6:6" ht="12.75">
+    <row r="963" spans="6:6" ht="13.2">
       <c r="F963" s="18"/>
     </row>
-    <row r="964" spans="6:6" ht="12.75">
+    <row r="964" spans="6:6" ht="13.2">
       <c r="F964" s="18"/>
     </row>
-    <row r="965" spans="6:6" ht="12.75">
+    <row r="965" spans="6:6" ht="13.2">
       <c r="F965" s="18"/>
     </row>
-    <row r="966" spans="6:6" ht="12.75">
+    <row r="966" spans="6:6" ht="13.2">
       <c r="F966" s="18"/>
     </row>
-    <row r="967" spans="6:6" ht="12.75">
+    <row r="967" spans="6:6" ht="13.2">
       <c r="F967" s="18"/>
     </row>
-    <row r="968" spans="6:6" ht="12.75">
+    <row r="968" spans="6:6" ht="13.2">
       <c r="F968" s="18"/>
     </row>
-    <row r="969" spans="6:6" ht="12.75">
+    <row r="969" spans="6:6" ht="13.2">
       <c r="F969" s="18"/>
     </row>
-    <row r="970" spans="6:6" ht="12.75">
+    <row r="970" spans="6:6" ht="13.2">
       <c r="F970" s="18"/>
     </row>
-    <row r="971" spans="6:6" ht="12.75">
+    <row r="971" spans="6:6" ht="13.2">
       <c r="F971" s="18"/>
     </row>
-    <row r="972" spans="6:6" ht="12.75">
+    <row r="972" spans="6:6" ht="13.2">
       <c r="F972" s="18"/>
     </row>
-    <row r="973" spans="6:6" ht="12.75">
+    <row r="973" spans="6:6" ht="13.2">
       <c r="F973" s="18"/>
     </row>
-    <row r="974" spans="6:6" ht="12.75">
+    <row r="974" spans="6:6" ht="13.2">
       <c r="F974" s="18"/>
     </row>
-    <row r="975" spans="6:6" ht="12.75">
+    <row r="975" spans="6:6" ht="13.2">
       <c r="F975" s="18"/>
     </row>
-    <row r="976" spans="6:6" ht="12.75">
+    <row r="976" spans="6:6" ht="13.2">
       <c r="F976" s="18"/>
     </row>
-    <row r="977" spans="6:6" ht="12.75">
+    <row r="977" spans="6:6" ht="13.2">
       <c r="F977" s="18"/>
     </row>
-    <row r="978" spans="6:6" ht="12.75">
+    <row r="978" spans="6:6" ht="13.2">
       <c r="F978" s="18"/>
     </row>
-    <row r="979" spans="6:6" ht="12.75">
+    <row r="979" spans="6:6" ht="13.2">
       <c r="F979" s="18"/>
     </row>
-    <row r="980" spans="6:6" ht="12.75">
+    <row r="980" spans="6:6" ht="13.2">
       <c r="F980" s="18"/>
     </row>
-    <row r="981" spans="6:6" ht="12.75">
+    <row r="981" spans="6:6" ht="13.2">
       <c r="F981" s="18"/>
     </row>
-    <row r="982" spans="6:6" ht="12.75">
+    <row r="982" spans="6:6" ht="13.2">
       <c r="F982" s="18"/>
     </row>
-    <row r="983" spans="6:6" ht="12.75">
+    <row r="983" spans="6:6" ht="13.2">
       <c r="F983" s="18"/>
     </row>
-    <row r="984" spans="6:6" ht="12.75">
+    <row r="984" spans="6:6" ht="13.2">
       <c r="F984" s="18"/>
     </row>
-    <row r="985" spans="6:6" ht="12.75">
+    <row r="985" spans="6:6" ht="13.2">
       <c r="F985" s="18"/>
     </row>
-    <row r="986" spans="6:6" ht="12.75">
+    <row r="986" spans="6:6" ht="13.2">
       <c r="F986" s="18"/>
     </row>
-    <row r="987" spans="6:6" ht="12.75">
+    <row r="987" spans="6:6" ht="13.2">
       <c r="F987" s="18"/>
     </row>
-    <row r="988" spans="6:6" ht="12.75">
+    <row r="988" spans="6:6" ht="13.2">
       <c r="F988" s="18"/>
     </row>
-    <row r="989" spans="6:6" ht="12.75">
+    <row r="989" spans="6:6" ht="13.2">
       <c r="F989" s="18"/>
     </row>
-    <row r="990" spans="6:6" ht="12.75">
+    <row r="990" spans="6:6" ht="13.2">
       <c r="F990" s="18"/>
     </row>
-    <row r="991" spans="6:6" ht="12.75">
+    <row r="991" spans="6:6" ht="13.2">
       <c r="F991" s="18"/>
     </row>
-    <row r="992" spans="6:6" ht="12.75">
+    <row r="992" spans="6:6" ht="13.2">
       <c r="F992" s="18"/>
     </row>
-    <row r="993" spans="6:6" ht="12.75">
+    <row r="993" spans="6:6" ht="13.2">
       <c r="F993" s="18"/>
     </row>
-    <row r="994" spans="6:6" ht="12.75">
+    <row r="994" spans="6:6" ht="13.2">
       <c r="F994" s="18"/>
     </row>
-    <row r="995" spans="6:6" ht="12.75">
+    <row r="995" spans="6:6" ht="13.2">
       <c r="F995" s="18"/>
     </row>
-    <row r="996" spans="6:6" ht="12.75">
+    <row r="996" spans="6:6" ht="13.2">
       <c r="F996" s="18"/>
     </row>
-    <row r="997" spans="6:6" ht="12.75">
+    <row r="997" spans="6:6" ht="13.2">
       <c r="F997" s="18"/>
     </row>
-    <row r="998" spans="6:6" ht="12.75">
+    <row r="998" spans="6:6" ht="13.2">
       <c r="F998" s="18"/>
     </row>
-    <row r="999" spans="6:6" ht="12.75">
+    <row r="999" spans="6:6" ht="13.2">
       <c r="F999" s="18"/>
     </row>
-    <row r="1000" spans="6:6" ht="12.75">
+    <row r="1000" spans="6:6" ht="13.2">
       <c r="F1000" s="18"/>
     </row>
   </sheetData>

--- a/II.-merfoldko-kovetelmeny.xlsx
+++ b/II.-merfoldko-kovetelmeny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bence\Desktop\4th-semester\webterv\webterv-beadando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CD6806-70DE-4668-B055-429B69633B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE302B03-1745-4F6F-A3E4-38C5EF8F241D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="II. mérföldkő - Követelmények" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
   <si>
     <t>Részfeladat(ok)</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t xml:space="preserve">footer </t>
+  </si>
+  <si>
+    <t>felh.php</t>
   </si>
 </sst>
 </file>
@@ -443,6 +446,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -470,30 +497,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,33 +718,33 @@
   </sheetPr>
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
-    <col min="5" max="5" width="41.88671875" customWidth="1"/>
-    <col min="7" max="8" width="14.44140625" style="45"/>
-    <col min="12" max="12" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="33"/>
+    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="26" t="s">
         <v>58</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -768,23 +771,23 @@
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
     </row>
-    <row r="2" spans="1:21" ht="13.2">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:21" ht="12.75">
+      <c r="A2" s="38" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="29"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6">
         <v>2</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="28" t="s">
         <v>56</v>
       </c>
       <c r="I2" s="24">
@@ -811,21 +814,21 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:21" ht="13.2">
-      <c r="A3" s="31"/>
+    <row r="3" spans="1:21" ht="12.75">
+      <c r="A3" s="39"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6">
         <v>5</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40" t="s">
+      <c r="G3" s="27"/>
+      <c r="H3" s="28" t="s">
         <v>56</v>
       </c>
       <c r="I3" s="24">
@@ -852,12 +855,12 @@
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:21" ht="26.4">
-      <c r="A4" s="31"/>
-      <c r="B4" s="33">
+    <row r="4" spans="1:21" ht="25.5">
+      <c r="A4" s="39"/>
+      <c r="B4" s="41">
         <v>3</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -867,10 +870,10 @@
       <c r="F4" s="6">
         <v>2</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="40"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="24">
         <v>44266</v>
       </c>
@@ -881,11 +884,11 @@
       </c>
       <c r="M4" s="10">
         <f>SUMIFS(F20:F35,G20:G35,"&lt;&gt;")</f>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N4" s="10">
         <f>SUMIFS(F20:F35,H20:H35,"&lt;&gt;")</f>
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -895,10 +898,10 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:21" ht="13.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+    <row r="5" spans="1:21" ht="12.75">
+      <c r="A5" s="39"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
@@ -906,10 +909,10 @@
       <c r="F5" s="6">
         <v>2</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="39"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="24">
         <v>44266</v>
       </c>
@@ -920,7 +923,7 @@
       </c>
       <c r="M5" s="11">
         <f>SUMIFS(J20:J35,G20:G35,"&lt;&gt;")</f>
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="N5" s="11">
         <f>SUMIFS(J20:J35,H20:H35,"&lt;&gt;")</f>
@@ -934,12 +937,12 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:21" ht="13.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="33">
+    <row r="6" spans="1:21" ht="12.75">
+      <c r="A6" s="39"/>
+      <c r="B6" s="41">
         <v>4</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -951,10 +954,10 @@
       <c r="F6" s="6">
         <v>2</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="39"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="24">
         <v>44266</v>
       </c>
@@ -965,11 +968,11 @@
       </c>
       <c r="M6" s="10">
         <f t="shared" ref="M6:N6" si="1">M2+M4</f>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N6" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -980,10 +983,10 @@
       <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="33" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="41" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="12" t="s">
@@ -992,10 +995,10 @@
       <c r="F7" s="6">
         <v>2</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="39"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="24">
         <v>44266</v>
       </c>
@@ -1006,7 +1009,7 @@
       </c>
       <c r="M7" s="14">
         <f t="shared" ref="M7:N7" si="2">M3+M5</f>
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="N7" s="14">
         <f t="shared" si="2"/>
@@ -1020,21 +1023,21 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:21" ht="13.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+    <row r="8" spans="1:21" ht="12.75">
+      <c r="A8" s="39"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="6">
         <v>2</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="39"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="24">
         <v>44266</v>
       </c>
@@ -1051,10 +1054,10 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:21" ht="13.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+    <row r="9" spans="1:21" ht="12.75">
+      <c r="A9" s="39"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1062,10 +1065,10 @@
       <c r="F9" s="6">
         <v>2</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="39"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="24">
         <v>44266</v>
       </c>
@@ -1082,10 +1085,10 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:21" ht="13.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
+    <row r="10" spans="1:21" ht="12.75">
+      <c r="A10" s="39"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1093,10 +1096,10 @@
       <c r="F10" s="6">
         <v>2</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="43"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="24">
         <v>44266</v>
       </c>
@@ -1113,12 +1116,12 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:21" ht="13.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="33">
+    <row r="11" spans="1:21" ht="12.75">
+      <c r="A11" s="39"/>
+      <c r="B11" s="41">
         <v>5</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="41" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1128,10 +1131,10 @@
       <c r="F11" s="6">
         <v>2</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="39"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="24">
         <v>44266</v>
       </c>
@@ -1148,21 +1151,21 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:21" ht="13.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="33" t="s">
+    <row r="12" spans="1:21" ht="12.75">
+      <c r="A12" s="39"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="44">
         <v>6</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="41" t="s">
+      <c r="G12" s="27"/>
+      <c r="H12" s="29" t="s">
         <v>56</v>
       </c>
       <c r="I12" s="24">
@@ -1181,17 +1184,17 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:21" ht="13.2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+    <row r="13" spans="1:21" ht="12.75">
+      <c r="A13" s="39"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="42" t="s">
+      <c r="F13" s="37"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="30" t="s">
         <v>56</v>
       </c>
       <c r="I13" s="24">
@@ -1210,17 +1213,17 @@
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:21" ht="13.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+    <row r="14" spans="1:21" ht="12.75">
+      <c r="A14" s="39"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="42" t="s">
+      <c r="F14" s="37"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="30" t="s">
         <v>56</v>
       </c>
       <c r="I14" s="24">
@@ -1239,17 +1242,17 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:21" ht="39.6">
-      <c r="A15" s="31"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+    <row r="15" spans="1:21" ht="38.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="42" t="s">
+      <c r="F15" s="37"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="30" t="s">
         <v>56</v>
       </c>
       <c r="I15" s="24">
@@ -1268,25 +1271,25 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:21" ht="13.2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="30">
+    <row r="16" spans="1:21" ht="12.75">
+      <c r="A16" s="39"/>
+      <c r="B16" s="38">
         <v>6</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="43" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="34">
         <v>10</v>
       </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="44" t="s">
+      <c r="G16" s="27"/>
+      <c r="H16" s="32" t="s">
         <v>56</v>
       </c>
       <c r="I16" s="24">
@@ -1305,17 +1308,17 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:21" ht="13.2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+    <row r="17" spans="1:21" ht="12.75">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="44" t="s">
+      <c r="F17" s="35"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="32" t="s">
         <v>56</v>
       </c>
       <c r="I17" s="24">
@@ -1334,17 +1337,17 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:21" ht="13.2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
+    <row r="18" spans="1:21" ht="12.75">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="44" t="s">
+      <c r="F18" s="35"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="32" t="s">
         <v>56</v>
       </c>
       <c r="I18" s="24">
@@ -1363,10 +1366,10 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21" ht="13.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+    <row r="19" spans="1:21" ht="12.75">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="20" t="s">
         <v>38</v>
       </c>
@@ -1374,8 +1377,8 @@
       <c r="F19" s="22">
         <v>5</v>
       </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="44" t="s">
+      <c r="G19" s="27"/>
+      <c r="H19" s="32" t="s">
         <v>56</v>
       </c>
       <c r="I19" s="24">
@@ -1394,17 +1397,17 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:21" ht="13.2">
-      <c r="A20" s="37" t="s">
+    <row r="20" spans="1:21" ht="12.75">
+      <c r="A20" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="36">
         <v>6</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="36" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1413,15 +1416,19 @@
       <c r="F20" s="15">
         <v>6</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="43"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="24">
         <v>44273</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="J20" s="4">
+        <v>91</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -1433,19 +1440,19 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:21" ht="13.2">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+    <row r="21" spans="1:21" ht="12.75">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="15">
         <v>4</v>
       </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43" t="s">
+      <c r="G21" s="31"/>
+      <c r="H21" s="30" t="s">
         <v>56</v>
       </c>
       <c r="I21" s="24">
@@ -1464,21 +1471,19 @@
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="1:21" ht="13.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+    <row r="22" spans="1:21" ht="25.5">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F22" s="15">
         <v>8</v>
       </c>
-      <c r="G22" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="43"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
       <c r="I22" s="24">
         <v>44273</v>
       </c>
@@ -1495,21 +1500,19 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="1:21" ht="13.2">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+    <row r="23" spans="1:21" ht="12.75">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="15">
         <v>4</v>
       </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43" t="s">
-        <v>56</v>
-      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
       <c r="I23" s="24">
         <v>44273</v>
       </c>
@@ -1526,21 +1529,19 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:21" ht="13.2">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+    <row r="24" spans="1:21" ht="12.75">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="15">
         <v>8</v>
       </c>
-      <c r="G24" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="43"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
       <c r="I24" s="24">
         <v>44273</v>
       </c>
@@ -1557,19 +1558,19 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21" ht="13.2">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+    <row r="25" spans="1:21" ht="12.75">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="15">
         <v>3</v>
       </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="42" t="s">
+      <c r="G25" s="31"/>
+      <c r="H25" s="30" t="s">
         <v>56</v>
       </c>
       <c r="I25" s="24">
@@ -1588,26 +1589,30 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:21" ht="13.2">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+    <row r="26" spans="1:21" ht="12.75">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
       <c r="E26" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F26" s="15">
         <v>4</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="G26" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="43"/>
+      <c r="H26" s="31"/>
       <c r="I26" s="24">
         <v>44273</v>
       </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="J26" s="4">
+        <v>76</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -1619,19 +1624,19 @@
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="1:21" ht="13.2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+    <row r="27" spans="1:21" ht="12.75">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F27" s="15">
         <v>4</v>
       </c>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43" t="s">
+      <c r="G27" s="31"/>
+      <c r="H27" s="30" t="s">
         <v>56</v>
       </c>
       <c r="I27" s="24">
@@ -1650,19 +1655,19 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:21" ht="13.2">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+    <row r="28" spans="1:21" ht="12.75">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F28" s="15">
         <v>4</v>
       </c>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
       <c r="I28" s="23"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -1677,19 +1682,19 @@
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="1:21" ht="13.2">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+    <row r="29" spans="1:21" ht="12.75">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F29" s="15">
         <v>10</v>
       </c>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
       <c r="I29" s="23"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -1704,17 +1709,17 @@
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="1:21" ht="13.2">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+    <row r="30" spans="1:21" ht="12.75">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
       <c r="E30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="16"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
       <c r="I30" s="23"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1729,12 +1734,12 @@
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21" ht="13.2">
-      <c r="A31" s="29"/>
-      <c r="B31" s="28">
+    <row r="31" spans="1:21" ht="25.5">
+      <c r="A31" s="37"/>
+      <c r="B31" s="36">
         <v>7</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="36" t="s">
         <v>50</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1744,8 +1749,8 @@
       <c r="F31" s="15">
         <v>8</v>
       </c>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
       <c r="I31" s="23"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -1760,10 +1765,10 @@
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="1:21" ht="13.2">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
+    <row r="32" spans="1:21" ht="12.75">
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="1" t="s">
         <v>52</v>
       </c>
@@ -1771,10 +1776,10 @@
       <c r="F32" s="15">
         <v>4</v>
       </c>
-      <c r="G32" s="43"/>
-      <c r="H32" s="42" t="s">
+      <c r="G32" s="30" t="s">
         <v>56</v>
       </c>
+      <c r="H32" s="31"/>
       <c r="I32" s="24">
         <v>44273</v>
       </c>
@@ -1791,10 +1796,10 @@
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="1:21" ht="13.2">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
+    <row r="33" spans="1:21" ht="12.75">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="1" t="s">
         <v>53</v>
       </c>
@@ -1802,10 +1807,10 @@
       <c r="F33" s="15">
         <v>4</v>
       </c>
-      <c r="G33" s="43"/>
-      <c r="H33" s="42" t="s">
+      <c r="G33" s="30" t="s">
         <v>56</v>
       </c>
+      <c r="H33" s="31"/>
       <c r="I33" s="24">
         <v>44273</v>
       </c>
@@ -1824,10 +1829,10 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:21" ht="13.2">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
+    <row r="34" spans="1:21" ht="25.5">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="1" t="s">
         <v>54</v>
       </c>
@@ -1835,10 +1840,10 @@
       <c r="F34" s="15">
         <v>2</v>
       </c>
-      <c r="G34" s="43"/>
-      <c r="H34" s="42" t="s">
+      <c r="G34" s="30" t="s">
         <v>56</v>
       </c>
+      <c r="H34" s="31"/>
       <c r="I34" s="24">
         <v>44273</v>
       </c>
@@ -1855,10 +1860,10 @@
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="1:21" ht="13.2">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
+    <row r="35" spans="1:21" ht="12.75">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="1" t="s">
         <v>55</v>
       </c>
@@ -1866,8 +1871,8 @@
       <c r="F35" s="15">
         <v>2</v>
       </c>
-      <c r="G35" s="43"/>
-      <c r="H35" s="42" t="s">
+      <c r="G35" s="31"/>
+      <c r="H35" s="30" t="s">
         <v>56</v>
       </c>
       <c r="I35" s="24">
@@ -1886,7 +1891,7 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="1:21" ht="13.2">
+    <row r="36" spans="1:21" ht="12.75">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1909,7 +1914,7 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
     </row>
-    <row r="37" spans="1:21" ht="13.2">
+    <row r="37" spans="1:21" ht="12.75">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1932,7 +1937,7 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="1:21" ht="13.2">
+    <row r="38" spans="1:21" ht="12.75">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1955,7 +1960,7 @@
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
     </row>
-    <row r="39" spans="1:21" ht="13.2">
+    <row r="39" spans="1:21" ht="12.75">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1978,7 +1983,7 @@
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="1:21" ht="13.2">
+    <row r="40" spans="1:21" ht="12.75">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2001,7 +2006,7 @@
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
     </row>
-    <row r="41" spans="1:21" ht="13.2">
+    <row r="41" spans="1:21" ht="12.75">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2024,7 +2029,7 @@
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
     </row>
-    <row r="42" spans="1:21" ht="13.2">
+    <row r="42" spans="1:21" ht="12.75">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2047,7 +2052,7 @@
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
     </row>
-    <row r="43" spans="1:21" ht="13.2">
+    <row r="43" spans="1:21" ht="12.75">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2070,7 +2075,7 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
     </row>
-    <row r="44" spans="1:21" ht="13.2">
+    <row r="44" spans="1:21" ht="12.75">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2093,7 +2098,7 @@
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
     </row>
-    <row r="45" spans="1:21" ht="13.2">
+    <row r="45" spans="1:21" ht="12.75">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2116,7 +2121,7 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="46" spans="1:21" ht="13.2">
+    <row r="46" spans="1:21" ht="12.75">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2139,7 +2144,7 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
     </row>
-    <row r="47" spans="1:21" ht="13.2">
+    <row r="47" spans="1:21" ht="12.75">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2162,7 +2167,7 @@
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
     </row>
-    <row r="48" spans="1:21" ht="13.2">
+    <row r="48" spans="1:21" ht="12.75">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2185,7 +2190,7 @@
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
     </row>
-    <row r="49" spans="1:21" ht="13.2">
+    <row r="49" spans="1:21" ht="12.75">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2208,7 +2213,7 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
     </row>
-    <row r="50" spans="1:21" ht="13.2">
+    <row r="50" spans="1:21" ht="12.75">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2231,7 +2236,7 @@
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
     </row>
-    <row r="51" spans="1:21" ht="13.2">
+    <row r="51" spans="1:21" ht="12.75">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2254,7 +2259,7 @@
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
     </row>
-    <row r="52" spans="1:21" ht="13.2">
+    <row r="52" spans="1:21" ht="12.75">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2277,7 +2282,7 @@
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
     </row>
-    <row r="53" spans="1:21" ht="13.2">
+    <row r="53" spans="1:21" ht="12.75">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2300,7 +2305,7 @@
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
     </row>
-    <row r="54" spans="1:21" ht="13.2">
+    <row r="54" spans="1:21" ht="12.75">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2323,7 +2328,7 @@
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
     </row>
-    <row r="55" spans="1:21" ht="13.2">
+    <row r="55" spans="1:21" ht="12.75">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2346,7 +2351,7 @@
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
     </row>
-    <row r="56" spans="1:21" ht="13.2">
+    <row r="56" spans="1:21" ht="12.75">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2369,7 +2374,7 @@
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
     </row>
-    <row r="57" spans="1:21" ht="13.2">
+    <row r="57" spans="1:21" ht="12.75">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2392,7 +2397,7 @@
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
     </row>
-    <row r="58" spans="1:21" ht="13.2">
+    <row r="58" spans="1:21" ht="12.75">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2415,2830 +2420,2830 @@
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
     </row>
-    <row r="59" spans="1:21" ht="13.2">
+    <row r="59" spans="1:21" ht="12.75">
       <c r="F59" s="18"/>
     </row>
-    <row r="60" spans="1:21" ht="13.2">
+    <row r="60" spans="1:21" ht="12.75">
       <c r="F60" s="18"/>
     </row>
-    <row r="61" spans="1:21" ht="13.2">
+    <row r="61" spans="1:21" ht="12.75">
       <c r="F61" s="18"/>
     </row>
-    <row r="62" spans="1:21" ht="13.2">
+    <row r="62" spans="1:21" ht="12.75">
       <c r="F62" s="18"/>
     </row>
-    <row r="63" spans="1:21" ht="13.2">
+    <row r="63" spans="1:21" ht="12.75">
       <c r="F63" s="18"/>
     </row>
-    <row r="64" spans="1:21" ht="13.2">
+    <row r="64" spans="1:21" ht="12.75">
       <c r="F64" s="18"/>
     </row>
-    <row r="65" spans="6:6" ht="13.2">
+    <row r="65" spans="6:6" ht="12.75">
       <c r="F65" s="18"/>
     </row>
-    <row r="66" spans="6:6" ht="13.2">
+    <row r="66" spans="6:6" ht="12.75">
       <c r="F66" s="18"/>
     </row>
-    <row r="67" spans="6:6" ht="13.2">
+    <row r="67" spans="6:6" ht="12.75">
       <c r="F67" s="18"/>
     </row>
-    <row r="68" spans="6:6" ht="13.2">
+    <row r="68" spans="6:6" ht="12.75">
       <c r="F68" s="18"/>
     </row>
-    <row r="69" spans="6:6" ht="13.2">
+    <row r="69" spans="6:6" ht="12.75">
       <c r="F69" s="18"/>
     </row>
-    <row r="70" spans="6:6" ht="13.2">
+    <row r="70" spans="6:6" ht="12.75">
       <c r="F70" s="18"/>
     </row>
-    <row r="71" spans="6:6" ht="13.2">
+    <row r="71" spans="6:6" ht="12.75">
       <c r="F71" s="18"/>
     </row>
-    <row r="72" spans="6:6" ht="13.2">
+    <row r="72" spans="6:6" ht="12.75">
       <c r="F72" s="18"/>
     </row>
-    <row r="73" spans="6:6" ht="13.2">
+    <row r="73" spans="6:6" ht="12.75">
       <c r="F73" s="18"/>
     </row>
-    <row r="74" spans="6:6" ht="13.2">
+    <row r="74" spans="6:6" ht="12.75">
       <c r="F74" s="18"/>
     </row>
-    <row r="75" spans="6:6" ht="13.2">
+    <row r="75" spans="6:6" ht="12.75">
       <c r="F75" s="18"/>
     </row>
-    <row r="76" spans="6:6" ht="13.2">
+    <row r="76" spans="6:6" ht="12.75">
       <c r="F76" s="18"/>
     </row>
-    <row r="77" spans="6:6" ht="13.2">
+    <row r="77" spans="6:6" ht="12.75">
       <c r="F77" s="18"/>
     </row>
-    <row r="78" spans="6:6" ht="13.2">
+    <row r="78" spans="6:6" ht="12.75">
       <c r="F78" s="18"/>
     </row>
-    <row r="79" spans="6:6" ht="13.2">
+    <row r="79" spans="6:6" ht="12.75">
       <c r="F79" s="18"/>
     </row>
-    <row r="80" spans="6:6" ht="13.2">
+    <row r="80" spans="6:6" ht="12.75">
       <c r="F80" s="18"/>
     </row>
-    <row r="81" spans="6:6" ht="13.2">
+    <row r="81" spans="6:6" ht="12.75">
       <c r="F81" s="18"/>
     </row>
-    <row r="82" spans="6:6" ht="13.2">
+    <row r="82" spans="6:6" ht="12.75">
       <c r="F82" s="18"/>
     </row>
-    <row r="83" spans="6:6" ht="13.2">
+    <row r="83" spans="6:6" ht="12.75">
       <c r="F83" s="18"/>
     </row>
-    <row r="84" spans="6:6" ht="13.2">
+    <row r="84" spans="6:6" ht="12.75">
       <c r="F84" s="18"/>
     </row>
-    <row r="85" spans="6:6" ht="13.2">
+    <row r="85" spans="6:6" ht="12.75">
       <c r="F85" s="18"/>
     </row>
-    <row r="86" spans="6:6" ht="13.2">
+    <row r="86" spans="6:6" ht="12.75">
       <c r="F86" s="18"/>
     </row>
-    <row r="87" spans="6:6" ht="13.2">
+    <row r="87" spans="6:6" ht="12.75">
       <c r="F87" s="18"/>
     </row>
-    <row r="88" spans="6:6" ht="13.2">
+    <row r="88" spans="6:6" ht="12.75">
       <c r="F88" s="18"/>
     </row>
-    <row r="89" spans="6:6" ht="13.2">
+    <row r="89" spans="6:6" ht="12.75">
       <c r="F89" s="18"/>
     </row>
-    <row r="90" spans="6:6" ht="13.2">
+    <row r="90" spans="6:6" ht="12.75">
       <c r="F90" s="18"/>
     </row>
-    <row r="91" spans="6:6" ht="13.2">
+    <row r="91" spans="6:6" ht="12.75">
       <c r="F91" s="18"/>
     </row>
-    <row r="92" spans="6:6" ht="13.2">
+    <row r="92" spans="6:6" ht="12.75">
       <c r="F92" s="18"/>
     </row>
-    <row r="93" spans="6:6" ht="13.2">
+    <row r="93" spans="6:6" ht="12.75">
       <c r="F93" s="18"/>
     </row>
-    <row r="94" spans="6:6" ht="13.2">
+    <row r="94" spans="6:6" ht="12.75">
       <c r="F94" s="18"/>
     </row>
-    <row r="95" spans="6:6" ht="13.2">
+    <row r="95" spans="6:6" ht="12.75">
       <c r="F95" s="18"/>
     </row>
-    <row r="96" spans="6:6" ht="13.2">
+    <row r="96" spans="6:6" ht="12.75">
       <c r="F96" s="18"/>
     </row>
-    <row r="97" spans="6:6" ht="13.2">
+    <row r="97" spans="6:6" ht="12.75">
       <c r="F97" s="18"/>
     </row>
-    <row r="98" spans="6:6" ht="13.2">
+    <row r="98" spans="6:6" ht="12.75">
       <c r="F98" s="18"/>
     </row>
-    <row r="99" spans="6:6" ht="13.2">
+    <row r="99" spans="6:6" ht="12.75">
       <c r="F99" s="18"/>
     </row>
-    <row r="100" spans="6:6" ht="13.2">
+    <row r="100" spans="6:6" ht="12.75">
       <c r="F100" s="18"/>
     </row>
-    <row r="101" spans="6:6" ht="13.2">
+    <row r="101" spans="6:6" ht="12.75">
       <c r="F101" s="18"/>
     </row>
-    <row r="102" spans="6:6" ht="13.2">
+    <row r="102" spans="6:6" ht="12.75">
       <c r="F102" s="18"/>
     </row>
-    <row r="103" spans="6:6" ht="13.2">
+    <row r="103" spans="6:6" ht="12.75">
       <c r="F103" s="18"/>
     </row>
-    <row r="104" spans="6:6" ht="13.2">
+    <row r="104" spans="6:6" ht="12.75">
       <c r="F104" s="18"/>
     </row>
-    <row r="105" spans="6:6" ht="13.2">
+    <row r="105" spans="6:6" ht="12.75">
       <c r="F105" s="18"/>
     </row>
-    <row r="106" spans="6:6" ht="13.2">
+    <row r="106" spans="6:6" ht="12.75">
       <c r="F106" s="18"/>
     </row>
-    <row r="107" spans="6:6" ht="13.2">
+    <row r="107" spans="6:6" ht="12.75">
       <c r="F107" s="18"/>
     </row>
-    <row r="108" spans="6:6" ht="13.2">
+    <row r="108" spans="6:6" ht="12.75">
       <c r="F108" s="18"/>
     </row>
-    <row r="109" spans="6:6" ht="13.2">
+    <row r="109" spans="6:6" ht="12.75">
       <c r="F109" s="18"/>
     </row>
-    <row r="110" spans="6:6" ht="13.2">
+    <row r="110" spans="6:6" ht="12.75">
       <c r="F110" s="18"/>
     </row>
-    <row r="111" spans="6:6" ht="13.2">
+    <row r="111" spans="6:6" ht="12.75">
       <c r="F111" s="18"/>
     </row>
-    <row r="112" spans="6:6" ht="13.2">
+    <row r="112" spans="6:6" ht="12.75">
       <c r="F112" s="18"/>
     </row>
-    <row r="113" spans="6:6" ht="13.2">
+    <row r="113" spans="6:6" ht="12.75">
       <c r="F113" s="18"/>
     </row>
-    <row r="114" spans="6:6" ht="13.2">
+    <row r="114" spans="6:6" ht="12.75">
       <c r="F114" s="18"/>
     </row>
-    <row r="115" spans="6:6" ht="13.2">
+    <row r="115" spans="6:6" ht="12.75">
       <c r="F115" s="18"/>
     </row>
-    <row r="116" spans="6:6" ht="13.2">
+    <row r="116" spans="6:6" ht="12.75">
       <c r="F116" s="18"/>
     </row>
-    <row r="117" spans="6:6" ht="13.2">
+    <row r="117" spans="6:6" ht="12.75">
       <c r="F117" s="18"/>
     </row>
-    <row r="118" spans="6:6" ht="13.2">
+    <row r="118" spans="6:6" ht="12.75">
       <c r="F118" s="18"/>
     </row>
-    <row r="119" spans="6:6" ht="13.2">
+    <row r="119" spans="6:6" ht="12.75">
       <c r="F119" s="18"/>
     </row>
-    <row r="120" spans="6:6" ht="13.2">
+    <row r="120" spans="6:6" ht="12.75">
       <c r="F120" s="18"/>
     </row>
-    <row r="121" spans="6:6" ht="13.2">
+    <row r="121" spans="6:6" ht="12.75">
       <c r="F121" s="18"/>
     </row>
-    <row r="122" spans="6:6" ht="13.2">
+    <row r="122" spans="6:6" ht="12.75">
       <c r="F122" s="18"/>
     </row>
-    <row r="123" spans="6:6" ht="13.2">
+    <row r="123" spans="6:6" ht="12.75">
       <c r="F123" s="18"/>
     </row>
-    <row r="124" spans="6:6" ht="13.2">
+    <row r="124" spans="6:6" ht="12.75">
       <c r="F124" s="18"/>
     </row>
-    <row r="125" spans="6:6" ht="13.2">
+    <row r="125" spans="6:6" ht="12.75">
       <c r="F125" s="18"/>
     </row>
-    <row r="126" spans="6:6" ht="13.2">
+    <row r="126" spans="6:6" ht="12.75">
       <c r="F126" s="18"/>
     </row>
-    <row r="127" spans="6:6" ht="13.2">
+    <row r="127" spans="6:6" ht="12.75">
       <c r="F127" s="18"/>
     </row>
-    <row r="128" spans="6:6" ht="13.2">
+    <row r="128" spans="6:6" ht="12.75">
       <c r="F128" s="18"/>
     </row>
-    <row r="129" spans="6:6" ht="13.2">
+    <row r="129" spans="6:6" ht="12.75">
       <c r="F129" s="18"/>
     </row>
-    <row r="130" spans="6:6" ht="13.2">
+    <row r="130" spans="6:6" ht="12.75">
       <c r="F130" s="18"/>
     </row>
-    <row r="131" spans="6:6" ht="13.2">
+    <row r="131" spans="6:6" ht="12.75">
       <c r="F131" s="18"/>
     </row>
-    <row r="132" spans="6:6" ht="13.2">
+    <row r="132" spans="6:6" ht="12.75">
       <c r="F132" s="18"/>
     </row>
-    <row r="133" spans="6:6" ht="13.2">
+    <row r="133" spans="6:6" ht="12.75">
       <c r="F133" s="18"/>
     </row>
-    <row r="134" spans="6:6" ht="13.2">
+    <row r="134" spans="6:6" ht="12.75">
       <c r="F134" s="18"/>
     </row>
-    <row r="135" spans="6:6" ht="13.2">
+    <row r="135" spans="6:6" ht="12.75">
       <c r="F135" s="18"/>
     </row>
-    <row r="136" spans="6:6" ht="13.2">
+    <row r="136" spans="6:6" ht="12.75">
       <c r="F136" s="18"/>
     </row>
-    <row r="137" spans="6:6" ht="13.2">
+    <row r="137" spans="6:6" ht="12.75">
       <c r="F137" s="18"/>
     </row>
-    <row r="138" spans="6:6" ht="13.2">
+    <row r="138" spans="6:6" ht="12.75">
       <c r="F138" s="18"/>
     </row>
-    <row r="139" spans="6:6" ht="13.2">
+    <row r="139" spans="6:6" ht="12.75">
       <c r="F139" s="18"/>
     </row>
-    <row r="140" spans="6:6" ht="13.2">
+    <row r="140" spans="6:6" ht="12.75">
       <c r="F140" s="18"/>
     </row>
-    <row r="141" spans="6:6" ht="13.2">
+    <row r="141" spans="6:6" ht="12.75">
       <c r="F141" s="18"/>
     </row>
-    <row r="142" spans="6:6" ht="13.2">
+    <row r="142" spans="6:6" ht="12.75">
       <c r="F142" s="18"/>
     </row>
-    <row r="143" spans="6:6" ht="13.2">
+    <row r="143" spans="6:6" ht="12.75">
       <c r="F143" s="18"/>
     </row>
-    <row r="144" spans="6:6" ht="13.2">
+    <row r="144" spans="6:6" ht="12.75">
       <c r="F144" s="18"/>
     </row>
-    <row r="145" spans="6:6" ht="13.2">
+    <row r="145" spans="6:6" ht="12.75">
       <c r="F145" s="18"/>
     </row>
-    <row r="146" spans="6:6" ht="13.2">
+    <row r="146" spans="6:6" ht="12.75">
       <c r="F146" s="18"/>
     </row>
-    <row r="147" spans="6:6" ht="13.2">
+    <row r="147" spans="6:6" ht="12.75">
       <c r="F147" s="18"/>
     </row>
-    <row r="148" spans="6:6" ht="13.2">
+    <row r="148" spans="6:6" ht="12.75">
       <c r="F148" s="18"/>
     </row>
-    <row r="149" spans="6:6" ht="13.2">
+    <row r="149" spans="6:6" ht="12.75">
       <c r="F149" s="18"/>
     </row>
-    <row r="150" spans="6:6" ht="13.2">
+    <row r="150" spans="6:6" ht="12.75">
       <c r="F150" s="18"/>
     </row>
-    <row r="151" spans="6:6" ht="13.2">
+    <row r="151" spans="6:6" ht="12.75">
       <c r="F151" s="18"/>
     </row>
-    <row r="152" spans="6:6" ht="13.2">
+    <row r="152" spans="6:6" ht="12.75">
       <c r="F152" s="18"/>
     </row>
-    <row r="153" spans="6:6" ht="13.2">
+    <row r="153" spans="6:6" ht="12.75">
       <c r="F153" s="18"/>
     </row>
-    <row r="154" spans="6:6" ht="13.2">
+    <row r="154" spans="6:6" ht="12.75">
       <c r="F154" s="18"/>
     </row>
-    <row r="155" spans="6:6" ht="13.2">
+    <row r="155" spans="6:6" ht="12.75">
       <c r="F155" s="18"/>
     </row>
-    <row r="156" spans="6:6" ht="13.2">
+    <row r="156" spans="6:6" ht="12.75">
       <c r="F156" s="18"/>
     </row>
-    <row r="157" spans="6:6" ht="13.2">
+    <row r="157" spans="6:6" ht="12.75">
       <c r="F157" s="18"/>
     </row>
-    <row r="158" spans="6:6" ht="13.2">
+    <row r="158" spans="6:6" ht="12.75">
       <c r="F158" s="18"/>
     </row>
-    <row r="159" spans="6:6" ht="13.2">
+    <row r="159" spans="6:6" ht="12.75">
       <c r="F159" s="18"/>
     </row>
-    <row r="160" spans="6:6" ht="13.2">
+    <row r="160" spans="6:6" ht="12.75">
       <c r="F160" s="18"/>
     </row>
-    <row r="161" spans="6:6" ht="13.2">
+    <row r="161" spans="6:6" ht="12.75">
       <c r="F161" s="18"/>
     </row>
-    <row r="162" spans="6:6" ht="13.2">
+    <row r="162" spans="6:6" ht="12.75">
       <c r="F162" s="18"/>
     </row>
-    <row r="163" spans="6:6" ht="13.2">
+    <row r="163" spans="6:6" ht="12.75">
       <c r="F163" s="18"/>
     </row>
-    <row r="164" spans="6:6" ht="13.2">
+    <row r="164" spans="6:6" ht="12.75">
       <c r="F164" s="18"/>
     </row>
-    <row r="165" spans="6:6" ht="13.2">
+    <row r="165" spans="6:6" ht="12.75">
       <c r="F165" s="18"/>
     </row>
-    <row r="166" spans="6:6" ht="13.2">
+    <row r="166" spans="6:6" ht="12.75">
       <c r="F166" s="18"/>
     </row>
-    <row r="167" spans="6:6" ht="13.2">
+    <row r="167" spans="6:6" ht="12.75">
       <c r="F167" s="18"/>
     </row>
-    <row r="168" spans="6:6" ht="13.2">
+    <row r="168" spans="6:6" ht="12.75">
       <c r="F168" s="18"/>
     </row>
-    <row r="169" spans="6:6" ht="13.2">
+    <row r="169" spans="6:6" ht="12.75">
       <c r="F169" s="18"/>
     </row>
-    <row r="170" spans="6:6" ht="13.2">
+    <row r="170" spans="6:6" ht="12.75">
       <c r="F170" s="18"/>
     </row>
-    <row r="171" spans="6:6" ht="13.2">
+    <row r="171" spans="6:6" ht="12.75">
       <c r="F171" s="18"/>
     </row>
-    <row r="172" spans="6:6" ht="13.2">
+    <row r="172" spans="6:6" ht="12.75">
       <c r="F172" s="18"/>
     </row>
-    <row r="173" spans="6:6" ht="13.2">
+    <row r="173" spans="6:6" ht="12.75">
       <c r="F173" s="18"/>
     </row>
-    <row r="174" spans="6:6" ht="13.2">
+    <row r="174" spans="6:6" ht="12.75">
       <c r="F174" s="18"/>
     </row>
-    <row r="175" spans="6:6" ht="13.2">
+    <row r="175" spans="6:6" ht="12.75">
       <c r="F175" s="18"/>
     </row>
-    <row r="176" spans="6:6" ht="13.2">
+    <row r="176" spans="6:6" ht="12.75">
       <c r="F176" s="18"/>
     </row>
-    <row r="177" spans="6:6" ht="13.2">
+    <row r="177" spans="6:6" ht="12.75">
       <c r="F177" s="18"/>
     </row>
-    <row r="178" spans="6:6" ht="13.2">
+    <row r="178" spans="6:6" ht="12.75">
       <c r="F178" s="18"/>
     </row>
-    <row r="179" spans="6:6" ht="13.2">
+    <row r="179" spans="6:6" ht="12.75">
       <c r="F179" s="18"/>
     </row>
-    <row r="180" spans="6:6" ht="13.2">
+    <row r="180" spans="6:6" ht="12.75">
       <c r="F180" s="18"/>
     </row>
-    <row r="181" spans="6:6" ht="13.2">
+    <row r="181" spans="6:6" ht="12.75">
       <c r="F181" s="18"/>
     </row>
-    <row r="182" spans="6:6" ht="13.2">
+    <row r="182" spans="6:6" ht="12.75">
       <c r="F182" s="18"/>
     </row>
-    <row r="183" spans="6:6" ht="13.2">
+    <row r="183" spans="6:6" ht="12.75">
       <c r="F183" s="18"/>
     </row>
-    <row r="184" spans="6:6" ht="13.2">
+    <row r="184" spans="6:6" ht="12.75">
       <c r="F184" s="18"/>
     </row>
-    <row r="185" spans="6:6" ht="13.2">
+    <row r="185" spans="6:6" ht="12.75">
       <c r="F185" s="18"/>
     </row>
-    <row r="186" spans="6:6" ht="13.2">
+    <row r="186" spans="6:6" ht="12.75">
       <c r="F186" s="18"/>
     </row>
-    <row r="187" spans="6:6" ht="13.2">
+    <row r="187" spans="6:6" ht="12.75">
       <c r="F187" s="18"/>
     </row>
-    <row r="188" spans="6:6" ht="13.2">
+    <row r="188" spans="6:6" ht="12.75">
       <c r="F188" s="18"/>
     </row>
-    <row r="189" spans="6:6" ht="13.2">
+    <row r="189" spans="6:6" ht="12.75">
       <c r="F189" s="18"/>
     </row>
-    <row r="190" spans="6:6" ht="13.2">
+    <row r="190" spans="6:6" ht="12.75">
       <c r="F190" s="18"/>
     </row>
-    <row r="191" spans="6:6" ht="13.2">
+    <row r="191" spans="6:6" ht="12.75">
       <c r="F191" s="18"/>
     </row>
-    <row r="192" spans="6:6" ht="13.2">
+    <row r="192" spans="6:6" ht="12.75">
       <c r="F192" s="18"/>
     </row>
-    <row r="193" spans="6:6" ht="13.2">
+    <row r="193" spans="6:6" ht="12.75">
       <c r="F193" s="18"/>
     </row>
-    <row r="194" spans="6:6" ht="13.2">
+    <row r="194" spans="6:6" ht="12.75">
       <c r="F194" s="18"/>
     </row>
-    <row r="195" spans="6:6" ht="13.2">
+    <row r="195" spans="6:6" ht="12.75">
       <c r="F195" s="18"/>
     </row>
-    <row r="196" spans="6:6" ht="13.2">
+    <row r="196" spans="6:6" ht="12.75">
       <c r="F196" s="18"/>
     </row>
-    <row r="197" spans="6:6" ht="13.2">
+    <row r="197" spans="6:6" ht="12.75">
       <c r="F197" s="18"/>
     </row>
-    <row r="198" spans="6:6" ht="13.2">
+    <row r="198" spans="6:6" ht="12.75">
       <c r="F198" s="18"/>
     </row>
-    <row r="199" spans="6:6" ht="13.2">
+    <row r="199" spans="6:6" ht="12.75">
       <c r="F199" s="18"/>
     </row>
-    <row r="200" spans="6:6" ht="13.2">
+    <row r="200" spans="6:6" ht="12.75">
       <c r="F200" s="18"/>
     </row>
-    <row r="201" spans="6:6" ht="13.2">
+    <row r="201" spans="6:6" ht="12.75">
       <c r="F201" s="18"/>
     </row>
-    <row r="202" spans="6:6" ht="13.2">
+    <row r="202" spans="6:6" ht="12.75">
       <c r="F202" s="18"/>
     </row>
-    <row r="203" spans="6:6" ht="13.2">
+    <row r="203" spans="6:6" ht="12.75">
       <c r="F203" s="18"/>
     </row>
-    <row r="204" spans="6:6" ht="13.2">
+    <row r="204" spans="6:6" ht="12.75">
       <c r="F204" s="18"/>
     </row>
-    <row r="205" spans="6:6" ht="13.2">
+    <row r="205" spans="6:6" ht="12.75">
       <c r="F205" s="18"/>
     </row>
-    <row r="206" spans="6:6" ht="13.2">
+    <row r="206" spans="6:6" ht="12.75">
       <c r="F206" s="18"/>
     </row>
-    <row r="207" spans="6:6" ht="13.2">
+    <row r="207" spans="6:6" ht="12.75">
       <c r="F207" s="18"/>
     </row>
-    <row r="208" spans="6:6" ht="13.2">
+    <row r="208" spans="6:6" ht="12.75">
       <c r="F208" s="18"/>
     </row>
-    <row r="209" spans="6:6" ht="13.2">
+    <row r="209" spans="6:6" ht="12.75">
       <c r="F209" s="18"/>
     </row>
-    <row r="210" spans="6:6" ht="13.2">
+    <row r="210" spans="6:6" ht="12.75">
       <c r="F210" s="18"/>
     </row>
-    <row r="211" spans="6:6" ht="13.2">
+    <row r="211" spans="6:6" ht="12.75">
       <c r="F211" s="18"/>
     </row>
-    <row r="212" spans="6:6" ht="13.2">
+    <row r="212" spans="6:6" ht="12.75">
       <c r="F212" s="18"/>
     </row>
-    <row r="213" spans="6:6" ht="13.2">
+    <row r="213" spans="6:6" ht="12.75">
       <c r="F213" s="18"/>
     </row>
-    <row r="214" spans="6:6" ht="13.2">
+    <row r="214" spans="6:6" ht="12.75">
       <c r="F214" s="18"/>
     </row>
-    <row r="215" spans="6:6" ht="13.2">
+    <row r="215" spans="6:6" ht="12.75">
       <c r="F215" s="18"/>
     </row>
-    <row r="216" spans="6:6" ht="13.2">
+    <row r="216" spans="6:6" ht="12.75">
       <c r="F216" s="18"/>
     </row>
-    <row r="217" spans="6:6" ht="13.2">
+    <row r="217" spans="6:6" ht="12.75">
       <c r="F217" s="18"/>
     </row>
-    <row r="218" spans="6:6" ht="13.2">
+    <row r="218" spans="6:6" ht="12.75">
       <c r="F218" s="18"/>
     </row>
-    <row r="219" spans="6:6" ht="13.2">
+    <row r="219" spans="6:6" ht="12.75">
       <c r="F219" s="18"/>
     </row>
-    <row r="220" spans="6:6" ht="13.2">
+    <row r="220" spans="6:6" ht="12.75">
       <c r="F220" s="18"/>
     </row>
-    <row r="221" spans="6:6" ht="13.2">
+    <row r="221" spans="6:6" ht="12.75">
       <c r="F221" s="18"/>
     </row>
-    <row r="222" spans="6:6" ht="13.2">
+    <row r="222" spans="6:6" ht="12.75">
       <c r="F222" s="18"/>
     </row>
-    <row r="223" spans="6:6" ht="13.2">
+    <row r="223" spans="6:6" ht="12.75">
       <c r="F223" s="18"/>
     </row>
-    <row r="224" spans="6:6" ht="13.2">
+    <row r="224" spans="6:6" ht="12.75">
       <c r="F224" s="18"/>
     </row>
-    <row r="225" spans="6:6" ht="13.2">
+    <row r="225" spans="6:6" ht="12.75">
       <c r="F225" s="18"/>
     </row>
-    <row r="226" spans="6:6" ht="13.2">
+    <row r="226" spans="6:6" ht="12.75">
       <c r="F226" s="18"/>
     </row>
-    <row r="227" spans="6:6" ht="13.2">
+    <row r="227" spans="6:6" ht="12.75">
       <c r="F227" s="18"/>
     </row>
-    <row r="228" spans="6:6" ht="13.2">
+    <row r="228" spans="6:6" ht="12.75">
       <c r="F228" s="18"/>
     </row>
-    <row r="229" spans="6:6" ht="13.2">
+    <row r="229" spans="6:6" ht="12.75">
       <c r="F229" s="18"/>
     </row>
-    <row r="230" spans="6:6" ht="13.2">
+    <row r="230" spans="6:6" ht="12.75">
       <c r="F230" s="18"/>
     </row>
-    <row r="231" spans="6:6" ht="13.2">
+    <row r="231" spans="6:6" ht="12.75">
       <c r="F231" s="18"/>
     </row>
-    <row r="232" spans="6:6" ht="13.2">
+    <row r="232" spans="6:6" ht="12.75">
       <c r="F232" s="18"/>
     </row>
-    <row r="233" spans="6:6" ht="13.2">
+    <row r="233" spans="6:6" ht="12.75">
       <c r="F233" s="18"/>
     </row>
-    <row r="234" spans="6:6" ht="13.2">
+    <row r="234" spans="6:6" ht="12.75">
       <c r="F234" s="18"/>
     </row>
-    <row r="235" spans="6:6" ht="13.2">
+    <row r="235" spans="6:6" ht="12.75">
       <c r="F235" s="18"/>
     </row>
-    <row r="236" spans="6:6" ht="13.2">
+    <row r="236" spans="6:6" ht="12.75">
       <c r="F236" s="18"/>
     </row>
-    <row r="237" spans="6:6" ht="13.2">
+    <row r="237" spans="6:6" ht="12.75">
       <c r="F237" s="18"/>
     </row>
-    <row r="238" spans="6:6" ht="13.2">
+    <row r="238" spans="6:6" ht="12.75">
       <c r="F238" s="18"/>
     </row>
-    <row r="239" spans="6:6" ht="13.2">
+    <row r="239" spans="6:6" ht="12.75">
       <c r="F239" s="18"/>
     </row>
-    <row r="240" spans="6:6" ht="13.2">
+    <row r="240" spans="6:6" ht="12.75">
       <c r="F240" s="18"/>
     </row>
-    <row r="241" spans="6:6" ht="13.2">
+    <row r="241" spans="6:6" ht="12.75">
       <c r="F241" s="18"/>
     </row>
-    <row r="242" spans="6:6" ht="13.2">
+    <row r="242" spans="6:6" ht="12.75">
       <c r="F242" s="18"/>
     </row>
-    <row r="243" spans="6:6" ht="13.2">
+    <row r="243" spans="6:6" ht="12.75">
       <c r="F243" s="18"/>
     </row>
-    <row r="244" spans="6:6" ht="13.2">
+    <row r="244" spans="6:6" ht="12.75">
       <c r="F244" s="18"/>
     </row>
-    <row r="245" spans="6:6" ht="13.2">
+    <row r="245" spans="6:6" ht="12.75">
       <c r="F245" s="18"/>
     </row>
-    <row r="246" spans="6:6" ht="13.2">
+    <row r="246" spans="6:6" ht="12.75">
       <c r="F246" s="18"/>
     </row>
-    <row r="247" spans="6:6" ht="13.2">
+    <row r="247" spans="6:6" ht="12.75">
       <c r="F247" s="18"/>
     </row>
-    <row r="248" spans="6:6" ht="13.2">
+    <row r="248" spans="6:6" ht="12.75">
       <c r="F248" s="18"/>
     </row>
-    <row r="249" spans="6:6" ht="13.2">
+    <row r="249" spans="6:6" ht="12.75">
       <c r="F249" s="18"/>
     </row>
-    <row r="250" spans="6:6" ht="13.2">
+    <row r="250" spans="6:6" ht="12.75">
       <c r="F250" s="18"/>
     </row>
-    <row r="251" spans="6:6" ht="13.2">
+    <row r="251" spans="6:6" ht="12.75">
       <c r="F251" s="18"/>
     </row>
-    <row r="252" spans="6:6" ht="13.2">
+    <row r="252" spans="6:6" ht="12.75">
       <c r="F252" s="18"/>
     </row>
-    <row r="253" spans="6:6" ht="13.2">
+    <row r="253" spans="6:6" ht="12.75">
       <c r="F253" s="18"/>
     </row>
-    <row r="254" spans="6:6" ht="13.2">
+    <row r="254" spans="6:6" ht="12.75">
       <c r="F254" s="18"/>
     </row>
-    <row r="255" spans="6:6" ht="13.2">
+    <row r="255" spans="6:6" ht="12.75">
       <c r="F255" s="18"/>
     </row>
-    <row r="256" spans="6:6" ht="13.2">
+    <row r="256" spans="6:6" ht="12.75">
       <c r="F256" s="18"/>
     </row>
-    <row r="257" spans="6:6" ht="13.2">
+    <row r="257" spans="6:6" ht="12.75">
       <c r="F257" s="18"/>
     </row>
-    <row r="258" spans="6:6" ht="13.2">
+    <row r="258" spans="6:6" ht="12.75">
       <c r="F258" s="18"/>
     </row>
-    <row r="259" spans="6:6" ht="13.2">
+    <row r="259" spans="6:6" ht="12.75">
       <c r="F259" s="18"/>
     </row>
-    <row r="260" spans="6:6" ht="13.2">
+    <row r="260" spans="6:6" ht="12.75">
       <c r="F260" s="18"/>
     </row>
-    <row r="261" spans="6:6" ht="13.2">
+    <row r="261" spans="6:6" ht="12.75">
       <c r="F261" s="18"/>
     </row>
-    <row r="262" spans="6:6" ht="13.2">
+    <row r="262" spans="6:6" ht="12.75">
       <c r="F262" s="18"/>
     </row>
-    <row r="263" spans="6:6" ht="13.2">
+    <row r="263" spans="6:6" ht="12.75">
       <c r="F263" s="18"/>
     </row>
-    <row r="264" spans="6:6" ht="13.2">
+    <row r="264" spans="6:6" ht="12.75">
       <c r="F264" s="18"/>
     </row>
-    <row r="265" spans="6:6" ht="13.2">
+    <row r="265" spans="6:6" ht="12.75">
       <c r="F265" s="18"/>
     </row>
-    <row r="266" spans="6:6" ht="13.2">
+    <row r="266" spans="6:6" ht="12.75">
       <c r="F266" s="18"/>
     </row>
-    <row r="267" spans="6:6" ht="13.2">
+    <row r="267" spans="6:6" ht="12.75">
       <c r="F267" s="18"/>
     </row>
-    <row r="268" spans="6:6" ht="13.2">
+    <row r="268" spans="6:6" ht="12.75">
       <c r="F268" s="18"/>
     </row>
-    <row r="269" spans="6:6" ht="13.2">
+    <row r="269" spans="6:6" ht="12.75">
       <c r="F269" s="18"/>
     </row>
-    <row r="270" spans="6:6" ht="13.2">
+    <row r="270" spans="6:6" ht="12.75">
       <c r="F270" s="18"/>
     </row>
-    <row r="271" spans="6:6" ht="13.2">
+    <row r="271" spans="6:6" ht="12.75">
       <c r="F271" s="18"/>
     </row>
-    <row r="272" spans="6:6" ht="13.2">
+    <row r="272" spans="6:6" ht="12.75">
       <c r="F272" s="18"/>
     </row>
-    <row r="273" spans="6:6" ht="13.2">
+    <row r="273" spans="6:6" ht="12.75">
       <c r="F273" s="18"/>
     </row>
-    <row r="274" spans="6:6" ht="13.2">
+    <row r="274" spans="6:6" ht="12.75">
       <c r="F274" s="18"/>
     </row>
-    <row r="275" spans="6:6" ht="13.2">
+    <row r="275" spans="6:6" ht="12.75">
       <c r="F275" s="18"/>
     </row>
-    <row r="276" spans="6:6" ht="13.2">
+    <row r="276" spans="6:6" ht="12.75">
       <c r="F276" s="18"/>
     </row>
-    <row r="277" spans="6:6" ht="13.2">
+    <row r="277" spans="6:6" ht="12.75">
       <c r="F277" s="18"/>
     </row>
-    <row r="278" spans="6:6" ht="13.2">
+    <row r="278" spans="6:6" ht="12.75">
       <c r="F278" s="18"/>
     </row>
-    <row r="279" spans="6:6" ht="13.2">
+    <row r="279" spans="6:6" ht="12.75">
       <c r="F279" s="18"/>
     </row>
-    <row r="280" spans="6:6" ht="13.2">
+    <row r="280" spans="6:6" ht="12.75">
       <c r="F280" s="18"/>
     </row>
-    <row r="281" spans="6:6" ht="13.2">
+    <row r="281" spans="6:6" ht="12.75">
       <c r="F281" s="18"/>
     </row>
-    <row r="282" spans="6:6" ht="13.2">
+    <row r="282" spans="6:6" ht="12.75">
       <c r="F282" s="18"/>
     </row>
-    <row r="283" spans="6:6" ht="13.2">
+    <row r="283" spans="6:6" ht="12.75">
       <c r="F283" s="18"/>
     </row>
-    <row r="284" spans="6:6" ht="13.2">
+    <row r="284" spans="6:6" ht="12.75">
       <c r="F284" s="18"/>
     </row>
-    <row r="285" spans="6:6" ht="13.2">
+    <row r="285" spans="6:6" ht="12.75">
       <c r="F285" s="18"/>
     </row>
-    <row r="286" spans="6:6" ht="13.2">
+    <row r="286" spans="6:6" ht="12.75">
       <c r="F286" s="18"/>
     </row>
-    <row r="287" spans="6:6" ht="13.2">
+    <row r="287" spans="6:6" ht="12.75">
       <c r="F287" s="18"/>
     </row>
-    <row r="288" spans="6:6" ht="13.2">
+    <row r="288" spans="6:6" ht="12.75">
       <c r="F288" s="18"/>
     </row>
-    <row r="289" spans="6:6" ht="13.2">
+    <row r="289" spans="6:6" ht="12.75">
       <c r="F289" s="18"/>
     </row>
-    <row r="290" spans="6:6" ht="13.2">
+    <row r="290" spans="6:6" ht="12.75">
       <c r="F290" s="18"/>
     </row>
-    <row r="291" spans="6:6" ht="13.2">
+    <row r="291" spans="6:6" ht="12.75">
       <c r="F291" s="18"/>
     </row>
-    <row r="292" spans="6:6" ht="13.2">
+    <row r="292" spans="6:6" ht="12.75">
       <c r="F292" s="18"/>
     </row>
-    <row r="293" spans="6:6" ht="13.2">
+    <row r="293" spans="6:6" ht="12.75">
       <c r="F293" s="18"/>
     </row>
-    <row r="294" spans="6:6" ht="13.2">
+    <row r="294" spans="6:6" ht="12.75">
       <c r="F294" s="18"/>
     </row>
-    <row r="295" spans="6:6" ht="13.2">
+    <row r="295" spans="6:6" ht="12.75">
       <c r="F295" s="18"/>
     </row>
-    <row r="296" spans="6:6" ht="13.2">
+    <row r="296" spans="6:6" ht="12.75">
       <c r="F296" s="18"/>
     </row>
-    <row r="297" spans="6:6" ht="13.2">
+    <row r="297" spans="6:6" ht="12.75">
       <c r="F297" s="18"/>
     </row>
-    <row r="298" spans="6:6" ht="13.2">
+    <row r="298" spans="6:6" ht="12.75">
       <c r="F298" s="18"/>
     </row>
-    <row r="299" spans="6:6" ht="13.2">
+    <row r="299" spans="6:6" ht="12.75">
       <c r="F299" s="18"/>
     </row>
-    <row r="300" spans="6:6" ht="13.2">
+    <row r="300" spans="6:6" ht="12.75">
       <c r="F300" s="18"/>
     </row>
-    <row r="301" spans="6:6" ht="13.2">
+    <row r="301" spans="6:6" ht="12.75">
       <c r="F301" s="18"/>
     </row>
-    <row r="302" spans="6:6" ht="13.2">
+    <row r="302" spans="6:6" ht="12.75">
       <c r="F302" s="18"/>
     </row>
-    <row r="303" spans="6:6" ht="13.2">
+    <row r="303" spans="6:6" ht="12.75">
       <c r="F303" s="18"/>
     </row>
-    <row r="304" spans="6:6" ht="13.2">
+    <row r="304" spans="6:6" ht="12.75">
       <c r="F304" s="18"/>
     </row>
-    <row r="305" spans="6:6" ht="13.2">
+    <row r="305" spans="6:6" ht="12.75">
       <c r="F305" s="18"/>
     </row>
-    <row r="306" spans="6:6" ht="13.2">
+    <row r="306" spans="6:6" ht="12.75">
       <c r="F306" s="18"/>
     </row>
-    <row r="307" spans="6:6" ht="13.2">
+    <row r="307" spans="6:6" ht="12.75">
       <c r="F307" s="18"/>
     </row>
-    <row r="308" spans="6:6" ht="13.2">
+    <row r="308" spans="6:6" ht="12.75">
       <c r="F308" s="18"/>
     </row>
-    <row r="309" spans="6:6" ht="13.2">
+    <row r="309" spans="6:6" ht="12.75">
       <c r="F309" s="18"/>
     </row>
-    <row r="310" spans="6:6" ht="13.2">
+    <row r="310" spans="6:6" ht="12.75">
       <c r="F310" s="18"/>
     </row>
-    <row r="311" spans="6:6" ht="13.2">
+    <row r="311" spans="6:6" ht="12.75">
       <c r="F311" s="18"/>
     </row>
-    <row r="312" spans="6:6" ht="13.2">
+    <row r="312" spans="6:6" ht="12.75">
       <c r="F312" s="18"/>
     </row>
-    <row r="313" spans="6:6" ht="13.2">
+    <row r="313" spans="6:6" ht="12.75">
       <c r="F313" s="18"/>
     </row>
-    <row r="314" spans="6:6" ht="13.2">
+    <row r="314" spans="6:6" ht="12.75">
       <c r="F314" s="18"/>
     </row>
-    <row r="315" spans="6:6" ht="13.2">
+    <row r="315" spans="6:6" ht="12.75">
       <c r="F315" s="18"/>
     </row>
-    <row r="316" spans="6:6" ht="13.2">
+    <row r="316" spans="6:6" ht="12.75">
       <c r="F316" s="18"/>
     </row>
-    <row r="317" spans="6:6" ht="13.2">
+    <row r="317" spans="6:6" ht="12.75">
       <c r="F317" s="18"/>
     </row>
-    <row r="318" spans="6:6" ht="13.2">
+    <row r="318" spans="6:6" ht="12.75">
       <c r="F318" s="18"/>
     </row>
-    <row r="319" spans="6:6" ht="13.2">
+    <row r="319" spans="6:6" ht="12.75">
       <c r="F319" s="18"/>
     </row>
-    <row r="320" spans="6:6" ht="13.2">
+    <row r="320" spans="6:6" ht="12.75">
       <c r="F320" s="18"/>
     </row>
-    <row r="321" spans="6:6" ht="13.2">
+    <row r="321" spans="6:6" ht="12.75">
       <c r="F321" s="18"/>
     </row>
-    <row r="322" spans="6:6" ht="13.2">
+    <row r="322" spans="6:6" ht="12.75">
       <c r="F322" s="18"/>
     </row>
-    <row r="323" spans="6:6" ht="13.2">
+    <row r="323" spans="6:6" ht="12.75">
       <c r="F323" s="18"/>
     </row>
-    <row r="324" spans="6:6" ht="13.2">
+    <row r="324" spans="6:6" ht="12.75">
       <c r="F324" s="18"/>
     </row>
-    <row r="325" spans="6:6" ht="13.2">
+    <row r="325" spans="6:6" ht="12.75">
       <c r="F325" s="18"/>
     </row>
-    <row r="326" spans="6:6" ht="13.2">
+    <row r="326" spans="6:6" ht="12.75">
       <c r="F326" s="18"/>
     </row>
-    <row r="327" spans="6:6" ht="13.2">
+    <row r="327" spans="6:6" ht="12.75">
       <c r="F327" s="18"/>
     </row>
-    <row r="328" spans="6:6" ht="13.2">
+    <row r="328" spans="6:6" ht="12.75">
       <c r="F328" s="18"/>
     </row>
-    <row r="329" spans="6:6" ht="13.2">
+    <row r="329" spans="6:6" ht="12.75">
       <c r="F329" s="18"/>
     </row>
-    <row r="330" spans="6:6" ht="13.2">
+    <row r="330" spans="6:6" ht="12.75">
       <c r="F330" s="18"/>
     </row>
-    <row r="331" spans="6:6" ht="13.2">
+    <row r="331" spans="6:6" ht="12.75">
       <c r="F331" s="18"/>
     </row>
-    <row r="332" spans="6:6" ht="13.2">
+    <row r="332" spans="6:6" ht="12.75">
       <c r="F332" s="18"/>
     </row>
-    <row r="333" spans="6:6" ht="13.2">
+    <row r="333" spans="6:6" ht="12.75">
       <c r="F333" s="18"/>
     </row>
-    <row r="334" spans="6:6" ht="13.2">
+    <row r="334" spans="6:6" ht="12.75">
       <c r="F334" s="18"/>
     </row>
-    <row r="335" spans="6:6" ht="13.2">
+    <row r="335" spans="6:6" ht="12.75">
       <c r="F335" s="18"/>
     </row>
-    <row r="336" spans="6:6" ht="13.2">
+    <row r="336" spans="6:6" ht="12.75">
       <c r="F336" s="18"/>
     </row>
-    <row r="337" spans="6:6" ht="13.2">
+    <row r="337" spans="6:6" ht="12.75">
       <c r="F337" s="18"/>
     </row>
-    <row r="338" spans="6:6" ht="13.2">
+    <row r="338" spans="6:6" ht="12.75">
       <c r="F338" s="18"/>
     </row>
-    <row r="339" spans="6:6" ht="13.2">
+    <row r="339" spans="6:6" ht="12.75">
       <c r="F339" s="18"/>
     </row>
-    <row r="340" spans="6:6" ht="13.2">
+    <row r="340" spans="6:6" ht="12.75">
       <c r="F340" s="18"/>
     </row>
-    <row r="341" spans="6:6" ht="13.2">
+    <row r="341" spans="6:6" ht="12.75">
       <c r="F341" s="18"/>
     </row>
-    <row r="342" spans="6:6" ht="13.2">
+    <row r="342" spans="6:6" ht="12.75">
       <c r="F342" s="18"/>
     </row>
-    <row r="343" spans="6:6" ht="13.2">
+    <row r="343" spans="6:6" ht="12.75">
       <c r="F343" s="18"/>
     </row>
-    <row r="344" spans="6:6" ht="13.2">
+    <row r="344" spans="6:6" ht="12.75">
       <c r="F344" s="18"/>
     </row>
-    <row r="345" spans="6:6" ht="13.2">
+    <row r="345" spans="6:6" ht="12.75">
       <c r="F345" s="18"/>
     </row>
-    <row r="346" spans="6:6" ht="13.2">
+    <row r="346" spans="6:6" ht="12.75">
       <c r="F346" s="18"/>
     </row>
-    <row r="347" spans="6:6" ht="13.2">
+    <row r="347" spans="6:6" ht="12.75">
       <c r="F347" s="18"/>
     </row>
-    <row r="348" spans="6:6" ht="13.2">
+    <row r="348" spans="6:6" ht="12.75">
       <c r="F348" s="18"/>
     </row>
-    <row r="349" spans="6:6" ht="13.2">
+    <row r="349" spans="6:6" ht="12.75">
       <c r="F349" s="18"/>
     </row>
-    <row r="350" spans="6:6" ht="13.2">
+    <row r="350" spans="6:6" ht="12.75">
       <c r="F350" s="18"/>
     </row>
-    <row r="351" spans="6:6" ht="13.2">
+    <row r="351" spans="6:6" ht="12.75">
       <c r="F351" s="18"/>
     </row>
-    <row r="352" spans="6:6" ht="13.2">
+    <row r="352" spans="6:6" ht="12.75">
       <c r="F352" s="18"/>
     </row>
-    <row r="353" spans="6:6" ht="13.2">
+    <row r="353" spans="6:6" ht="12.75">
       <c r="F353" s="18"/>
     </row>
-    <row r="354" spans="6:6" ht="13.2">
+    <row r="354" spans="6:6" ht="12.75">
       <c r="F354" s="18"/>
     </row>
-    <row r="355" spans="6:6" ht="13.2">
+    <row r="355" spans="6:6" ht="12.75">
       <c r="F355" s="18"/>
     </row>
-    <row r="356" spans="6:6" ht="13.2">
+    <row r="356" spans="6:6" ht="12.75">
       <c r="F356" s="18"/>
     </row>
-    <row r="357" spans="6:6" ht="13.2">
+    <row r="357" spans="6:6" ht="12.75">
       <c r="F357" s="18"/>
     </row>
-    <row r="358" spans="6:6" ht="13.2">
+    <row r="358" spans="6:6" ht="12.75">
       <c r="F358" s="18"/>
     </row>
-    <row r="359" spans="6:6" ht="13.2">
+    <row r="359" spans="6:6" ht="12.75">
       <c r="F359" s="18"/>
     </row>
-    <row r="360" spans="6:6" ht="13.2">
+    <row r="360" spans="6:6" ht="12.75">
       <c r="F360" s="18"/>
     </row>
-    <row r="361" spans="6:6" ht="13.2">
+    <row r="361" spans="6:6" ht="12.75">
       <c r="F361" s="18"/>
     </row>
-    <row r="362" spans="6:6" ht="13.2">
+    <row r="362" spans="6:6" ht="12.75">
       <c r="F362" s="18"/>
     </row>
-    <row r="363" spans="6:6" ht="13.2">
+    <row r="363" spans="6:6" ht="12.75">
       <c r="F363" s="18"/>
     </row>
-    <row r="364" spans="6:6" ht="13.2">
+    <row r="364" spans="6:6" ht="12.75">
       <c r="F364" s="18"/>
     </row>
-    <row r="365" spans="6:6" ht="13.2">
+    <row r="365" spans="6:6" ht="12.75">
       <c r="F365" s="18"/>
     </row>
-    <row r="366" spans="6:6" ht="13.2">
+    <row r="366" spans="6:6" ht="12.75">
       <c r="F366" s="18"/>
     </row>
-    <row r="367" spans="6:6" ht="13.2">
+    <row r="367" spans="6:6" ht="12.75">
       <c r="F367" s="18"/>
     </row>
-    <row r="368" spans="6:6" ht="13.2">
+    <row r="368" spans="6:6" ht="12.75">
       <c r="F368" s="18"/>
     </row>
-    <row r="369" spans="6:6" ht="13.2">
+    <row r="369" spans="6:6" ht="12.75">
       <c r="F369" s="18"/>
     </row>
-    <row r="370" spans="6:6" ht="13.2">
+    <row r="370" spans="6:6" ht="12.75">
       <c r="F370" s="18"/>
     </row>
-    <row r="371" spans="6:6" ht="13.2">
+    <row r="371" spans="6:6" ht="12.75">
       <c r="F371" s="18"/>
     </row>
-    <row r="372" spans="6:6" ht="13.2">
+    <row r="372" spans="6:6" ht="12.75">
       <c r="F372" s="18"/>
     </row>
-    <row r="373" spans="6:6" ht="13.2">
+    <row r="373" spans="6:6" ht="12.75">
       <c r="F373" s="18"/>
     </row>
-    <row r="374" spans="6:6" ht="13.2">
+    <row r="374" spans="6:6" ht="12.75">
       <c r="F374" s="18"/>
     </row>
-    <row r="375" spans="6:6" ht="13.2">
+    <row r="375" spans="6:6" ht="12.75">
       <c r="F375" s="18"/>
     </row>
-    <row r="376" spans="6:6" ht="13.2">
+    <row r="376" spans="6:6" ht="12.75">
       <c r="F376" s="18"/>
     </row>
-    <row r="377" spans="6:6" ht="13.2">
+    <row r="377" spans="6:6" ht="12.75">
       <c r="F377" s="18"/>
     </row>
-    <row r="378" spans="6:6" ht="13.2">
+    <row r="378" spans="6:6" ht="12.75">
       <c r="F378" s="18"/>
     </row>
-    <row r="379" spans="6:6" ht="13.2">
+    <row r="379" spans="6:6" ht="12.75">
       <c r="F379" s="18"/>
     </row>
-    <row r="380" spans="6:6" ht="13.2">
+    <row r="380" spans="6:6" ht="12.75">
       <c r="F380" s="18"/>
     </row>
-    <row r="381" spans="6:6" ht="13.2">
+    <row r="381" spans="6:6" ht="12.75">
       <c r="F381" s="18"/>
     </row>
-    <row r="382" spans="6:6" ht="13.2">
+    <row r="382" spans="6:6" ht="12.75">
       <c r="F382" s="18"/>
     </row>
-    <row r="383" spans="6:6" ht="13.2">
+    <row r="383" spans="6:6" ht="12.75">
       <c r="F383" s="18"/>
     </row>
-    <row r="384" spans="6:6" ht="13.2">
+    <row r="384" spans="6:6" ht="12.75">
       <c r="F384" s="18"/>
     </row>
-    <row r="385" spans="6:6" ht="13.2">
+    <row r="385" spans="6:6" ht="12.75">
       <c r="F385" s="18"/>
     </row>
-    <row r="386" spans="6:6" ht="13.2">
+    <row r="386" spans="6:6" ht="12.75">
       <c r="F386" s="18"/>
     </row>
-    <row r="387" spans="6:6" ht="13.2">
+    <row r="387" spans="6:6" ht="12.75">
       <c r="F387" s="18"/>
     </row>
-    <row r="388" spans="6:6" ht="13.2">
+    <row r="388" spans="6:6" ht="12.75">
       <c r="F388" s="18"/>
     </row>
-    <row r="389" spans="6:6" ht="13.2">
+    <row r="389" spans="6:6" ht="12.75">
       <c r="F389" s="18"/>
     </row>
-    <row r="390" spans="6:6" ht="13.2">
+    <row r="390" spans="6:6" ht="12.75">
       <c r="F390" s="18"/>
     </row>
-    <row r="391" spans="6:6" ht="13.2">
+    <row r="391" spans="6:6" ht="12.75">
       <c r="F391" s="18"/>
     </row>
-    <row r="392" spans="6:6" ht="13.2">
+    <row r="392" spans="6:6" ht="12.75">
       <c r="F392" s="18"/>
     </row>
-    <row r="393" spans="6:6" ht="13.2">
+    <row r="393" spans="6:6" ht="12.75">
       <c r="F393" s="18"/>
     </row>
-    <row r="394" spans="6:6" ht="13.2">
+    <row r="394" spans="6:6" ht="12.75">
       <c r="F394" s="18"/>
     </row>
-    <row r="395" spans="6:6" ht="13.2">
+    <row r="395" spans="6:6" ht="12.75">
       <c r="F395" s="18"/>
     </row>
-    <row r="396" spans="6:6" ht="13.2">
+    <row r="396" spans="6:6" ht="12.75">
       <c r="F396" s="18"/>
     </row>
-    <row r="397" spans="6:6" ht="13.2">
+    <row r="397" spans="6:6" ht="12.75">
       <c r="F397" s="18"/>
     </row>
-    <row r="398" spans="6:6" ht="13.2">
+    <row r="398" spans="6:6" ht="12.75">
       <c r="F398" s="18"/>
     </row>
-    <row r="399" spans="6:6" ht="13.2">
+    <row r="399" spans="6:6" ht="12.75">
       <c r="F399" s="18"/>
     </row>
-    <row r="400" spans="6:6" ht="13.2">
+    <row r="400" spans="6:6" ht="12.75">
       <c r="F400" s="18"/>
     </row>
-    <row r="401" spans="6:6" ht="13.2">
+    <row r="401" spans="6:6" ht="12.75">
       <c r="F401" s="18"/>
     </row>
-    <row r="402" spans="6:6" ht="13.2">
+    <row r="402" spans="6:6" ht="12.75">
       <c r="F402" s="18"/>
     </row>
-    <row r="403" spans="6:6" ht="13.2">
+    <row r="403" spans="6:6" ht="12.75">
       <c r="F403" s="18"/>
     </row>
-    <row r="404" spans="6:6" ht="13.2">
+    <row r="404" spans="6:6" ht="12.75">
       <c r="F404" s="18"/>
     </row>
-    <row r="405" spans="6:6" ht="13.2">
+    <row r="405" spans="6:6" ht="12.75">
       <c r="F405" s="18"/>
     </row>
-    <row r="406" spans="6:6" ht="13.2">
+    <row r="406" spans="6:6" ht="12.75">
       <c r="F406" s="18"/>
     </row>
-    <row r="407" spans="6:6" ht="13.2">
+    <row r="407" spans="6:6" ht="12.75">
       <c r="F407" s="18"/>
     </row>
-    <row r="408" spans="6:6" ht="13.2">
+    <row r="408" spans="6:6" ht="12.75">
       <c r="F408" s="18"/>
     </row>
-    <row r="409" spans="6:6" ht="13.2">
+    <row r="409" spans="6:6" ht="12.75">
       <c r="F409" s="18"/>
     </row>
-    <row r="410" spans="6:6" ht="13.2">
+    <row r="410" spans="6:6" ht="12.75">
       <c r="F410" s="18"/>
     </row>
-    <row r="411" spans="6:6" ht="13.2">
+    <row r="411" spans="6:6" ht="12.75">
       <c r="F411" s="18"/>
     </row>
-    <row r="412" spans="6:6" ht="13.2">
+    <row r="412" spans="6:6" ht="12.75">
       <c r="F412" s="18"/>
     </row>
-    <row r="413" spans="6:6" ht="13.2">
+    <row r="413" spans="6:6" ht="12.75">
       <c r="F413" s="18"/>
     </row>
-    <row r="414" spans="6:6" ht="13.2">
+    <row r="414" spans="6:6" ht="12.75">
       <c r="F414" s="18"/>
     </row>
-    <row r="415" spans="6:6" ht="13.2">
+    <row r="415" spans="6:6" ht="12.75">
       <c r="F415" s="18"/>
     </row>
-    <row r="416" spans="6:6" ht="13.2">
+    <row r="416" spans="6:6" ht="12.75">
       <c r="F416" s="18"/>
     </row>
-    <row r="417" spans="6:6" ht="13.2">
+    <row r="417" spans="6:6" ht="12.75">
       <c r="F417" s="18"/>
     </row>
-    <row r="418" spans="6:6" ht="13.2">
+    <row r="418" spans="6:6" ht="12.75">
       <c r="F418" s="18"/>
     </row>
-    <row r="419" spans="6:6" ht="13.2">
+    <row r="419" spans="6:6" ht="12.75">
       <c r="F419" s="18"/>
     </row>
-    <row r="420" spans="6:6" ht="13.2">
+    <row r="420" spans="6:6" ht="12.75">
       <c r="F420" s="18"/>
     </row>
-    <row r="421" spans="6:6" ht="13.2">
+    <row r="421" spans="6:6" ht="12.75">
       <c r="F421" s="18"/>
     </row>
-    <row r="422" spans="6:6" ht="13.2">
+    <row r="422" spans="6:6" ht="12.75">
       <c r="F422" s="18"/>
     </row>
-    <row r="423" spans="6:6" ht="13.2">
+    <row r="423" spans="6:6" ht="12.75">
       <c r="F423" s="18"/>
     </row>
-    <row r="424" spans="6:6" ht="13.2">
+    <row r="424" spans="6:6" ht="12.75">
       <c r="F424" s="18"/>
     </row>
-    <row r="425" spans="6:6" ht="13.2">
+    <row r="425" spans="6:6" ht="12.75">
       <c r="F425" s="18"/>
     </row>
-    <row r="426" spans="6:6" ht="13.2">
+    <row r="426" spans="6:6" ht="12.75">
       <c r="F426" s="18"/>
     </row>
-    <row r="427" spans="6:6" ht="13.2">
+    <row r="427" spans="6:6" ht="12.75">
       <c r="F427" s="18"/>
     </row>
-    <row r="428" spans="6:6" ht="13.2">
+    <row r="428" spans="6:6" ht="12.75">
       <c r="F428" s="18"/>
     </row>
-    <row r="429" spans="6:6" ht="13.2">
+    <row r="429" spans="6:6" ht="12.75">
       <c r="F429" s="18"/>
     </row>
-    <row r="430" spans="6:6" ht="13.2">
+    <row r="430" spans="6:6" ht="12.75">
       <c r="F430" s="18"/>
     </row>
-    <row r="431" spans="6:6" ht="13.2">
+    <row r="431" spans="6:6" ht="12.75">
       <c r="F431" s="18"/>
     </row>
-    <row r="432" spans="6:6" ht="13.2">
+    <row r="432" spans="6:6" ht="12.75">
       <c r="F432" s="18"/>
     </row>
-    <row r="433" spans="6:6" ht="13.2">
+    <row r="433" spans="6:6" ht="12.75">
       <c r="F433" s="18"/>
     </row>
-    <row r="434" spans="6:6" ht="13.2">
+    <row r="434" spans="6:6" ht="12.75">
       <c r="F434" s="18"/>
     </row>
-    <row r="435" spans="6:6" ht="13.2">
+    <row r="435" spans="6:6" ht="12.75">
       <c r="F435" s="18"/>
     </row>
-    <row r="436" spans="6:6" ht="13.2">
+    <row r="436" spans="6:6" ht="12.75">
       <c r="F436" s="18"/>
     </row>
-    <row r="437" spans="6:6" ht="13.2">
+    <row r="437" spans="6:6" ht="12.75">
       <c r="F437" s="18"/>
     </row>
-    <row r="438" spans="6:6" ht="13.2">
+    <row r="438" spans="6:6" ht="12.75">
       <c r="F438" s="18"/>
     </row>
-    <row r="439" spans="6:6" ht="13.2">
+    <row r="439" spans="6:6" ht="12.75">
       <c r="F439" s="18"/>
     </row>
-    <row r="440" spans="6:6" ht="13.2">
+    <row r="440" spans="6:6" ht="12.75">
       <c r="F440" s="18"/>
     </row>
-    <row r="441" spans="6:6" ht="13.2">
+    <row r="441" spans="6:6" ht="12.75">
       <c r="F441" s="18"/>
     </row>
-    <row r="442" spans="6:6" ht="13.2">
+    <row r="442" spans="6:6" ht="12.75">
       <c r="F442" s="18"/>
     </row>
-    <row r="443" spans="6:6" ht="13.2">
+    <row r="443" spans="6:6" ht="12.75">
       <c r="F443" s="18"/>
     </row>
-    <row r="444" spans="6:6" ht="13.2">
+    <row r="444" spans="6:6" ht="12.75">
       <c r="F444" s="18"/>
     </row>
-    <row r="445" spans="6:6" ht="13.2">
+    <row r="445" spans="6:6" ht="12.75">
       <c r="F445" s="18"/>
     </row>
-    <row r="446" spans="6:6" ht="13.2">
+    <row r="446" spans="6:6" ht="12.75">
       <c r="F446" s="18"/>
     </row>
-    <row r="447" spans="6:6" ht="13.2">
+    <row r="447" spans="6:6" ht="12.75">
       <c r="F447" s="18"/>
     </row>
-    <row r="448" spans="6:6" ht="13.2">
+    <row r="448" spans="6:6" ht="12.75">
       <c r="F448" s="18"/>
     </row>
-    <row r="449" spans="6:6" ht="13.2">
+    <row r="449" spans="6:6" ht="12.75">
       <c r="F449" s="18"/>
     </row>
-    <row r="450" spans="6:6" ht="13.2">
+    <row r="450" spans="6:6" ht="12.75">
       <c r="F450" s="18"/>
     </row>
-    <row r="451" spans="6:6" ht="13.2">
+    <row r="451" spans="6:6" ht="12.75">
       <c r="F451" s="18"/>
     </row>
-    <row r="452" spans="6:6" ht="13.2">
+    <row r="452" spans="6:6" ht="12.75">
       <c r="F452" s="18"/>
     </row>
-    <row r="453" spans="6:6" ht="13.2">
+    <row r="453" spans="6:6" ht="12.75">
       <c r="F453" s="18"/>
     </row>
-    <row r="454" spans="6:6" ht="13.2">
+    <row r="454" spans="6:6" ht="12.75">
       <c r="F454" s="18"/>
     </row>
-    <row r="455" spans="6:6" ht="13.2">
+    <row r="455" spans="6:6" ht="12.75">
       <c r="F455" s="18"/>
     </row>
-    <row r="456" spans="6:6" ht="13.2">
+    <row r="456" spans="6:6" ht="12.75">
       <c r="F456" s="18"/>
     </row>
-    <row r="457" spans="6:6" ht="13.2">
+    <row r="457" spans="6:6" ht="12.75">
       <c r="F457" s="18"/>
     </row>
-    <row r="458" spans="6:6" ht="13.2">
+    <row r="458" spans="6:6" ht="12.75">
       <c r="F458" s="18"/>
     </row>
-    <row r="459" spans="6:6" ht="13.2">
+    <row r="459" spans="6:6" ht="12.75">
       <c r="F459" s="18"/>
     </row>
-    <row r="460" spans="6:6" ht="13.2">
+    <row r="460" spans="6:6" ht="12.75">
       <c r="F460" s="18"/>
     </row>
-    <row r="461" spans="6:6" ht="13.2">
+    <row r="461" spans="6:6" ht="12.75">
       <c r="F461" s="18"/>
     </row>
-    <row r="462" spans="6:6" ht="13.2">
+    <row r="462" spans="6:6" ht="12.75">
       <c r="F462" s="18"/>
     </row>
-    <row r="463" spans="6:6" ht="13.2">
+    <row r="463" spans="6:6" ht="12.75">
       <c r="F463" s="18"/>
     </row>
-    <row r="464" spans="6:6" ht="13.2">
+    <row r="464" spans="6:6" ht="12.75">
       <c r="F464" s="18"/>
     </row>
-    <row r="465" spans="6:6" ht="13.2">
+    <row r="465" spans="6:6" ht="12.75">
       <c r="F465" s="18"/>
     </row>
-    <row r="466" spans="6:6" ht="13.2">
+    <row r="466" spans="6:6" ht="12.75">
       <c r="F466" s="18"/>
     </row>
-    <row r="467" spans="6:6" ht="13.2">
+    <row r="467" spans="6:6" ht="12.75">
       <c r="F467" s="18"/>
     </row>
-    <row r="468" spans="6:6" ht="13.2">
+    <row r="468" spans="6:6" ht="12.75">
       <c r="F468" s="18"/>
     </row>
-    <row r="469" spans="6:6" ht="13.2">
+    <row r="469" spans="6:6" ht="12.75">
       <c r="F469" s="18"/>
     </row>
-    <row r="470" spans="6:6" ht="13.2">
+    <row r="470" spans="6:6" ht="12.75">
       <c r="F470" s="18"/>
     </row>
-    <row r="471" spans="6:6" ht="13.2">
+    <row r="471" spans="6:6" ht="12.75">
       <c r="F471" s="18"/>
     </row>
-    <row r="472" spans="6:6" ht="13.2">
+    <row r="472" spans="6:6" ht="12.75">
       <c r="F472" s="18"/>
     </row>
-    <row r="473" spans="6:6" ht="13.2">
+    <row r="473" spans="6:6" ht="12.75">
       <c r="F473" s="18"/>
     </row>
-    <row r="474" spans="6:6" ht="13.2">
+    <row r="474" spans="6:6" ht="12.75">
       <c r="F474" s="18"/>
     </row>
-    <row r="475" spans="6:6" ht="13.2">
+    <row r="475" spans="6:6" ht="12.75">
       <c r="F475" s="18"/>
     </row>
-    <row r="476" spans="6:6" ht="13.2">
+    <row r="476" spans="6:6" ht="12.75">
       <c r="F476" s="18"/>
     </row>
-    <row r="477" spans="6:6" ht="13.2">
+    <row r="477" spans="6:6" ht="12.75">
       <c r="F477" s="18"/>
     </row>
-    <row r="478" spans="6:6" ht="13.2">
+    <row r="478" spans="6:6" ht="12.75">
       <c r="F478" s="18"/>
     </row>
-    <row r="479" spans="6:6" ht="13.2">
+    <row r="479" spans="6:6" ht="12.75">
       <c r="F479" s="18"/>
     </row>
-    <row r="480" spans="6:6" ht="13.2">
+    <row r="480" spans="6:6" ht="12.75">
       <c r="F480" s="18"/>
     </row>
-    <row r="481" spans="6:6" ht="13.2">
+    <row r="481" spans="6:6" ht="12.75">
       <c r="F481" s="18"/>
     </row>
-    <row r="482" spans="6:6" ht="13.2">
+    <row r="482" spans="6:6" ht="12.75">
       <c r="F482" s="18"/>
     </row>
-    <row r="483" spans="6:6" ht="13.2">
+    <row r="483" spans="6:6" ht="12.75">
       <c r="F483" s="18"/>
     </row>
-    <row r="484" spans="6:6" ht="13.2">
+    <row r="484" spans="6:6" ht="12.75">
       <c r="F484" s="18"/>
     </row>
-    <row r="485" spans="6:6" ht="13.2">
+    <row r="485" spans="6:6" ht="12.75">
       <c r="F485" s="18"/>
     </row>
-    <row r="486" spans="6:6" ht="13.2">
+    <row r="486" spans="6:6" ht="12.75">
       <c r="F486" s="18"/>
     </row>
-    <row r="487" spans="6:6" ht="13.2">
+    <row r="487" spans="6:6" ht="12.75">
       <c r="F487" s="18"/>
     </row>
-    <row r="488" spans="6:6" ht="13.2">
+    <row r="488" spans="6:6" ht="12.75">
       <c r="F488" s="18"/>
     </row>
-    <row r="489" spans="6:6" ht="13.2">
+    <row r="489" spans="6:6" ht="12.75">
       <c r="F489" s="18"/>
     </row>
-    <row r="490" spans="6:6" ht="13.2">
+    <row r="490" spans="6:6" ht="12.75">
       <c r="F490" s="18"/>
     </row>
-    <row r="491" spans="6:6" ht="13.2">
+    <row r="491" spans="6:6" ht="12.75">
       <c r="F491" s="18"/>
     </row>
-    <row r="492" spans="6:6" ht="13.2">
+    <row r="492" spans="6:6" ht="12.75">
       <c r="F492" s="18"/>
     </row>
-    <row r="493" spans="6:6" ht="13.2">
+    <row r="493" spans="6:6" ht="12.75">
       <c r="F493" s="18"/>
     </row>
-    <row r="494" spans="6:6" ht="13.2">
+    <row r="494" spans="6:6" ht="12.75">
       <c r="F494" s="18"/>
     </row>
-    <row r="495" spans="6:6" ht="13.2">
+    <row r="495" spans="6:6" ht="12.75">
       <c r="F495" s="18"/>
     </row>
-    <row r="496" spans="6:6" ht="13.2">
+    <row r="496" spans="6:6" ht="12.75">
       <c r="F496" s="18"/>
     </row>
-    <row r="497" spans="6:6" ht="13.2">
+    <row r="497" spans="6:6" ht="12.75">
       <c r="F497" s="18"/>
     </row>
-    <row r="498" spans="6:6" ht="13.2">
+    <row r="498" spans="6:6" ht="12.75">
       <c r="F498" s="18"/>
     </row>
-    <row r="499" spans="6:6" ht="13.2">
+    <row r="499" spans="6:6" ht="12.75">
       <c r="F499" s="18"/>
     </row>
-    <row r="500" spans="6:6" ht="13.2">
+    <row r="500" spans="6:6" ht="12.75">
       <c r="F500" s="18"/>
     </row>
-    <row r="501" spans="6:6" ht="13.2">
+    <row r="501" spans="6:6" ht="12.75">
       <c r="F501" s="18"/>
     </row>
-    <row r="502" spans="6:6" ht="13.2">
+    <row r="502" spans="6:6" ht="12.75">
       <c r="F502" s="18"/>
     </row>
-    <row r="503" spans="6:6" ht="13.2">
+    <row r="503" spans="6:6" ht="12.75">
       <c r="F503" s="18"/>
     </row>
-    <row r="504" spans="6:6" ht="13.2">
+    <row r="504" spans="6:6" ht="12.75">
       <c r="F504" s="18"/>
     </row>
-    <row r="505" spans="6:6" ht="13.2">
+    <row r="505" spans="6:6" ht="12.75">
       <c r="F505" s="18"/>
     </row>
-    <row r="506" spans="6:6" ht="13.2">
+    <row r="506" spans="6:6" ht="12.75">
       <c r="F506" s="18"/>
     </row>
-    <row r="507" spans="6:6" ht="13.2">
+    <row r="507" spans="6:6" ht="12.75">
       <c r="F507" s="18"/>
     </row>
-    <row r="508" spans="6:6" ht="13.2">
+    <row r="508" spans="6:6" ht="12.75">
       <c r="F508" s="18"/>
     </row>
-    <row r="509" spans="6:6" ht="13.2">
+    <row r="509" spans="6:6" ht="12.75">
       <c r="F509" s="18"/>
     </row>
-    <row r="510" spans="6:6" ht="13.2">
+    <row r="510" spans="6:6" ht="12.75">
       <c r="F510" s="18"/>
     </row>
-    <row r="511" spans="6:6" ht="13.2">
+    <row r="511" spans="6:6" ht="12.75">
       <c r="F511" s="18"/>
     </row>
-    <row r="512" spans="6:6" ht="13.2">
+    <row r="512" spans="6:6" ht="12.75">
       <c r="F512" s="18"/>
     </row>
-    <row r="513" spans="6:6" ht="13.2">
+    <row r="513" spans="6:6" ht="12.75">
       <c r="F513" s="18"/>
     </row>
-    <row r="514" spans="6:6" ht="13.2">
+    <row r="514" spans="6:6" ht="12.75">
       <c r="F514" s="18"/>
     </row>
-    <row r="515" spans="6:6" ht="13.2">
+    <row r="515" spans="6:6" ht="12.75">
       <c r="F515" s="18"/>
     </row>
-    <row r="516" spans="6:6" ht="13.2">
+    <row r="516" spans="6:6" ht="12.75">
       <c r="F516" s="18"/>
     </row>
-    <row r="517" spans="6:6" ht="13.2">
+    <row r="517" spans="6:6" ht="12.75">
       <c r="F517" s="18"/>
     </row>
-    <row r="518" spans="6:6" ht="13.2">
+    <row r="518" spans="6:6" ht="12.75">
       <c r="F518" s="18"/>
     </row>
-    <row r="519" spans="6:6" ht="13.2">
+    <row r="519" spans="6:6" ht="12.75">
       <c r="F519" s="18"/>
     </row>
-    <row r="520" spans="6:6" ht="13.2">
+    <row r="520" spans="6:6" ht="12.75">
       <c r="F520" s="18"/>
     </row>
-    <row r="521" spans="6:6" ht="13.2">
+    <row r="521" spans="6:6" ht="12.75">
       <c r="F521" s="18"/>
     </row>
-    <row r="522" spans="6:6" ht="13.2">
+    <row r="522" spans="6:6" ht="12.75">
       <c r="F522" s="18"/>
     </row>
-    <row r="523" spans="6:6" ht="13.2">
+    <row r="523" spans="6:6" ht="12.75">
       <c r="F523" s="18"/>
     </row>
-    <row r="524" spans="6:6" ht="13.2">
+    <row r="524" spans="6:6" ht="12.75">
       <c r="F524" s="18"/>
     </row>
-    <row r="525" spans="6:6" ht="13.2">
+    <row r="525" spans="6:6" ht="12.75">
       <c r="F525" s="18"/>
     </row>
-    <row r="526" spans="6:6" ht="13.2">
+    <row r="526" spans="6:6" ht="12.75">
       <c r="F526" s="18"/>
     </row>
-    <row r="527" spans="6:6" ht="13.2">
+    <row r="527" spans="6:6" ht="12.75">
       <c r="F527" s="18"/>
     </row>
-    <row r="528" spans="6:6" ht="13.2">
+    <row r="528" spans="6:6" ht="12.75">
       <c r="F528" s="18"/>
     </row>
-    <row r="529" spans="6:6" ht="13.2">
+    <row r="529" spans="6:6" ht="12.75">
       <c r="F529" s="18"/>
     </row>
-    <row r="530" spans="6:6" ht="13.2">
+    <row r="530" spans="6:6" ht="12.75">
       <c r="F530" s="18"/>
     </row>
-    <row r="531" spans="6:6" ht="13.2">
+    <row r="531" spans="6:6" ht="12.75">
       <c r="F531" s="18"/>
     </row>
-    <row r="532" spans="6:6" ht="13.2">
+    <row r="532" spans="6:6" ht="12.75">
       <c r="F532" s="18"/>
     </row>
-    <row r="533" spans="6:6" ht="13.2">
+    <row r="533" spans="6:6" ht="12.75">
       <c r="F533" s="18"/>
     </row>
-    <row r="534" spans="6:6" ht="13.2">
+    <row r="534" spans="6:6" ht="12.75">
       <c r="F534" s="18"/>
     </row>
-    <row r="535" spans="6:6" ht="13.2">
+    <row r="535" spans="6:6" ht="12.75">
       <c r="F535" s="18"/>
     </row>
-    <row r="536" spans="6:6" ht="13.2">
+    <row r="536" spans="6:6" ht="12.75">
       <c r="F536" s="18"/>
     </row>
-    <row r="537" spans="6:6" ht="13.2">
+    <row r="537" spans="6:6" ht="12.75">
       <c r="F537" s="18"/>
     </row>
-    <row r="538" spans="6:6" ht="13.2">
+    <row r="538" spans="6:6" ht="12.75">
       <c r="F538" s="18"/>
     </row>
-    <row r="539" spans="6:6" ht="13.2">
+    <row r="539" spans="6:6" ht="12.75">
       <c r="F539" s="18"/>
     </row>
-    <row r="540" spans="6:6" ht="13.2">
+    <row r="540" spans="6:6" ht="12.75">
       <c r="F540" s="18"/>
     </row>
-    <row r="541" spans="6:6" ht="13.2">
+    <row r="541" spans="6:6" ht="12.75">
       <c r="F541" s="18"/>
     </row>
-    <row r="542" spans="6:6" ht="13.2">
+    <row r="542" spans="6:6" ht="12.75">
       <c r="F542" s="18"/>
     </row>
-    <row r="543" spans="6:6" ht="13.2">
+    <row r="543" spans="6:6" ht="12.75">
       <c r="F543" s="18"/>
     </row>
-    <row r="544" spans="6:6" ht="13.2">
+    <row r="544" spans="6:6" ht="12.75">
       <c r="F544" s="18"/>
     </row>
-    <row r="545" spans="6:6" ht="13.2">
+    <row r="545" spans="6:6" ht="12.75">
       <c r="F545" s="18"/>
     </row>
-    <row r="546" spans="6:6" ht="13.2">
+    <row r="546" spans="6:6" ht="12.75">
       <c r="F546" s="18"/>
     </row>
-    <row r="547" spans="6:6" ht="13.2">
+    <row r="547" spans="6:6" ht="12.75">
       <c r="F547" s="18"/>
     </row>
-    <row r="548" spans="6:6" ht="13.2">
+    <row r="548" spans="6:6" ht="12.75">
       <c r="F548" s="18"/>
     </row>
-    <row r="549" spans="6:6" ht="13.2">
+    <row r="549" spans="6:6" ht="12.75">
       <c r="F549" s="18"/>
     </row>
-    <row r="550" spans="6:6" ht="13.2">
+    <row r="550" spans="6:6" ht="12.75">
       <c r="F550" s="18"/>
     </row>
-    <row r="551" spans="6:6" ht="13.2">
+    <row r="551" spans="6:6" ht="12.75">
       <c r="F551" s="18"/>
     </row>
-    <row r="552" spans="6:6" ht="13.2">
+    <row r="552" spans="6:6" ht="12.75">
       <c r="F552" s="18"/>
     </row>
-    <row r="553" spans="6:6" ht="13.2">
+    <row r="553" spans="6:6" ht="12.75">
       <c r="F553" s="18"/>
     </row>
-    <row r="554" spans="6:6" ht="13.2">
+    <row r="554" spans="6:6" ht="12.75">
       <c r="F554" s="18"/>
     </row>
-    <row r="555" spans="6:6" ht="13.2">
+    <row r="555" spans="6:6" ht="12.75">
       <c r="F555" s="18"/>
     </row>
-    <row r="556" spans="6:6" ht="13.2">
+    <row r="556" spans="6:6" ht="12.75">
       <c r="F556" s="18"/>
     </row>
-    <row r="557" spans="6:6" ht="13.2">
+    <row r="557" spans="6:6" ht="12.75">
       <c r="F557" s="18"/>
     </row>
-    <row r="558" spans="6:6" ht="13.2">
+    <row r="558" spans="6:6" ht="12.75">
       <c r="F558" s="18"/>
     </row>
-    <row r="559" spans="6:6" ht="13.2">
+    <row r="559" spans="6:6" ht="12.75">
       <c r="F559" s="18"/>
     </row>
-    <row r="560" spans="6:6" ht="13.2">
+    <row r="560" spans="6:6" ht="12.75">
       <c r="F560" s="18"/>
     </row>
-    <row r="561" spans="6:6" ht="13.2">
+    <row r="561" spans="6:6" ht="12.75">
       <c r="F561" s="18"/>
     </row>
-    <row r="562" spans="6:6" ht="13.2">
+    <row r="562" spans="6:6" ht="12.75">
       <c r="F562" s="18"/>
     </row>
-    <row r="563" spans="6:6" ht="13.2">
+    <row r="563" spans="6:6" ht="12.75">
       <c r="F563" s="18"/>
     </row>
-    <row r="564" spans="6:6" ht="13.2">
+    <row r="564" spans="6:6" ht="12.75">
       <c r="F564" s="18"/>
     </row>
-    <row r="565" spans="6:6" ht="13.2">
+    <row r="565" spans="6:6" ht="12.75">
       <c r="F565" s="18"/>
     </row>
-    <row r="566" spans="6:6" ht="13.2">
+    <row r="566" spans="6:6" ht="12.75">
       <c r="F566" s="18"/>
     </row>
-    <row r="567" spans="6:6" ht="13.2">
+    <row r="567" spans="6:6" ht="12.75">
       <c r="F567" s="18"/>
     </row>
-    <row r="568" spans="6:6" ht="13.2">
+    <row r="568" spans="6:6" ht="12.75">
       <c r="F568" s="18"/>
     </row>
-    <row r="569" spans="6:6" ht="13.2">
+    <row r="569" spans="6:6" ht="12.75">
       <c r="F569" s="18"/>
     </row>
-    <row r="570" spans="6:6" ht="13.2">
+    <row r="570" spans="6:6" ht="12.75">
       <c r="F570" s="18"/>
     </row>
-    <row r="571" spans="6:6" ht="13.2">
+    <row r="571" spans="6:6" ht="12.75">
       <c r="F571" s="18"/>
     </row>
-    <row r="572" spans="6:6" ht="13.2">
+    <row r="572" spans="6:6" ht="12.75">
       <c r="F572" s="18"/>
     </row>
-    <row r="573" spans="6:6" ht="13.2">
+    <row r="573" spans="6:6" ht="12.75">
       <c r="F573" s="18"/>
     </row>
-    <row r="574" spans="6:6" ht="13.2">
+    <row r="574" spans="6:6" ht="12.75">
       <c r="F574" s="18"/>
     </row>
-    <row r="575" spans="6:6" ht="13.2">
+    <row r="575" spans="6:6" ht="12.75">
       <c r="F575" s="18"/>
     </row>
-    <row r="576" spans="6:6" ht="13.2">
+    <row r="576" spans="6:6" ht="12.75">
       <c r="F576" s="18"/>
     </row>
-    <row r="577" spans="6:6" ht="13.2">
+    <row r="577" spans="6:6" ht="12.75">
       <c r="F577" s="18"/>
     </row>
-    <row r="578" spans="6:6" ht="13.2">
+    <row r="578" spans="6:6" ht="12.75">
       <c r="F578" s="18"/>
     </row>
-    <row r="579" spans="6:6" ht="13.2">
+    <row r="579" spans="6:6" ht="12.75">
       <c r="F579" s="18"/>
     </row>
-    <row r="580" spans="6:6" ht="13.2">
+    <row r="580" spans="6:6" ht="12.75">
       <c r="F580" s="18"/>
     </row>
-    <row r="581" spans="6:6" ht="13.2">
+    <row r="581" spans="6:6" ht="12.75">
       <c r="F581" s="18"/>
     </row>
-    <row r="582" spans="6:6" ht="13.2">
+    <row r="582" spans="6:6" ht="12.75">
       <c r="F582" s="18"/>
     </row>
-    <row r="583" spans="6:6" ht="13.2">
+    <row r="583" spans="6:6" ht="12.75">
       <c r="F583" s="18"/>
     </row>
-    <row r="584" spans="6:6" ht="13.2">
+    <row r="584" spans="6:6" ht="12.75">
       <c r="F584" s="18"/>
     </row>
-    <row r="585" spans="6:6" ht="13.2">
+    <row r="585" spans="6:6" ht="12.75">
       <c r="F585" s="18"/>
     </row>
-    <row r="586" spans="6:6" ht="13.2">
+    <row r="586" spans="6:6" ht="12.75">
       <c r="F586" s="18"/>
     </row>
-    <row r="587" spans="6:6" ht="13.2">
+    <row r="587" spans="6:6" ht="12.75">
       <c r="F587" s="18"/>
     </row>
-    <row r="588" spans="6:6" ht="13.2">
+    <row r="588" spans="6:6" ht="12.75">
       <c r="F588" s="18"/>
     </row>
-    <row r="589" spans="6:6" ht="13.2">
+    <row r="589" spans="6:6" ht="12.75">
       <c r="F589" s="18"/>
     </row>
-    <row r="590" spans="6:6" ht="13.2">
+    <row r="590" spans="6:6" ht="12.75">
       <c r="F590" s="18"/>
     </row>
-    <row r="591" spans="6:6" ht="13.2">
+    <row r="591" spans="6:6" ht="12.75">
       <c r="F591" s="18"/>
     </row>
-    <row r="592" spans="6:6" ht="13.2">
+    <row r="592" spans="6:6" ht="12.75">
       <c r="F592" s="18"/>
     </row>
-    <row r="593" spans="6:6" ht="13.2">
+    <row r="593" spans="6:6" ht="12.75">
       <c r="F593" s="18"/>
     </row>
-    <row r="594" spans="6:6" ht="13.2">
+    <row r="594" spans="6:6" ht="12.75">
       <c r="F594" s="18"/>
     </row>
-    <row r="595" spans="6:6" ht="13.2">
+    <row r="595" spans="6:6" ht="12.75">
       <c r="F595" s="18"/>
     </row>
-    <row r="596" spans="6:6" ht="13.2">
+    <row r="596" spans="6:6" ht="12.75">
       <c r="F596" s="18"/>
     </row>
-    <row r="597" spans="6:6" ht="13.2">
+    <row r="597" spans="6:6" ht="12.75">
       <c r="F597" s="18"/>
     </row>
-    <row r="598" spans="6:6" ht="13.2">
+    <row r="598" spans="6:6" ht="12.75">
       <c r="F598" s="18"/>
     </row>
-    <row r="599" spans="6:6" ht="13.2">
+    <row r="599" spans="6:6" ht="12.75">
       <c r="F599" s="18"/>
     </row>
-    <row r="600" spans="6:6" ht="13.2">
+    <row r="600" spans="6:6" ht="12.75">
       <c r="F600" s="18"/>
     </row>
-    <row r="601" spans="6:6" ht="13.2">
+    <row r="601" spans="6:6" ht="12.75">
       <c r="F601" s="18"/>
     </row>
-    <row r="602" spans="6:6" ht="13.2">
+    <row r="602" spans="6:6" ht="12.75">
       <c r="F602" s="18"/>
     </row>
-    <row r="603" spans="6:6" ht="13.2">
+    <row r="603" spans="6:6" ht="12.75">
       <c r="F603" s="18"/>
     </row>
-    <row r="604" spans="6:6" ht="13.2">
+    <row r="604" spans="6:6" ht="12.75">
       <c r="F604" s="18"/>
     </row>
-    <row r="605" spans="6:6" ht="13.2">
+    <row r="605" spans="6:6" ht="12.75">
       <c r="F605" s="18"/>
     </row>
-    <row r="606" spans="6:6" ht="13.2">
+    <row r="606" spans="6:6" ht="12.75">
       <c r="F606" s="18"/>
     </row>
-    <row r="607" spans="6:6" ht="13.2">
+    <row r="607" spans="6:6" ht="12.75">
       <c r="F607" s="18"/>
     </row>
-    <row r="608" spans="6:6" ht="13.2">
+    <row r="608" spans="6:6" ht="12.75">
       <c r="F608" s="18"/>
     </row>
-    <row r="609" spans="6:6" ht="13.2">
+    <row r="609" spans="6:6" ht="12.75">
       <c r="F609" s="18"/>
     </row>
-    <row r="610" spans="6:6" ht="13.2">
+    <row r="610" spans="6:6" ht="12.75">
       <c r="F610" s="18"/>
     </row>
-    <row r="611" spans="6:6" ht="13.2">
+    <row r="611" spans="6:6" ht="12.75">
       <c r="F611" s="18"/>
     </row>
-    <row r="612" spans="6:6" ht="13.2">
+    <row r="612" spans="6:6" ht="12.75">
       <c r="F612" s="18"/>
     </row>
-    <row r="613" spans="6:6" ht="13.2">
+    <row r="613" spans="6:6" ht="12.75">
       <c r="F613" s="18"/>
     </row>
-    <row r="614" spans="6:6" ht="13.2">
+    <row r="614" spans="6:6" ht="12.75">
       <c r="F614" s="18"/>
     </row>
-    <row r="615" spans="6:6" ht="13.2">
+    <row r="615" spans="6:6" ht="12.75">
       <c r="F615" s="18"/>
     </row>
-    <row r="616" spans="6:6" ht="13.2">
+    <row r="616" spans="6:6" ht="12.75">
       <c r="F616" s="18"/>
     </row>
-    <row r="617" spans="6:6" ht="13.2">
+    <row r="617" spans="6:6" ht="12.75">
       <c r="F617" s="18"/>
     </row>
-    <row r="618" spans="6:6" ht="13.2">
+    <row r="618" spans="6:6" ht="12.75">
       <c r="F618" s="18"/>
     </row>
-    <row r="619" spans="6:6" ht="13.2">
+    <row r="619" spans="6:6" ht="12.75">
       <c r="F619" s="18"/>
     </row>
-    <row r="620" spans="6:6" ht="13.2">
+    <row r="620" spans="6:6" ht="12.75">
       <c r="F620" s="18"/>
     </row>
-    <row r="621" spans="6:6" ht="13.2">
+    <row r="621" spans="6:6" ht="12.75">
       <c r="F621" s="18"/>
     </row>
-    <row r="622" spans="6:6" ht="13.2">
+    <row r="622" spans="6:6" ht="12.75">
       <c r="F622" s="18"/>
     </row>
-    <row r="623" spans="6:6" ht="13.2">
+    <row r="623" spans="6:6" ht="12.75">
       <c r="F623" s="18"/>
     </row>
-    <row r="624" spans="6:6" ht="13.2">
+    <row r="624" spans="6:6" ht="12.75">
       <c r="F624" s="18"/>
     </row>
-    <row r="625" spans="6:6" ht="13.2">
+    <row r="625" spans="6:6" ht="12.75">
       <c r="F625" s="18"/>
     </row>
-    <row r="626" spans="6:6" ht="13.2">
+    <row r="626" spans="6:6" ht="12.75">
       <c r="F626" s="18"/>
     </row>
-    <row r="627" spans="6:6" ht="13.2">
+    <row r="627" spans="6:6" ht="12.75">
       <c r="F627" s="18"/>
     </row>
-    <row r="628" spans="6:6" ht="13.2">
+    <row r="628" spans="6:6" ht="12.75">
       <c r="F628" s="18"/>
     </row>
-    <row r="629" spans="6:6" ht="13.2">
+    <row r="629" spans="6:6" ht="12.75">
       <c r="F629" s="18"/>
     </row>
-    <row r="630" spans="6:6" ht="13.2">
+    <row r="630" spans="6:6" ht="12.75">
       <c r="F630" s="18"/>
     </row>
-    <row r="631" spans="6:6" ht="13.2">
+    <row r="631" spans="6:6" ht="12.75">
       <c r="F631" s="18"/>
     </row>
-    <row r="632" spans="6:6" ht="13.2">
+    <row r="632" spans="6:6" ht="12.75">
       <c r="F632" s="18"/>
     </row>
-    <row r="633" spans="6:6" ht="13.2">
+    <row r="633" spans="6:6" ht="12.75">
       <c r="F633" s="18"/>
     </row>
-    <row r="634" spans="6:6" ht="13.2">
+    <row r="634" spans="6:6" ht="12.75">
       <c r="F634" s="18"/>
     </row>
-    <row r="635" spans="6:6" ht="13.2">
+    <row r="635" spans="6:6" ht="12.75">
       <c r="F635" s="18"/>
     </row>
-    <row r="636" spans="6:6" ht="13.2">
+    <row r="636" spans="6:6" ht="12.75">
       <c r="F636" s="18"/>
     </row>
-    <row r="637" spans="6:6" ht="13.2">
+    <row r="637" spans="6:6" ht="12.75">
       <c r="F637" s="18"/>
     </row>
-    <row r="638" spans="6:6" ht="13.2">
+    <row r="638" spans="6:6" ht="12.75">
       <c r="F638" s="18"/>
     </row>
-    <row r="639" spans="6:6" ht="13.2">
+    <row r="639" spans="6:6" ht="12.75">
       <c r="F639" s="18"/>
     </row>
-    <row r="640" spans="6:6" ht="13.2">
+    <row r="640" spans="6:6" ht="12.75">
       <c r="F640" s="18"/>
     </row>
-    <row r="641" spans="6:6" ht="13.2">
+    <row r="641" spans="6:6" ht="12.75">
       <c r="F641" s="18"/>
     </row>
-    <row r="642" spans="6:6" ht="13.2">
+    <row r="642" spans="6:6" ht="12.75">
       <c r="F642" s="18"/>
     </row>
-    <row r="643" spans="6:6" ht="13.2">
+    <row r="643" spans="6:6" ht="12.75">
       <c r="F643" s="18"/>
     </row>
-    <row r="644" spans="6:6" ht="13.2">
+    <row r="644" spans="6:6" ht="12.75">
       <c r="F644" s="18"/>
     </row>
-    <row r="645" spans="6:6" ht="13.2">
+    <row r="645" spans="6:6" ht="12.75">
       <c r="F645" s="18"/>
     </row>
-    <row r="646" spans="6:6" ht="13.2">
+    <row r="646" spans="6:6" ht="12.75">
       <c r="F646" s="18"/>
     </row>
-    <row r="647" spans="6:6" ht="13.2">
+    <row r="647" spans="6:6" ht="12.75">
       <c r="F647" s="18"/>
     </row>
-    <row r="648" spans="6:6" ht="13.2">
+    <row r="648" spans="6:6" ht="12.75">
       <c r="F648" s="18"/>
     </row>
-    <row r="649" spans="6:6" ht="13.2">
+    <row r="649" spans="6:6" ht="12.75">
       <c r="F649" s="18"/>
     </row>
-    <row r="650" spans="6:6" ht="13.2">
+    <row r="650" spans="6:6" ht="12.75">
       <c r="F650" s="18"/>
     </row>
-    <row r="651" spans="6:6" ht="13.2">
+    <row r="651" spans="6:6" ht="12.75">
       <c r="F651" s="18"/>
     </row>
-    <row r="652" spans="6:6" ht="13.2">
+    <row r="652" spans="6:6" ht="12.75">
       <c r="F652" s="18"/>
     </row>
-    <row r="653" spans="6:6" ht="13.2">
+    <row r="653" spans="6:6" ht="12.75">
       <c r="F653" s="18"/>
     </row>
-    <row r="654" spans="6:6" ht="13.2">
+    <row r="654" spans="6:6" ht="12.75">
       <c r="F654" s="18"/>
     </row>
-    <row r="655" spans="6:6" ht="13.2">
+    <row r="655" spans="6:6" ht="12.75">
       <c r="F655" s="18"/>
     </row>
-    <row r="656" spans="6:6" ht="13.2">
+    <row r="656" spans="6:6" ht="12.75">
       <c r="F656" s="18"/>
     </row>
-    <row r="657" spans="6:6" ht="13.2">
+    <row r="657" spans="6:6" ht="12.75">
       <c r="F657" s="18"/>
     </row>
-    <row r="658" spans="6:6" ht="13.2">
+    <row r="658" spans="6:6" ht="12.75">
       <c r="F658" s="18"/>
     </row>
-    <row r="659" spans="6:6" ht="13.2">
+    <row r="659" spans="6:6" ht="12.75">
       <c r="F659" s="18"/>
     </row>
-    <row r="660" spans="6:6" ht="13.2">
+    <row r="660" spans="6:6" ht="12.75">
       <c r="F660" s="18"/>
     </row>
-    <row r="661" spans="6:6" ht="13.2">
+    <row r="661" spans="6:6" ht="12.75">
       <c r="F661" s="18"/>
     </row>
-    <row r="662" spans="6:6" ht="13.2">
+    <row r="662" spans="6:6" ht="12.75">
       <c r="F662" s="18"/>
     </row>
-    <row r="663" spans="6:6" ht="13.2">
+    <row r="663" spans="6:6" ht="12.75">
       <c r="F663" s="18"/>
     </row>
-    <row r="664" spans="6:6" ht="13.2">
+    <row r="664" spans="6:6" ht="12.75">
       <c r="F664" s="18"/>
     </row>
-    <row r="665" spans="6:6" ht="13.2">
+    <row r="665" spans="6:6" ht="12.75">
       <c r="F665" s="18"/>
     </row>
-    <row r="666" spans="6:6" ht="13.2">
+    <row r="666" spans="6:6" ht="12.75">
       <c r="F666" s="18"/>
     </row>
-    <row r="667" spans="6:6" ht="13.2">
+    <row r="667" spans="6:6" ht="12.75">
       <c r="F667" s="18"/>
     </row>
-    <row r="668" spans="6:6" ht="13.2">
+    <row r="668" spans="6:6" ht="12.75">
       <c r="F668" s="18"/>
     </row>
-    <row r="669" spans="6:6" ht="13.2">
+    <row r="669" spans="6:6" ht="12.75">
       <c r="F669" s="18"/>
     </row>
-    <row r="670" spans="6:6" ht="13.2">
+    <row r="670" spans="6:6" ht="12.75">
       <c r="F670" s="18"/>
     </row>
-    <row r="671" spans="6:6" ht="13.2">
+    <row r="671" spans="6:6" ht="12.75">
       <c r="F671" s="18"/>
     </row>
-    <row r="672" spans="6:6" ht="13.2">
+    <row r="672" spans="6:6" ht="12.75">
       <c r="F672" s="18"/>
     </row>
-    <row r="673" spans="6:6" ht="13.2">
+    <row r="673" spans="6:6" ht="12.75">
       <c r="F673" s="18"/>
     </row>
-    <row r="674" spans="6:6" ht="13.2">
+    <row r="674" spans="6:6" ht="12.75">
       <c r="F674" s="18"/>
     </row>
-    <row r="675" spans="6:6" ht="13.2">
+    <row r="675" spans="6:6" ht="12.75">
       <c r="F675" s="18"/>
     </row>
-    <row r="676" spans="6:6" ht="13.2">
+    <row r="676" spans="6:6" ht="12.75">
       <c r="F676" s="18"/>
     </row>
-    <row r="677" spans="6:6" ht="13.2">
+    <row r="677" spans="6:6" ht="12.75">
       <c r="F677" s="18"/>
     </row>
-    <row r="678" spans="6:6" ht="13.2">
+    <row r="678" spans="6:6" ht="12.75">
       <c r="F678" s="18"/>
     </row>
-    <row r="679" spans="6:6" ht="13.2">
+    <row r="679" spans="6:6" ht="12.75">
       <c r="F679" s="18"/>
     </row>
-    <row r="680" spans="6:6" ht="13.2">
+    <row r="680" spans="6:6" ht="12.75">
       <c r="F680" s="18"/>
     </row>
-    <row r="681" spans="6:6" ht="13.2">
+    <row r="681" spans="6:6" ht="12.75">
       <c r="F681" s="18"/>
     </row>
-    <row r="682" spans="6:6" ht="13.2">
+    <row r="682" spans="6:6" ht="12.75">
       <c r="F682" s="18"/>
     </row>
-    <row r="683" spans="6:6" ht="13.2">
+    <row r="683" spans="6:6" ht="12.75">
       <c r="F683" s="18"/>
     </row>
-    <row r="684" spans="6:6" ht="13.2">
+    <row r="684" spans="6:6" ht="12.75">
       <c r="F684" s="18"/>
     </row>
-    <row r="685" spans="6:6" ht="13.2">
+    <row r="685" spans="6:6" ht="12.75">
       <c r="F685" s="18"/>
     </row>
-    <row r="686" spans="6:6" ht="13.2">
+    <row r="686" spans="6:6" ht="12.75">
       <c r="F686" s="18"/>
     </row>
-    <row r="687" spans="6:6" ht="13.2">
+    <row r="687" spans="6:6" ht="12.75">
       <c r="F687" s="18"/>
     </row>
-    <row r="688" spans="6:6" ht="13.2">
+    <row r="688" spans="6:6" ht="12.75">
       <c r="F688" s="18"/>
     </row>
-    <row r="689" spans="6:6" ht="13.2">
+    <row r="689" spans="6:6" ht="12.75">
       <c r="F689" s="18"/>
     </row>
-    <row r="690" spans="6:6" ht="13.2">
+    <row r="690" spans="6:6" ht="12.75">
       <c r="F690" s="18"/>
     </row>
-    <row r="691" spans="6:6" ht="13.2">
+    <row r="691" spans="6:6" ht="12.75">
       <c r="F691" s="18"/>
     </row>
-    <row r="692" spans="6:6" ht="13.2">
+    <row r="692" spans="6:6" ht="12.75">
       <c r="F692" s="18"/>
     </row>
-    <row r="693" spans="6:6" ht="13.2">
+    <row r="693" spans="6:6" ht="12.75">
       <c r="F693" s="18"/>
     </row>
-    <row r="694" spans="6:6" ht="13.2">
+    <row r="694" spans="6:6" ht="12.75">
       <c r="F694" s="18"/>
     </row>
-    <row r="695" spans="6:6" ht="13.2">
+    <row r="695" spans="6:6" ht="12.75">
       <c r="F695" s="18"/>
     </row>
-    <row r="696" spans="6:6" ht="13.2">
+    <row r="696" spans="6:6" ht="12.75">
       <c r="F696" s="18"/>
     </row>
-    <row r="697" spans="6:6" ht="13.2">
+    <row r="697" spans="6:6" ht="12.75">
       <c r="F697" s="18"/>
     </row>
-    <row r="698" spans="6:6" ht="13.2">
+    <row r="698" spans="6:6" ht="12.75">
       <c r="F698" s="18"/>
     </row>
-    <row r="699" spans="6:6" ht="13.2">
+    <row r="699" spans="6:6" ht="12.75">
       <c r="F699" s="18"/>
     </row>
-    <row r="700" spans="6:6" ht="13.2">
+    <row r="700" spans="6:6" ht="12.75">
       <c r="F700" s="18"/>
     </row>
-    <row r="701" spans="6:6" ht="13.2">
+    <row r="701" spans="6:6" ht="12.75">
       <c r="F701" s="18"/>
     </row>
-    <row r="702" spans="6:6" ht="13.2">
+    <row r="702" spans="6:6" ht="12.75">
       <c r="F702" s="18"/>
     </row>
-    <row r="703" spans="6:6" ht="13.2">
+    <row r="703" spans="6:6" ht="12.75">
       <c r="F703" s="18"/>
     </row>
-    <row r="704" spans="6:6" ht="13.2">
+    <row r="704" spans="6:6" ht="12.75">
       <c r="F704" s="18"/>
     </row>
-    <row r="705" spans="6:6" ht="13.2">
+    <row r="705" spans="6:6" ht="12.75">
       <c r="F705" s="18"/>
     </row>
-    <row r="706" spans="6:6" ht="13.2">
+    <row r="706" spans="6:6" ht="12.75">
       <c r="F706" s="18"/>
     </row>
-    <row r="707" spans="6:6" ht="13.2">
+    <row r="707" spans="6:6" ht="12.75">
       <c r="F707" s="18"/>
     </row>
-    <row r="708" spans="6:6" ht="13.2">
+    <row r="708" spans="6:6" ht="12.75">
       <c r="F708" s="18"/>
     </row>
-    <row r="709" spans="6:6" ht="13.2">
+    <row r="709" spans="6:6" ht="12.75">
       <c r="F709" s="18"/>
     </row>
-    <row r="710" spans="6:6" ht="13.2">
+    <row r="710" spans="6:6" ht="12.75">
       <c r="F710" s="18"/>
     </row>
-    <row r="711" spans="6:6" ht="13.2">
+    <row r="711" spans="6:6" ht="12.75">
       <c r="F711" s="18"/>
     </row>
-    <row r="712" spans="6:6" ht="13.2">
+    <row r="712" spans="6:6" ht="12.75">
       <c r="F712" s="18"/>
     </row>
-    <row r="713" spans="6:6" ht="13.2">
+    <row r="713" spans="6:6" ht="12.75">
       <c r="F713" s="18"/>
     </row>
-    <row r="714" spans="6:6" ht="13.2">
+    <row r="714" spans="6:6" ht="12.75">
       <c r="F714" s="18"/>
     </row>
-    <row r="715" spans="6:6" ht="13.2">
+    <row r="715" spans="6:6" ht="12.75">
       <c r="F715" s="18"/>
     </row>
-    <row r="716" spans="6:6" ht="13.2">
+    <row r="716" spans="6:6" ht="12.75">
       <c r="F716" s="18"/>
     </row>
-    <row r="717" spans="6:6" ht="13.2">
+    <row r="717" spans="6:6" ht="12.75">
       <c r="F717" s="18"/>
     </row>
-    <row r="718" spans="6:6" ht="13.2">
+    <row r="718" spans="6:6" ht="12.75">
       <c r="F718" s="18"/>
     </row>
-    <row r="719" spans="6:6" ht="13.2">
+    <row r="719" spans="6:6" ht="12.75">
       <c r="F719" s="18"/>
     </row>
-    <row r="720" spans="6:6" ht="13.2">
+    <row r="720" spans="6:6" ht="12.75">
       <c r="F720" s="18"/>
     </row>
-    <row r="721" spans="6:6" ht="13.2">
+    <row r="721" spans="6:6" ht="12.75">
       <c r="F721" s="18"/>
     </row>
-    <row r="722" spans="6:6" ht="13.2">
+    <row r="722" spans="6:6" ht="12.75">
       <c r="F722" s="18"/>
     </row>
-    <row r="723" spans="6:6" ht="13.2">
+    <row r="723" spans="6:6" ht="12.75">
       <c r="F723" s="18"/>
     </row>
-    <row r="724" spans="6:6" ht="13.2">
+    <row r="724" spans="6:6" ht="12.75">
       <c r="F724" s="18"/>
     </row>
-    <row r="725" spans="6:6" ht="13.2">
+    <row r="725" spans="6:6" ht="12.75">
       <c r="F725" s="18"/>
     </row>
-    <row r="726" spans="6:6" ht="13.2">
+    <row r="726" spans="6:6" ht="12.75">
       <c r="F726" s="18"/>
     </row>
-    <row r="727" spans="6:6" ht="13.2">
+    <row r="727" spans="6:6" ht="12.75">
       <c r="F727" s="18"/>
     </row>
-    <row r="728" spans="6:6" ht="13.2">
+    <row r="728" spans="6:6" ht="12.75">
       <c r="F728" s="18"/>
     </row>
-    <row r="729" spans="6:6" ht="13.2">
+    <row r="729" spans="6:6" ht="12.75">
       <c r="F729" s="18"/>
     </row>
-    <row r="730" spans="6:6" ht="13.2">
+    <row r="730" spans="6:6" ht="12.75">
       <c r="F730" s="18"/>
     </row>
-    <row r="731" spans="6:6" ht="13.2">
+    <row r="731" spans="6:6" ht="12.75">
       <c r="F731" s="18"/>
     </row>
-    <row r="732" spans="6:6" ht="13.2">
+    <row r="732" spans="6:6" ht="12.75">
       <c r="F732" s="18"/>
     </row>
-    <row r="733" spans="6:6" ht="13.2">
+    <row r="733" spans="6:6" ht="12.75">
       <c r="F733" s="18"/>
     </row>
-    <row r="734" spans="6:6" ht="13.2">
+    <row r="734" spans="6:6" ht="12.75">
       <c r="F734" s="18"/>
     </row>
-    <row r="735" spans="6:6" ht="13.2">
+    <row r="735" spans="6:6" ht="12.75">
       <c r="F735" s="18"/>
     </row>
-    <row r="736" spans="6:6" ht="13.2">
+    <row r="736" spans="6:6" ht="12.75">
       <c r="F736" s="18"/>
     </row>
-    <row r="737" spans="6:6" ht="13.2">
+    <row r="737" spans="6:6" ht="12.75">
       <c r="F737" s="18"/>
     </row>
-    <row r="738" spans="6:6" ht="13.2">
+    <row r="738" spans="6:6" ht="12.75">
       <c r="F738" s="18"/>
     </row>
-    <row r="739" spans="6:6" ht="13.2">
+    <row r="739" spans="6:6" ht="12.75">
       <c r="F739" s="18"/>
     </row>
-    <row r="740" spans="6:6" ht="13.2">
+    <row r="740" spans="6:6" ht="12.75">
       <c r="F740" s="18"/>
     </row>
-    <row r="741" spans="6:6" ht="13.2">
+    <row r="741" spans="6:6" ht="12.75">
       <c r="F741" s="18"/>
     </row>
-    <row r="742" spans="6:6" ht="13.2">
+    <row r="742" spans="6:6" ht="12.75">
       <c r="F742" s="18"/>
     </row>
-    <row r="743" spans="6:6" ht="13.2">
+    <row r="743" spans="6:6" ht="12.75">
       <c r="F743" s="18"/>
     </row>
-    <row r="744" spans="6:6" ht="13.2">
+    <row r="744" spans="6:6" ht="12.75">
       <c r="F744" s="18"/>
     </row>
-    <row r="745" spans="6:6" ht="13.2">
+    <row r="745" spans="6:6" ht="12.75">
       <c r="F745" s="18"/>
     </row>
-    <row r="746" spans="6:6" ht="13.2">
+    <row r="746" spans="6:6" ht="12.75">
       <c r="F746" s="18"/>
     </row>
-    <row r="747" spans="6:6" ht="13.2">
+    <row r="747" spans="6:6" ht="12.75">
       <c r="F747" s="18"/>
     </row>
-    <row r="748" spans="6:6" ht="13.2">
+    <row r="748" spans="6:6" ht="12.75">
       <c r="F748" s="18"/>
     </row>
-    <row r="749" spans="6:6" ht="13.2">
+    <row r="749" spans="6:6" ht="12.75">
       <c r="F749" s="18"/>
     </row>
-    <row r="750" spans="6:6" ht="13.2">
+    <row r="750" spans="6:6" ht="12.75">
       <c r="F750" s="18"/>
     </row>
-    <row r="751" spans="6:6" ht="13.2">
+    <row r="751" spans="6:6" ht="12.75">
       <c r="F751" s="18"/>
     </row>
-    <row r="752" spans="6:6" ht="13.2">
+    <row r="752" spans="6:6" ht="12.75">
       <c r="F752" s="18"/>
     </row>
-    <row r="753" spans="6:6" ht="13.2">
+    <row r="753" spans="6:6" ht="12.75">
       <c r="F753" s="18"/>
     </row>
-    <row r="754" spans="6:6" ht="13.2">
+    <row r="754" spans="6:6" ht="12.75">
       <c r="F754" s="18"/>
     </row>
-    <row r="755" spans="6:6" ht="13.2">
+    <row r="755" spans="6:6" ht="12.75">
       <c r="F755" s="18"/>
     </row>
-    <row r="756" spans="6:6" ht="13.2">
+    <row r="756" spans="6:6" ht="12.75">
       <c r="F756" s="18"/>
     </row>
-    <row r="757" spans="6:6" ht="13.2">
+    <row r="757" spans="6:6" ht="12.75">
       <c r="F757" s="18"/>
     </row>
-    <row r="758" spans="6:6" ht="13.2">
+    <row r="758" spans="6:6" ht="12.75">
       <c r="F758" s="18"/>
     </row>
-    <row r="759" spans="6:6" ht="13.2">
+    <row r="759" spans="6:6" ht="12.75">
       <c r="F759" s="18"/>
     </row>
-    <row r="760" spans="6:6" ht="13.2">
+    <row r="760" spans="6:6" ht="12.75">
       <c r="F760" s="18"/>
     </row>
-    <row r="761" spans="6:6" ht="13.2">
+    <row r="761" spans="6:6" ht="12.75">
       <c r="F761" s="18"/>
     </row>
-    <row r="762" spans="6:6" ht="13.2">
+    <row r="762" spans="6:6" ht="12.75">
       <c r="F762" s="18"/>
     </row>
-    <row r="763" spans="6:6" ht="13.2">
+    <row r="763" spans="6:6" ht="12.75">
       <c r="F763" s="18"/>
     </row>
-    <row r="764" spans="6:6" ht="13.2">
+    <row r="764" spans="6:6" ht="12.75">
       <c r="F764" s="18"/>
     </row>
-    <row r="765" spans="6:6" ht="13.2">
+    <row r="765" spans="6:6" ht="12.75">
       <c r="F765" s="18"/>
     </row>
-    <row r="766" spans="6:6" ht="13.2">
+    <row r="766" spans="6:6" ht="12.75">
       <c r="F766" s="18"/>
     </row>
-    <row r="767" spans="6:6" ht="13.2">
+    <row r="767" spans="6:6" ht="12.75">
       <c r="F767" s="18"/>
     </row>
-    <row r="768" spans="6:6" ht="13.2">
+    <row r="768" spans="6:6" ht="12.75">
       <c r="F768" s="18"/>
     </row>
-    <row r="769" spans="6:6" ht="13.2">
+    <row r="769" spans="6:6" ht="12.75">
       <c r="F769" s="18"/>
     </row>
-    <row r="770" spans="6:6" ht="13.2">
+    <row r="770" spans="6:6" ht="12.75">
       <c r="F770" s="18"/>
     </row>
-    <row r="771" spans="6:6" ht="13.2">
+    <row r="771" spans="6:6" ht="12.75">
       <c r="F771" s="18"/>
     </row>
-    <row r="772" spans="6:6" ht="13.2">
+    <row r="772" spans="6:6" ht="12.75">
       <c r="F772" s="18"/>
     </row>
-    <row r="773" spans="6:6" ht="13.2">
+    <row r="773" spans="6:6" ht="12.75">
       <c r="F773" s="18"/>
     </row>
-    <row r="774" spans="6:6" ht="13.2">
+    <row r="774" spans="6:6" ht="12.75">
       <c r="F774" s="18"/>
     </row>
-    <row r="775" spans="6:6" ht="13.2">
+    <row r="775" spans="6:6" ht="12.75">
       <c r="F775" s="18"/>
     </row>
-    <row r="776" spans="6:6" ht="13.2">
+    <row r="776" spans="6:6" ht="12.75">
       <c r="F776" s="18"/>
     </row>
-    <row r="777" spans="6:6" ht="13.2">
+    <row r="777" spans="6:6" ht="12.75">
       <c r="F777" s="18"/>
     </row>
-    <row r="778" spans="6:6" ht="13.2">
+    <row r="778" spans="6:6" ht="12.75">
       <c r="F778" s="18"/>
     </row>
-    <row r="779" spans="6:6" ht="13.2">
+    <row r="779" spans="6:6" ht="12.75">
       <c r="F779" s="18"/>
     </row>
-    <row r="780" spans="6:6" ht="13.2">
+    <row r="780" spans="6:6" ht="12.75">
       <c r="F780" s="18"/>
     </row>
-    <row r="781" spans="6:6" ht="13.2">
+    <row r="781" spans="6:6" ht="12.75">
       <c r="F781" s="18"/>
     </row>
-    <row r="782" spans="6:6" ht="13.2">
+    <row r="782" spans="6:6" ht="12.75">
       <c r="F782" s="18"/>
     </row>
-    <row r="783" spans="6:6" ht="13.2">
+    <row r="783" spans="6:6" ht="12.75">
       <c r="F783" s="18"/>
     </row>
-    <row r="784" spans="6:6" ht="13.2">
+    <row r="784" spans="6:6" ht="12.75">
       <c r="F784" s="18"/>
     </row>
-    <row r="785" spans="6:6" ht="13.2">
+    <row r="785" spans="6:6" ht="12.75">
       <c r="F785" s="18"/>
     </row>
-    <row r="786" spans="6:6" ht="13.2">
+    <row r="786" spans="6:6" ht="12.75">
       <c r="F786" s="18"/>
     </row>
-    <row r="787" spans="6:6" ht="13.2">
+    <row r="787" spans="6:6" ht="12.75">
       <c r="F787" s="18"/>
     </row>
-    <row r="788" spans="6:6" ht="13.2">
+    <row r="788" spans="6:6" ht="12.75">
       <c r="F788" s="18"/>
     </row>
-    <row r="789" spans="6:6" ht="13.2">
+    <row r="789" spans="6:6" ht="12.75">
       <c r="F789" s="18"/>
     </row>
-    <row r="790" spans="6:6" ht="13.2">
+    <row r="790" spans="6:6" ht="12.75">
       <c r="F790" s="18"/>
     </row>
-    <row r="791" spans="6:6" ht="13.2">
+    <row r="791" spans="6:6" ht="12.75">
       <c r="F791" s="18"/>
     </row>
-    <row r="792" spans="6:6" ht="13.2">
+    <row r="792" spans="6:6" ht="12.75">
       <c r="F792" s="18"/>
     </row>
-    <row r="793" spans="6:6" ht="13.2">
+    <row r="793" spans="6:6" ht="12.75">
       <c r="F793" s="18"/>
     </row>
-    <row r="794" spans="6:6" ht="13.2">
+    <row r="794" spans="6:6" ht="12.75">
       <c r="F794" s="18"/>
     </row>
-    <row r="795" spans="6:6" ht="13.2">
+    <row r="795" spans="6:6" ht="12.75">
       <c r="F795" s="18"/>
     </row>
-    <row r="796" spans="6:6" ht="13.2">
+    <row r="796" spans="6:6" ht="12.75">
       <c r="F796" s="18"/>
     </row>
-    <row r="797" spans="6:6" ht="13.2">
+    <row r="797" spans="6:6" ht="12.75">
       <c r="F797" s="18"/>
     </row>
-    <row r="798" spans="6:6" ht="13.2">
+    <row r="798" spans="6:6" ht="12.75">
       <c r="F798" s="18"/>
     </row>
-    <row r="799" spans="6:6" ht="13.2">
+    <row r="799" spans="6:6" ht="12.75">
       <c r="F799" s="18"/>
     </row>
-    <row r="800" spans="6:6" ht="13.2">
+    <row r="800" spans="6:6" ht="12.75">
       <c r="F800" s="18"/>
     </row>
-    <row r="801" spans="6:6" ht="13.2">
+    <row r="801" spans="6:6" ht="12.75">
       <c r="F801" s="18"/>
     </row>
-    <row r="802" spans="6:6" ht="13.2">
+    <row r="802" spans="6:6" ht="12.75">
       <c r="F802" s="18"/>
     </row>
-    <row r="803" spans="6:6" ht="13.2">
+    <row r="803" spans="6:6" ht="12.75">
       <c r="F803" s="18"/>
     </row>
-    <row r="804" spans="6:6" ht="13.2">
+    <row r="804" spans="6:6" ht="12.75">
       <c r="F804" s="18"/>
     </row>
-    <row r="805" spans="6:6" ht="13.2">
+    <row r="805" spans="6:6" ht="12.75">
       <c r="F805" s="18"/>
     </row>
-    <row r="806" spans="6:6" ht="13.2">
+    <row r="806" spans="6:6" ht="12.75">
       <c r="F806" s="18"/>
     </row>
-    <row r="807" spans="6:6" ht="13.2">
+    <row r="807" spans="6:6" ht="12.75">
       <c r="F807" s="18"/>
     </row>
-    <row r="808" spans="6:6" ht="13.2">
+    <row r="808" spans="6:6" ht="12.75">
       <c r="F808" s="18"/>
     </row>
-    <row r="809" spans="6:6" ht="13.2">
+    <row r="809" spans="6:6" ht="12.75">
       <c r="F809" s="18"/>
     </row>
-    <row r="810" spans="6:6" ht="13.2">
+    <row r="810" spans="6:6" ht="12.75">
       <c r="F810" s="18"/>
     </row>
-    <row r="811" spans="6:6" ht="13.2">
+    <row r="811" spans="6:6" ht="12.75">
       <c r="F811" s="18"/>
     </row>
-    <row r="812" spans="6:6" ht="13.2">
+    <row r="812" spans="6:6" ht="12.75">
       <c r="F812" s="18"/>
     </row>
-    <row r="813" spans="6:6" ht="13.2">
+    <row r="813" spans="6:6" ht="12.75">
       <c r="F813" s="18"/>
     </row>
-    <row r="814" spans="6:6" ht="13.2">
+    <row r="814" spans="6:6" ht="12.75">
       <c r="F814" s="18"/>
     </row>
-    <row r="815" spans="6:6" ht="13.2">
+    <row r="815" spans="6:6" ht="12.75">
       <c r="F815" s="18"/>
     </row>
-    <row r="816" spans="6:6" ht="13.2">
+    <row r="816" spans="6:6" ht="12.75">
       <c r="F816" s="18"/>
     </row>
-    <row r="817" spans="6:6" ht="13.2">
+    <row r="817" spans="6:6" ht="12.75">
       <c r="F817" s="18"/>
     </row>
-    <row r="818" spans="6:6" ht="13.2">
+    <row r="818" spans="6:6" ht="12.75">
       <c r="F818" s="18"/>
     </row>
-    <row r="819" spans="6:6" ht="13.2">
+    <row r="819" spans="6:6" ht="12.75">
       <c r="F819" s="18"/>
     </row>
-    <row r="820" spans="6:6" ht="13.2">
+    <row r="820" spans="6:6" ht="12.75">
       <c r="F820" s="18"/>
     </row>
-    <row r="821" spans="6:6" ht="13.2">
+    <row r="821" spans="6:6" ht="12.75">
       <c r="F821" s="18"/>
     </row>
-    <row r="822" spans="6:6" ht="13.2">
+    <row r="822" spans="6:6" ht="12.75">
       <c r="F822" s="18"/>
     </row>
-    <row r="823" spans="6:6" ht="13.2">
+    <row r="823" spans="6:6" ht="12.75">
       <c r="F823" s="18"/>
     </row>
-    <row r="824" spans="6:6" ht="13.2">
+    <row r="824" spans="6:6" ht="12.75">
       <c r="F824" s="18"/>
     </row>
-    <row r="825" spans="6:6" ht="13.2">
+    <row r="825" spans="6:6" ht="12.75">
       <c r="F825" s="18"/>
     </row>
-    <row r="826" spans="6:6" ht="13.2">
+    <row r="826" spans="6:6" ht="12.75">
       <c r="F826" s="18"/>
     </row>
-    <row r="827" spans="6:6" ht="13.2">
+    <row r="827" spans="6:6" ht="12.75">
       <c r="F827" s="18"/>
     </row>
-    <row r="828" spans="6:6" ht="13.2">
+    <row r="828" spans="6:6" ht="12.75">
       <c r="F828" s="18"/>
     </row>
-    <row r="829" spans="6:6" ht="13.2">
+    <row r="829" spans="6:6" ht="12.75">
       <c r="F829" s="18"/>
     </row>
-    <row r="830" spans="6:6" ht="13.2">
+    <row r="830" spans="6:6" ht="12.75">
       <c r="F830" s="18"/>
     </row>
-    <row r="831" spans="6:6" ht="13.2">
+    <row r="831" spans="6:6" ht="12.75">
       <c r="F831" s="18"/>
     </row>
-    <row r="832" spans="6:6" ht="13.2">
+    <row r="832" spans="6:6" ht="12.75">
       <c r="F832" s="18"/>
     </row>
-    <row r="833" spans="6:6" ht="13.2">
+    <row r="833" spans="6:6" ht="12.75">
       <c r="F833" s="18"/>
     </row>
-    <row r="834" spans="6:6" ht="13.2">
+    <row r="834" spans="6:6" ht="12.75">
       <c r="F834" s="18"/>
     </row>
-    <row r="835" spans="6:6" ht="13.2">
+    <row r="835" spans="6:6" ht="12.75">
       <c r="F835" s="18"/>
     </row>
-    <row r="836" spans="6:6" ht="13.2">
+    <row r="836" spans="6:6" ht="12.75">
       <c r="F836" s="18"/>
     </row>
-    <row r="837" spans="6:6" ht="13.2">
+    <row r="837" spans="6:6" ht="12.75">
       <c r="F837" s="18"/>
     </row>
-    <row r="838" spans="6:6" ht="13.2">
+    <row r="838" spans="6:6" ht="12.75">
       <c r="F838" s="18"/>
     </row>
-    <row r="839" spans="6:6" ht="13.2">
+    <row r="839" spans="6:6" ht="12.75">
       <c r="F839" s="18"/>
     </row>
-    <row r="840" spans="6:6" ht="13.2">
+    <row r="840" spans="6:6" ht="12.75">
       <c r="F840" s="18"/>
     </row>
-    <row r="841" spans="6:6" ht="13.2">
+    <row r="841" spans="6:6" ht="12.75">
       <c r="F841" s="18"/>
     </row>
-    <row r="842" spans="6:6" ht="13.2">
+    <row r="842" spans="6:6" ht="12.75">
       <c r="F842" s="18"/>
     </row>
-    <row r="843" spans="6:6" ht="13.2">
+    <row r="843" spans="6:6" ht="12.75">
       <c r="F843" s="18"/>
     </row>
-    <row r="844" spans="6:6" ht="13.2">
+    <row r="844" spans="6:6" ht="12.75">
       <c r="F844" s="18"/>
     </row>
-    <row r="845" spans="6:6" ht="13.2">
+    <row r="845" spans="6:6" ht="12.75">
       <c r="F845" s="18"/>
     </row>
-    <row r="846" spans="6:6" ht="13.2">
+    <row r="846" spans="6:6" ht="12.75">
       <c r="F846" s="18"/>
     </row>
-    <row r="847" spans="6:6" ht="13.2">
+    <row r="847" spans="6:6" ht="12.75">
       <c r="F847" s="18"/>
     </row>
-    <row r="848" spans="6:6" ht="13.2">
+    <row r="848" spans="6:6" ht="12.75">
       <c r="F848" s="18"/>
     </row>
-    <row r="849" spans="6:6" ht="13.2">
+    <row r="849" spans="6:6" ht="12.75">
       <c r="F849" s="18"/>
     </row>
-    <row r="850" spans="6:6" ht="13.2">
+    <row r="850" spans="6:6" ht="12.75">
       <c r="F850" s="18"/>
     </row>
-    <row r="851" spans="6:6" ht="13.2">
+    <row r="851" spans="6:6" ht="12.75">
       <c r="F851" s="18"/>
     </row>
-    <row r="852" spans="6:6" ht="13.2">
+    <row r="852" spans="6:6" ht="12.75">
       <c r="F852" s="18"/>
     </row>
-    <row r="853" spans="6:6" ht="13.2">
+    <row r="853" spans="6:6" ht="12.75">
       <c r="F853" s="18"/>
     </row>
-    <row r="854" spans="6:6" ht="13.2">
+    <row r="854" spans="6:6" ht="12.75">
       <c r="F854" s="18"/>
     </row>
-    <row r="855" spans="6:6" ht="13.2">
+    <row r="855" spans="6:6" ht="12.75">
       <c r="F855" s="18"/>
     </row>
-    <row r="856" spans="6:6" ht="13.2">
+    <row r="856" spans="6:6" ht="12.75">
       <c r="F856" s="18"/>
     </row>
-    <row r="857" spans="6:6" ht="13.2">
+    <row r="857" spans="6:6" ht="12.75">
       <c r="F857" s="18"/>
     </row>
-    <row r="858" spans="6:6" ht="13.2">
+    <row r="858" spans="6:6" ht="12.75">
       <c r="F858" s="18"/>
     </row>
-    <row r="859" spans="6:6" ht="13.2">
+    <row r="859" spans="6:6" ht="12.75">
       <c r="F859" s="18"/>
     </row>
-    <row r="860" spans="6:6" ht="13.2">
+    <row r="860" spans="6:6" ht="12.75">
       <c r="F860" s="18"/>
     </row>
-    <row r="861" spans="6:6" ht="13.2">
+    <row r="861" spans="6:6" ht="12.75">
       <c r="F861" s="18"/>
     </row>
-    <row r="862" spans="6:6" ht="13.2">
+    <row r="862" spans="6:6" ht="12.75">
       <c r="F862" s="18"/>
     </row>
-    <row r="863" spans="6:6" ht="13.2">
+    <row r="863" spans="6:6" ht="12.75">
       <c r="F863" s="18"/>
     </row>
-    <row r="864" spans="6:6" ht="13.2">
+    <row r="864" spans="6:6" ht="12.75">
       <c r="F864" s="18"/>
     </row>
-    <row r="865" spans="6:6" ht="13.2">
+    <row r="865" spans="6:6" ht="12.75">
       <c r="F865" s="18"/>
     </row>
-    <row r="866" spans="6:6" ht="13.2">
+    <row r="866" spans="6:6" ht="12.75">
       <c r="F866" s="18"/>
     </row>
-    <row r="867" spans="6:6" ht="13.2">
+    <row r="867" spans="6:6" ht="12.75">
       <c r="F867" s="18"/>
     </row>
-    <row r="868" spans="6:6" ht="13.2">
+    <row r="868" spans="6:6" ht="12.75">
       <c r="F868" s="18"/>
     </row>
-    <row r="869" spans="6:6" ht="13.2">
+    <row r="869" spans="6:6" ht="12.75">
       <c r="F869" s="18"/>
     </row>
-    <row r="870" spans="6:6" ht="13.2">
+    <row r="870" spans="6:6" ht="12.75">
       <c r="F870" s="18"/>
     </row>
-    <row r="871" spans="6:6" ht="13.2">
+    <row r="871" spans="6:6" ht="12.75">
       <c r="F871" s="18"/>
     </row>
-    <row r="872" spans="6:6" ht="13.2">
+    <row r="872" spans="6:6" ht="12.75">
       <c r="F872" s="18"/>
     </row>
-    <row r="873" spans="6:6" ht="13.2">
+    <row r="873" spans="6:6" ht="12.75">
       <c r="F873" s="18"/>
     </row>
-    <row r="874" spans="6:6" ht="13.2">
+    <row r="874" spans="6:6" ht="12.75">
       <c r="F874" s="18"/>
     </row>
-    <row r="875" spans="6:6" ht="13.2">
+    <row r="875" spans="6:6" ht="12.75">
       <c r="F875" s="18"/>
     </row>
-    <row r="876" spans="6:6" ht="13.2">
+    <row r="876" spans="6:6" ht="12.75">
       <c r="F876" s="18"/>
     </row>
-    <row r="877" spans="6:6" ht="13.2">
+    <row r="877" spans="6:6" ht="12.75">
       <c r="F877" s="18"/>
     </row>
-    <row r="878" spans="6:6" ht="13.2">
+    <row r="878" spans="6:6" ht="12.75">
       <c r="F878" s="18"/>
     </row>
-    <row r="879" spans="6:6" ht="13.2">
+    <row r="879" spans="6:6" ht="12.75">
       <c r="F879" s="18"/>
     </row>
-    <row r="880" spans="6:6" ht="13.2">
+    <row r="880" spans="6:6" ht="12.75">
       <c r="F880" s="18"/>
     </row>
-    <row r="881" spans="6:6" ht="13.2">
+    <row r="881" spans="6:6" ht="12.75">
       <c r="F881" s="18"/>
     </row>
-    <row r="882" spans="6:6" ht="13.2">
+    <row r="882" spans="6:6" ht="12.75">
       <c r="F882" s="18"/>
     </row>
-    <row r="883" spans="6:6" ht="13.2">
+    <row r="883" spans="6:6" ht="12.75">
       <c r="F883" s="18"/>
     </row>
-    <row r="884" spans="6:6" ht="13.2">
+    <row r="884" spans="6:6" ht="12.75">
       <c r="F884" s="18"/>
     </row>
-    <row r="885" spans="6:6" ht="13.2">
+    <row r="885" spans="6:6" ht="12.75">
       <c r="F885" s="18"/>
     </row>
-    <row r="886" spans="6:6" ht="13.2">
+    <row r="886" spans="6:6" ht="12.75">
       <c r="F886" s="18"/>
     </row>
-    <row r="887" spans="6:6" ht="13.2">
+    <row r="887" spans="6:6" ht="12.75">
       <c r="F887" s="18"/>
     </row>
-    <row r="888" spans="6:6" ht="13.2">
+    <row r="888" spans="6:6" ht="12.75">
       <c r="F888" s="18"/>
     </row>
-    <row r="889" spans="6:6" ht="13.2">
+    <row r="889" spans="6:6" ht="12.75">
       <c r="F889" s="18"/>
     </row>
-    <row r="890" spans="6:6" ht="13.2">
+    <row r="890" spans="6:6" ht="12.75">
       <c r="F890" s="18"/>
     </row>
-    <row r="891" spans="6:6" ht="13.2">
+    <row r="891" spans="6:6" ht="12.75">
       <c r="F891" s="18"/>
     </row>
-    <row r="892" spans="6:6" ht="13.2">
+    <row r="892" spans="6:6" ht="12.75">
       <c r="F892" s="18"/>
     </row>
-    <row r="893" spans="6:6" ht="13.2">
+    <row r="893" spans="6:6" ht="12.75">
       <c r="F893" s="18"/>
     </row>
-    <row r="894" spans="6:6" ht="13.2">
+    <row r="894" spans="6:6" ht="12.75">
       <c r="F894" s="18"/>
     </row>
-    <row r="895" spans="6:6" ht="13.2">
+    <row r="895" spans="6:6" ht="12.75">
       <c r="F895" s="18"/>
     </row>
-    <row r="896" spans="6:6" ht="13.2">
+    <row r="896" spans="6:6" ht="12.75">
       <c r="F896" s="18"/>
     </row>
-    <row r="897" spans="6:6" ht="13.2">
+    <row r="897" spans="6:6" ht="12.75">
       <c r="F897" s="18"/>
     </row>
-    <row r="898" spans="6:6" ht="13.2">
+    <row r="898" spans="6:6" ht="12.75">
       <c r="F898" s="18"/>
     </row>
-    <row r="899" spans="6:6" ht="13.2">
+    <row r="899" spans="6:6" ht="12.75">
       <c r="F899" s="18"/>
     </row>
-    <row r="900" spans="6:6" ht="13.2">
+    <row r="900" spans="6:6" ht="12.75">
       <c r="F900" s="18"/>
     </row>
-    <row r="901" spans="6:6" ht="13.2">
+    <row r="901" spans="6:6" ht="12.75">
       <c r="F901" s="18"/>
     </row>
-    <row r="902" spans="6:6" ht="13.2">
+    <row r="902" spans="6:6" ht="12.75">
       <c r="F902" s="18"/>
     </row>
-    <row r="903" spans="6:6" ht="13.2">
+    <row r="903" spans="6:6" ht="12.75">
       <c r="F903" s="18"/>
     </row>
-    <row r="904" spans="6:6" ht="13.2">
+    <row r="904" spans="6:6" ht="12.75">
       <c r="F904" s="18"/>
     </row>
-    <row r="905" spans="6:6" ht="13.2">
+    <row r="905" spans="6:6" ht="12.75">
       <c r="F905" s="18"/>
     </row>
-    <row r="906" spans="6:6" ht="13.2">
+    <row r="906" spans="6:6" ht="12.75">
       <c r="F906" s="18"/>
     </row>
-    <row r="907" spans="6:6" ht="13.2">
+    <row r="907" spans="6:6" ht="12.75">
       <c r="F907" s="18"/>
     </row>
-    <row r="908" spans="6:6" ht="13.2">
+    <row r="908" spans="6:6" ht="12.75">
       <c r="F908" s="18"/>
     </row>
-    <row r="909" spans="6:6" ht="13.2">
+    <row r="909" spans="6:6" ht="12.75">
       <c r="F909" s="18"/>
     </row>
-    <row r="910" spans="6:6" ht="13.2">
+    <row r="910" spans="6:6" ht="12.75">
       <c r="F910" s="18"/>
     </row>
-    <row r="911" spans="6:6" ht="13.2">
+    <row r="911" spans="6:6" ht="12.75">
       <c r="F911" s="18"/>
     </row>
-    <row r="912" spans="6:6" ht="13.2">
+    <row r="912" spans="6:6" ht="12.75">
       <c r="F912" s="18"/>
     </row>
-    <row r="913" spans="6:6" ht="13.2">
+    <row r="913" spans="6:6" ht="12.75">
       <c r="F913" s="18"/>
     </row>
-    <row r="914" spans="6:6" ht="13.2">
+    <row r="914" spans="6:6" ht="12.75">
       <c r="F914" s="18"/>
     </row>
-    <row r="915" spans="6:6" ht="13.2">
+    <row r="915" spans="6:6" ht="12.75">
       <c r="F915" s="18"/>
     </row>
-    <row r="916" spans="6:6" ht="13.2">
+    <row r="916" spans="6:6" ht="12.75">
       <c r="F916" s="18"/>
     </row>
-    <row r="917" spans="6:6" ht="13.2">
+    <row r="917" spans="6:6" ht="12.75">
       <c r="F917" s="18"/>
     </row>
-    <row r="918" spans="6:6" ht="13.2">
+    <row r="918" spans="6:6" ht="12.75">
       <c r="F918" s="18"/>
     </row>
-    <row r="919" spans="6:6" ht="13.2">
+    <row r="919" spans="6:6" ht="12.75">
       <c r="F919" s="18"/>
     </row>
-    <row r="920" spans="6:6" ht="13.2">
+    <row r="920" spans="6:6" ht="12.75">
       <c r="F920" s="18"/>
     </row>
-    <row r="921" spans="6:6" ht="13.2">
+    <row r="921" spans="6:6" ht="12.75">
       <c r="F921" s="18"/>
     </row>
-    <row r="922" spans="6:6" ht="13.2">
+    <row r="922" spans="6:6" ht="12.75">
       <c r="F922" s="18"/>
     </row>
-    <row r="923" spans="6:6" ht="13.2">
+    <row r="923" spans="6:6" ht="12.75">
       <c r="F923" s="18"/>
     </row>
-    <row r="924" spans="6:6" ht="13.2">
+    <row r="924" spans="6:6" ht="12.75">
       <c r="F924" s="18"/>
     </row>
-    <row r="925" spans="6:6" ht="13.2">
+    <row r="925" spans="6:6" ht="12.75">
       <c r="F925" s="18"/>
     </row>
-    <row r="926" spans="6:6" ht="13.2">
+    <row r="926" spans="6:6" ht="12.75">
       <c r="F926" s="18"/>
     </row>
-    <row r="927" spans="6:6" ht="13.2">
+    <row r="927" spans="6:6" ht="12.75">
       <c r="F927" s="18"/>
     </row>
-    <row r="928" spans="6:6" ht="13.2">
+    <row r="928" spans="6:6" ht="12.75">
       <c r="F928" s="18"/>
     </row>
-    <row r="929" spans="6:6" ht="13.2">
+    <row r="929" spans="6:6" ht="12.75">
       <c r="F929" s="18"/>
     </row>
-    <row r="930" spans="6:6" ht="13.2">
+    <row r="930" spans="6:6" ht="12.75">
       <c r="F930" s="18"/>
     </row>
-    <row r="931" spans="6:6" ht="13.2">
+    <row r="931" spans="6:6" ht="12.75">
       <c r="F931" s="18"/>
     </row>
-    <row r="932" spans="6:6" ht="13.2">
+    <row r="932" spans="6:6" ht="12.75">
       <c r="F932" s="18"/>
     </row>
-    <row r="933" spans="6:6" ht="13.2">
+    <row r="933" spans="6:6" ht="12.75">
       <c r="F933" s="18"/>
     </row>
-    <row r="934" spans="6:6" ht="13.2">
+    <row r="934" spans="6:6" ht="12.75">
       <c r="F934" s="18"/>
     </row>
-    <row r="935" spans="6:6" ht="13.2">
+    <row r="935" spans="6:6" ht="12.75">
       <c r="F935" s="18"/>
     </row>
-    <row r="936" spans="6:6" ht="13.2">
+    <row r="936" spans="6:6" ht="12.75">
       <c r="F936" s="18"/>
     </row>
-    <row r="937" spans="6:6" ht="13.2">
+    <row r="937" spans="6:6" ht="12.75">
       <c r="F937" s="18"/>
     </row>
-    <row r="938" spans="6:6" ht="13.2">
+    <row r="938" spans="6:6" ht="12.75">
       <c r="F938" s="18"/>
     </row>
-    <row r="939" spans="6:6" ht="13.2">
+    <row r="939" spans="6:6" ht="12.75">
       <c r="F939" s="18"/>
     </row>
-    <row r="940" spans="6:6" ht="13.2">
+    <row r="940" spans="6:6" ht="12.75">
       <c r="F940" s="18"/>
     </row>
-    <row r="941" spans="6:6" ht="13.2">
+    <row r="941" spans="6:6" ht="12.75">
       <c r="F941" s="18"/>
     </row>
-    <row r="942" spans="6:6" ht="13.2">
+    <row r="942" spans="6:6" ht="12.75">
       <c r="F942" s="18"/>
     </row>
-    <row r="943" spans="6:6" ht="13.2">
+    <row r="943" spans="6:6" ht="12.75">
       <c r="F943" s="18"/>
     </row>
-    <row r="944" spans="6:6" ht="13.2">
+    <row r="944" spans="6:6" ht="12.75">
       <c r="F944" s="18"/>
     </row>
-    <row r="945" spans="6:6" ht="13.2">
+    <row r="945" spans="6:6" ht="12.75">
       <c r="F945" s="18"/>
     </row>
-    <row r="946" spans="6:6" ht="13.2">
+    <row r="946" spans="6:6" ht="12.75">
       <c r="F946" s="18"/>
     </row>
-    <row r="947" spans="6:6" ht="13.2">
+    <row r="947" spans="6:6" ht="12.75">
       <c r="F947" s="18"/>
     </row>
-    <row r="948" spans="6:6" ht="13.2">
+    <row r="948" spans="6:6" ht="12.75">
       <c r="F948" s="18"/>
     </row>
-    <row r="949" spans="6:6" ht="13.2">
+    <row r="949" spans="6:6" ht="12.75">
       <c r="F949" s="18"/>
     </row>
-    <row r="950" spans="6:6" ht="13.2">
+    <row r="950" spans="6:6" ht="12.75">
       <c r="F950" s="18"/>
     </row>
-    <row r="951" spans="6:6" ht="13.2">
+    <row r="951" spans="6:6" ht="12.75">
       <c r="F951" s="18"/>
     </row>
-    <row r="952" spans="6:6" ht="13.2">
+    <row r="952" spans="6:6" ht="12.75">
       <c r="F952" s="18"/>
     </row>
-    <row r="953" spans="6:6" ht="13.2">
+    <row r="953" spans="6:6" ht="12.75">
       <c r="F953" s="18"/>
     </row>
-    <row r="954" spans="6:6" ht="13.2">
+    <row r="954" spans="6:6" ht="12.75">
       <c r="F954" s="18"/>
     </row>
-    <row r="955" spans="6:6" ht="13.2">
+    <row r="955" spans="6:6" ht="12.75">
       <c r="F955" s="18"/>
     </row>
-    <row r="956" spans="6:6" ht="13.2">
+    <row r="956" spans="6:6" ht="12.75">
       <c r="F956" s="18"/>
     </row>
-    <row r="957" spans="6:6" ht="13.2">
+    <row r="957" spans="6:6" ht="12.75">
       <c r="F957" s="18"/>
     </row>
-    <row r="958" spans="6:6" ht="13.2">
+    <row r="958" spans="6:6" ht="12.75">
       <c r="F958" s="18"/>
     </row>
-    <row r="959" spans="6:6" ht="13.2">
+    <row r="959" spans="6:6" ht="12.75">
       <c r="F959" s="18"/>
     </row>
-    <row r="960" spans="6:6" ht="13.2">
+    <row r="960" spans="6:6" ht="12.75">
       <c r="F960" s="18"/>
     </row>
-    <row r="961" spans="6:6" ht="13.2">
+    <row r="961" spans="6:6" ht="12.75">
       <c r="F961" s="18"/>
     </row>
-    <row r="962" spans="6:6" ht="13.2">
+    <row r="962" spans="6:6" ht="12.75">
       <c r="F962" s="18"/>
     </row>
-    <row r="963" spans="6:6" ht="13.2">
+    <row r="963" spans="6:6" ht="12.75">
       <c r="F963" s="18"/>
     </row>
-    <row r="964" spans="6:6" ht="13.2">
+    <row r="964" spans="6:6" ht="12.75">
       <c r="F964" s="18"/>
     </row>
-    <row r="965" spans="6:6" ht="13.2">
+    <row r="965" spans="6:6" ht="12.75">
       <c r="F965" s="18"/>
     </row>
-    <row r="966" spans="6:6" ht="13.2">
+    <row r="966" spans="6:6" ht="12.75">
       <c r="F966" s="18"/>
     </row>
-    <row r="967" spans="6:6" ht="13.2">
+    <row r="967" spans="6:6" ht="12.75">
       <c r="F967" s="18"/>
     </row>
-    <row r="968" spans="6:6" ht="13.2">
+    <row r="968" spans="6:6" ht="12.75">
       <c r="F968" s="18"/>
     </row>
-    <row r="969" spans="6:6" ht="13.2">
+    <row r="969" spans="6:6" ht="12.75">
       <c r="F969" s="18"/>
     </row>
-    <row r="970" spans="6:6" ht="13.2">
+    <row r="970" spans="6:6" ht="12.75">
       <c r="F970" s="18"/>
     </row>
-    <row r="971" spans="6:6" ht="13.2">
+    <row r="971" spans="6:6" ht="12.75">
       <c r="F971" s="18"/>
     </row>
-    <row r="972" spans="6:6" ht="13.2">
+    <row r="972" spans="6:6" ht="12.75">
       <c r="F972" s="18"/>
     </row>
-    <row r="973" spans="6:6" ht="13.2">
+    <row r="973" spans="6:6" ht="12.75">
       <c r="F973" s="18"/>
     </row>
-    <row r="974" spans="6:6" ht="13.2">
+    <row r="974" spans="6:6" ht="12.75">
       <c r="F974" s="18"/>
     </row>
-    <row r="975" spans="6:6" ht="13.2">
+    <row r="975" spans="6:6" ht="12.75">
       <c r="F975" s="18"/>
     </row>
-    <row r="976" spans="6:6" ht="13.2">
+    <row r="976" spans="6:6" ht="12.75">
       <c r="F976" s="18"/>
     </row>
-    <row r="977" spans="6:6" ht="13.2">
+    <row r="977" spans="6:6" ht="12.75">
       <c r="F977" s="18"/>
     </row>
-    <row r="978" spans="6:6" ht="13.2">
+    <row r="978" spans="6:6" ht="12.75">
       <c r="F978" s="18"/>
     </row>
-    <row r="979" spans="6:6" ht="13.2">
+    <row r="979" spans="6:6" ht="12.75">
       <c r="F979" s="18"/>
     </row>
-    <row r="980" spans="6:6" ht="13.2">
+    <row r="980" spans="6:6" ht="12.75">
       <c r="F980" s="18"/>
     </row>
-    <row r="981" spans="6:6" ht="13.2">
+    <row r="981" spans="6:6" ht="12.75">
       <c r="F981" s="18"/>
     </row>
-    <row r="982" spans="6:6" ht="13.2">
+    <row r="982" spans="6:6" ht="12.75">
       <c r="F982" s="18"/>
     </row>
-    <row r="983" spans="6:6" ht="13.2">
+    <row r="983" spans="6:6" ht="12.75">
       <c r="F983" s="18"/>
     </row>
-    <row r="984" spans="6:6" ht="13.2">
+    <row r="984" spans="6:6" ht="12.75">
       <c r="F984" s="18"/>
     </row>
-    <row r="985" spans="6:6" ht="13.2">
+    <row r="985" spans="6:6" ht="12.75">
       <c r="F985" s="18"/>
     </row>
-    <row r="986" spans="6:6" ht="13.2">
+    <row r="986" spans="6:6" ht="12.75">
       <c r="F986" s="18"/>
     </row>
-    <row r="987" spans="6:6" ht="13.2">
+    <row r="987" spans="6:6" ht="12.75">
       <c r="F987" s="18"/>
     </row>
-    <row r="988" spans="6:6" ht="13.2">
+    <row r="988" spans="6:6" ht="12.75">
       <c r="F988" s="18"/>
     </row>
-    <row r="989" spans="6:6" ht="13.2">
+    <row r="989" spans="6:6" ht="12.75">
       <c r="F989" s="18"/>
     </row>
-    <row r="990" spans="6:6" ht="13.2">
+    <row r="990" spans="6:6" ht="12.75">
       <c r="F990" s="18"/>
     </row>
-    <row r="991" spans="6:6" ht="13.2">
+    <row r="991" spans="6:6" ht="12.75">
       <c r="F991" s="18"/>
     </row>
-    <row r="992" spans="6:6" ht="13.2">
+    <row r="992" spans="6:6" ht="12.75">
       <c r="F992" s="18"/>
     </row>
-    <row r="993" spans="6:6" ht="13.2">
+    <row r="993" spans="6:6" ht="12.75">
       <c r="F993" s="18"/>
     </row>
-    <row r="994" spans="6:6" ht="13.2">
+    <row r="994" spans="6:6" ht="12.75">
       <c r="F994" s="18"/>
     </row>
-    <row r="995" spans="6:6" ht="13.2">
+    <row r="995" spans="6:6" ht="12.75">
       <c r="F995" s="18"/>
     </row>
-    <row r="996" spans="6:6" ht="13.2">
+    <row r="996" spans="6:6" ht="12.75">
       <c r="F996" s="18"/>
     </row>
-    <row r="997" spans="6:6" ht="13.2">
+    <row r="997" spans="6:6" ht="12.75">
       <c r="F997" s="18"/>
     </row>
-    <row r="998" spans="6:6" ht="13.2">
+    <row r="998" spans="6:6" ht="12.75">
       <c r="F998" s="18"/>
     </row>
-    <row r="999" spans="6:6" ht="13.2">
+    <row r="999" spans="6:6" ht="12.75">
       <c r="F999" s="18"/>
     </row>
-    <row r="1000" spans="6:6" ht="13.2">
+    <row r="1000" spans="6:6" ht="12.75">
       <c r="F1000" s="18"/>
     </row>
   </sheetData>
